--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2702B1-3EA2-4E92-B1EB-AE9FB19AF67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D31AF7-D6B5-427D-8F09-C3AB1242C2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="-3570" windowWidth="20595" windowHeight="20985" tabRatio="767" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:P751"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>

--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA731206-3B05-4A38-9D46-75A33DBDE2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B74B8B-7FD6-4405-99A6-F835F9103BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="938" firstSheet="31" activeTab="49" xr2:uid="{55B9E275-A6B6-4F78-BAFC-AB24780A7E04}"/>
+    <workbookView xWindow="34320" yWindow="615" windowWidth="10065" windowHeight="12540" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="567">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -1839,6 +1838,15 @@
   </si>
   <si>
     <t>FY26</t>
+  </si>
+  <si>
+    <t>ANALYSTS</t>
+  </si>
+  <si>
+    <t>EBITDA Margin</t>
+  </si>
+  <si>
+    <t>Average 4 quarters</t>
   </si>
 </sst>
 </file>
@@ -2180,6 +2188,56 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>390269</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>373997</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0414FA8-C700-109C-51BF-0DA55156E4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="7229"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20705733" y="1500386"/>
+          <a:ext cx="7005014" cy="2705020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2485,7 +2543,6 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
@@ -2543,9 +2600,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2944,8 +2998,569 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="27"/>
+    <col min="3" max="3" width="3" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="4" max="4" width="46" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="5" max="8" width="17" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="9" max="258" width="21.7109375" style="27" customWidth="1"/>
+    <col min="259" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="D10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="D11" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="D12" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="D13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="D16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="D17" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="D18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="D19" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="27">
+        <v>2023</v>
+      </c>
+      <c r="F19" s="27">
+        <v>2022</v>
+      </c>
+      <c r="G19" s="27">
+        <v>2023</v>
+      </c>
+      <c r="H19" s="27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="28">
+        <v>275510</v>
+      </c>
+      <c r="F20" s="28">
+        <v>232639</v>
+      </c>
+      <c r="G20" s="28">
+        <v>778193</v>
+      </c>
+      <c r="H20" s="28">
+        <v>661875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="D21" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="29">
+        <v>80049</v>
+      </c>
+      <c r="F22" s="29">
+        <v>64581</v>
+      </c>
+      <c r="G22" s="29">
+        <v>227366</v>
+      </c>
+      <c r="H22" s="29">
+        <v>181702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="29">
+        <v>68848</v>
+      </c>
+      <c r="F23" s="29">
+        <v>64316</v>
+      </c>
+      <c r="G23" s="29">
+        <v>197767</v>
+      </c>
+      <c r="H23" s="29">
+        <v>180628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="29">
+        <v>48577</v>
+      </c>
+      <c r="F24" s="29">
+        <v>27265</v>
+      </c>
+      <c r="G24" s="29">
+        <v>141706</v>
+      </c>
+      <c r="H24" s="29">
+        <v>100061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="29">
+        <v>30909</v>
+      </c>
+      <c r="F25" s="29">
+        <v>28378</v>
+      </c>
+      <c r="G25" s="29">
+        <v>100294</v>
+      </c>
+      <c r="H25" s="29">
+        <v>81054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="29">
+        <v>17127</v>
+      </c>
+      <c r="F26" s="29">
+        <v>19755</v>
+      </c>
+      <c r="G26" s="29">
+        <v>50825</v>
+      </c>
+      <c r="H26" s="29">
+        <v>73835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9"/>
+      <c r="D27" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="29">
+        <v>245510</v>
+      </c>
+      <c r="F27" s="29">
+        <v>204295</v>
+      </c>
+      <c r="G27" s="29">
+        <v>717958</v>
+      </c>
+      <c r="H27" s="29">
+        <v>617280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="D28" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="29">
+        <v>30000</v>
+      </c>
+      <c r="F28" s="29">
+        <v>28344</v>
+      </c>
+      <c r="G28" s="29">
+        <v>60235</v>
+      </c>
+      <c r="H28" s="29">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="29">
+        <v>-5256</v>
+      </c>
+      <c r="F29" s="29">
+        <v>-6866</v>
+      </c>
+      <c r="G29" s="29">
+        <v>-16585</v>
+      </c>
+      <c r="H29" s="29">
+        <v>-18446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="29">
+        <v>252</v>
+      </c>
+      <c r="F30" s="29">
+        <v>6545</v>
+      </c>
+      <c r="G30" s="29">
+        <v>-6278</v>
+      </c>
+      <c r="H30" s="29">
+        <v>24729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="29">
+        <v>24996</v>
+      </c>
+      <c r="F31" s="29">
+        <v>28023</v>
+      </c>
+      <c r="G31" s="29">
+        <v>37372</v>
+      </c>
+      <c r="H31" s="29">
+        <v>50878</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="29">
+        <v>-1872</v>
+      </c>
+      <c r="F32" s="29">
+        <v>-1618</v>
+      </c>
+      <c r="G32" s="29">
+        <v>-7228</v>
+      </c>
+      <c r="H32" s="29">
+        <v>-5756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="D33" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="29">
+        <v>23124</v>
+      </c>
+      <c r="F33" s="29">
+        <v>26405</v>
+      </c>
+      <c r="G33" s="29">
+        <v>30144</v>
+      </c>
+      <c r="H33" s="29">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="D34" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="29">
+        <v>6453</v>
+      </c>
+      <c r="F35" s="29">
+        <v>8342</v>
+      </c>
+      <c r="G35" s="29">
+        <v>8331</v>
+      </c>
+      <c r="H35" s="29">
+        <v>14298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="D36" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="28">
+        <v>16671</v>
+      </c>
+      <c r="F37" s="28">
+        <v>18063</v>
+      </c>
+      <c r="G37" s="28">
+        <v>21813</v>
+      </c>
+      <c r="H37" s="28">
+        <v>30824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="D38" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="D39" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="D40" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="31">
+        <v>0.12</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G40" s="31">
+        <v>0.16</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="D41" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.12</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0.16</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{4427C2B9-085B-40A5-A7EB-C2BBC11E1223}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348CE829-0EB3-47AF-A32A-B96A3DA86696}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3010,7 +3625,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="32" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -3020,7 +3635,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="32" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -3091,10 +3706,10 @@
         <v>180</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3102,16 +3717,16 @@
         <v>144</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3119,400 +3734,777 @@
         <v>144</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="27">
-        <v>2023</v>
-      </c>
-      <c r="F19" s="27">
-        <v>2022</v>
-      </c>
-      <c r="G19" s="27">
-        <v>2023</v>
-      </c>
-      <c r="H19" s="27">
-        <v>2022</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="28">
+        <v>259735</v>
+      </c>
+      <c r="F19" s="28">
+        <v>219206</v>
+      </c>
+      <c r="G19" s="28">
+        <v>502683</v>
+      </c>
+      <c r="H19" s="28">
+        <v>429236</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D20" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="28">
-        <v>275510</v>
-      </c>
-      <c r="F20" s="28">
-        <v>232639</v>
-      </c>
-      <c r="G20" s="28">
-        <v>778193</v>
-      </c>
-      <c r="H20" s="28">
-        <v>661875</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="27" t="s">
-        <v>176</v>
+        <v>55</v>
+      </c>
+      <c r="E21" s="29">
+        <v>76737</v>
+      </c>
+      <c r="F21" s="29">
+        <v>61509</v>
+      </c>
+      <c r="G21" s="29">
+        <v>147317</v>
+      </c>
+      <c r="H21" s="29">
+        <v>117121</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="E22" s="29">
-        <v>80049</v>
+        <v>65329</v>
       </c>
       <c r="F22" s="29">
-        <v>64581</v>
+        <v>59483</v>
       </c>
       <c r="G22" s="29">
-        <v>227366</v>
+        <v>128919</v>
       </c>
       <c r="H22" s="29">
-        <v>181702</v>
+        <v>116312</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="29">
-        <v>68848</v>
+        <v>43298</v>
       </c>
       <c r="F23" s="29">
-        <v>64316</v>
+        <v>48943</v>
       </c>
       <c r="G23" s="29">
-        <v>197767</v>
+        <v>93129</v>
       </c>
       <c r="H23" s="29">
-        <v>180628</v>
+        <v>72796</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="29">
-        <v>48577</v>
+        <v>36233</v>
       </c>
       <c r="F24" s="29">
-        <v>27265</v>
+        <v>24888</v>
       </c>
       <c r="G24" s="29">
-        <v>141706</v>
+        <v>69385</v>
       </c>
       <c r="H24" s="29">
-        <v>100061</v>
+        <v>52676</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="29">
-        <v>30909</v>
+        <v>16967</v>
       </c>
       <c r="F25" s="29">
-        <v>28378</v>
+        <v>27151</v>
       </c>
       <c r="G25" s="29">
-        <v>100294</v>
+        <v>33698</v>
       </c>
       <c r="H25" s="29">
-        <v>81054</v>
+        <v>54080</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="A26" s="9"/>
       <c r="D26" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" s="29">
-        <v>17127</v>
+        <v>238564</v>
       </c>
       <c r="F26" s="29">
-        <v>19755</v>
+        <v>221974</v>
       </c>
       <c r="G26" s="29">
-        <v>50825</v>
+        <v>472448</v>
       </c>
       <c r="H26" s="29">
-        <v>73835</v>
+        <v>412985</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
       <c r="D27" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="29">
-        <v>245510</v>
+        <v>21171</v>
       </c>
       <c r="F27" s="29">
-        <v>204295</v>
+        <v>-2768</v>
       </c>
       <c r="G27" s="29">
-        <v>717958</v>
+        <v>30235</v>
       </c>
       <c r="H27" s="29">
-        <v>617280</v>
+        <v>16251</v>
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="D28" s="27" t="s">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="E28" s="29">
-        <v>30000</v>
+        <v>-6110</v>
       </c>
       <c r="F28" s="29">
-        <v>28344</v>
+        <v>-5989</v>
       </c>
       <c r="G28" s="29">
-        <v>60235</v>
+        <v>-11329</v>
       </c>
       <c r="H28" s="29">
-        <v>44595</v>
+        <v>-11580</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="9" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="E29" s="29">
-        <v>-5256</v>
+        <v>-2969</v>
       </c>
       <c r="F29" s="29">
-        <v>-6866</v>
+        <v>4954</v>
       </c>
       <c r="G29" s="29">
-        <v>-16585</v>
+        <v>-6530</v>
       </c>
       <c r="H29" s="29">
-        <v>-18446</v>
+        <v>18184</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="D30" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E30" s="29">
-        <v>252</v>
+        <v>12092</v>
       </c>
       <c r="F30" s="29">
-        <v>6545</v>
+        <v>-3803</v>
       </c>
       <c r="G30" s="29">
-        <v>-6278</v>
+        <v>12376</v>
       </c>
       <c r="H30" s="29">
-        <v>24729</v>
+        <v>22855</v>
       </c>
     </row>
     <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D31" s="27" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="E31" s="29">
-        <v>24996</v>
+        <v>-2743</v>
       </c>
       <c r="F31" s="29">
-        <v>28023</v>
+        <v>-1228</v>
       </c>
       <c r="G31" s="29">
-        <v>37372</v>
+        <v>-5356</v>
       </c>
       <c r="H31" s="29">
-        <v>50878</v>
+        <v>-4138</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D32" s="27" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="E32" s="29">
-        <v>-1872</v>
+        <v>9349</v>
       </c>
       <c r="F32" s="29">
-        <v>-1618</v>
+        <v>-5031</v>
       </c>
       <c r="G32" s="29">
-        <v>-7228</v>
+        <v>7020</v>
       </c>
       <c r="H32" s="29">
-        <v>-5756</v>
+        <v>18717</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="D33" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="29">
-        <v>23124</v>
-      </c>
-      <c r="F33" s="29">
-        <v>26405</v>
-      </c>
-      <c r="G33" s="29">
-        <v>30144</v>
-      </c>
-      <c r="H33" s="29">
-        <v>45122</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8">
+      <c r="A34" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D34" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="E34" s="29">
+        <v>2596</v>
+      </c>
+      <c r="F34" s="29">
+        <v>-1591</v>
+      </c>
+      <c r="G34" s="29">
+        <v>1878</v>
+      </c>
+      <c r="H34" s="29">
+        <v>5956</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="D35" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="29">
-        <v>6453</v>
-      </c>
-      <c r="F35" s="29">
-        <v>8342</v>
-      </c>
-      <c r="G35" s="29">
-        <v>8331</v>
-      </c>
-      <c r="H35" s="29">
-        <v>14298</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:8">
+      <c r="A36" s="27" t="s">
+        <v>549</v>
+      </c>
       <c r="D36" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="E36" s="28">
+        <v>6753</v>
+      </c>
+      <c r="F36" s="28">
+        <v>-3440</v>
+      </c>
+      <c r="G36" s="28">
+        <v>5142</v>
+      </c>
+      <c r="H36" s="28">
+        <v>12761</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="27" t="s">
-        <v>549</v>
-      </c>
       <c r="D37" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="28">
-        <v>16671</v>
-      </c>
-      <c r="F37" s="28">
-        <v>18063</v>
-      </c>
-      <c r="G37" s="28">
-        <v>21813</v>
-      </c>
-      <c r="H37" s="28">
-        <v>30824</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="D38" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="D39" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="31">
+        <v>-0.03</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="D40" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="31">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F40" s="31">
-        <v>0.14000000000000001</v>
+        <v>-0.03</v>
       </c>
       <c r="G40" s="31">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="H40" s="31">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="D41" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="31">
-        <v>0.12</v>
-      </c>
-      <c r="F41" s="31">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G41" s="31">
-        <v>0.16</v>
-      </c>
-      <c r="H41" s="31">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{4427C2B9-085B-40A5-A7EB-C2BBC11E1223}"/>
+    <hyperlink ref="C8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{EADF28DC-6FF9-4E22-A895-8BBD2143EE74}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348CE829-0EB3-47AF-A32A-B96A3DA86696}">
-  <dimension ref="A1:H40"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BDAFEA-E991-448D-9CB0-3126CE77D16E}">
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="27"/>
+    <col min="3" max="3" width="3" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="4" max="4" width="58" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="5" max="6" width="17" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="7" max="258" width="21.7109375" style="27" customWidth="1"/>
+    <col min="259" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="D10" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="D11" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="D12" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="D13" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="D16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="D17" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="D18" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="28">
+        <v>242948</v>
+      </c>
+      <c r="F19" s="28">
+        <v>210030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="D20" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="29">
+        <v>70580</v>
+      </c>
+      <c r="F21" s="29">
+        <v>55612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="29">
+        <v>63590</v>
+      </c>
+      <c r="F22" s="29">
+        <v>56829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="29">
+        <v>49831</v>
+      </c>
+      <c r="F23" s="29">
+        <v>23853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="29">
+        <v>33152</v>
+      </c>
+      <c r="F24" s="29">
+        <v>27788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="29">
+        <v>16731</v>
+      </c>
+      <c r="F25" s="29">
+        <v>26929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="D26" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="29">
+        <v>233884</v>
+      </c>
+      <c r="F26" s="29">
+        <v>191011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="D27" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="29">
+        <v>9064</v>
+      </c>
+      <c r="F27" s="29">
+        <v>19019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E28" s="29">
+        <v>-5219</v>
+      </c>
+      <c r="F28" s="29">
+        <v>-5591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="29">
+        <v>-3561</v>
+      </c>
+      <c r="F29" s="29">
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="29">
+        <v>284</v>
+      </c>
+      <c r="F30" s="29">
+        <v>26658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="29">
+        <v>-2613</v>
+      </c>
+      <c r="F31" s="29">
+        <v>-2910</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="29">
+        <v>-2329</v>
+      </c>
+      <c r="F32" s="29">
+        <v>23748</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="D33" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="29">
+        <v>-718</v>
+      </c>
+      <c r="F34" s="29">
+        <v>7547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="D35" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="28">
+        <v>-1611</v>
+      </c>
+      <c r="F36" s="28">
+        <v>16201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="D37" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="D38" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="D39" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="31">
+        <v>-0.01</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="D40" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="31">
+        <v>-0.01</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{DEC81CE3-1B17-4EE5-B6A8-78EDF350318E}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF1E5DE-DA0F-48F0-913B-9E8844BACCCC}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -3577,956 +4569,6 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="D10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="D11" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="D12" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="D13" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="D16" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="D17" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="D18" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="28">
-        <v>259735</v>
-      </c>
-      <c r="F19" s="28">
-        <v>219206</v>
-      </c>
-      <c r="G19" s="28">
-        <v>502683</v>
-      </c>
-      <c r="H19" s="28">
-        <v>429236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="D20" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="29">
-        <v>76737</v>
-      </c>
-      <c r="F21" s="29">
-        <v>61509</v>
-      </c>
-      <c r="G21" s="29">
-        <v>147317</v>
-      </c>
-      <c r="H21" s="29">
-        <v>117121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="29">
-        <v>65329</v>
-      </c>
-      <c r="F22" s="29">
-        <v>59483</v>
-      </c>
-      <c r="G22" s="29">
-        <v>128919</v>
-      </c>
-      <c r="H22" s="29">
-        <v>116312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="29">
-        <v>43298</v>
-      </c>
-      <c r="F23" s="29">
-        <v>48943</v>
-      </c>
-      <c r="G23" s="29">
-        <v>93129</v>
-      </c>
-      <c r="H23" s="29">
-        <v>72796</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="29">
-        <v>36233</v>
-      </c>
-      <c r="F24" s="29">
-        <v>24888</v>
-      </c>
-      <c r="G24" s="29">
-        <v>69385</v>
-      </c>
-      <c r="H24" s="29">
-        <v>52676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="29">
-        <v>16967</v>
-      </c>
-      <c r="F25" s="29">
-        <v>27151</v>
-      </c>
-      <c r="G25" s="29">
-        <v>33698</v>
-      </c>
-      <c r="H25" s="29">
-        <v>54080</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="9"/>
-      <c r="D26" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="29">
-        <v>238564</v>
-      </c>
-      <c r="F26" s="29">
-        <v>221974</v>
-      </c>
-      <c r="G26" s="29">
-        <v>472448</v>
-      </c>
-      <c r="H26" s="29">
-        <v>412985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="D27" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="29">
-        <v>21171</v>
-      </c>
-      <c r="F27" s="29">
-        <v>-2768</v>
-      </c>
-      <c r="G27" s="29">
-        <v>30235</v>
-      </c>
-      <c r="H27" s="29">
-        <v>16251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E28" s="29">
-        <v>-6110</v>
-      </c>
-      <c r="F28" s="29">
-        <v>-5989</v>
-      </c>
-      <c r="G28" s="29">
-        <v>-11329</v>
-      </c>
-      <c r="H28" s="29">
-        <v>-11580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="29">
-        <v>-2969</v>
-      </c>
-      <c r="F29" s="29">
-        <v>4954</v>
-      </c>
-      <c r="G29" s="29">
-        <v>-6530</v>
-      </c>
-      <c r="H29" s="29">
-        <v>18184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="D30" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="29">
-        <v>12092</v>
-      </c>
-      <c r="F30" s="29">
-        <v>-3803</v>
-      </c>
-      <c r="G30" s="29">
-        <v>12376</v>
-      </c>
-      <c r="H30" s="29">
-        <v>22855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="29">
-        <v>-2743</v>
-      </c>
-      <c r="F31" s="29">
-        <v>-1228</v>
-      </c>
-      <c r="G31" s="29">
-        <v>-5356</v>
-      </c>
-      <c r="H31" s="29">
-        <v>-4138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="29">
-        <v>9349</v>
-      </c>
-      <c r="F32" s="29">
-        <v>-5031</v>
-      </c>
-      <c r="G32" s="29">
-        <v>7020</v>
-      </c>
-      <c r="H32" s="29">
-        <v>18717</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="D33" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="29">
-        <v>2596</v>
-      </c>
-      <c r="F34" s="29">
-        <v>-1591</v>
-      </c>
-      <c r="G34" s="29">
-        <v>1878</v>
-      </c>
-      <c r="H34" s="29">
-        <v>5956</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="D35" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="28">
-        <v>6753</v>
-      </c>
-      <c r="F36" s="28">
-        <v>-3440</v>
-      </c>
-      <c r="G36" s="28">
-        <v>5142</v>
-      </c>
-      <c r="H36" s="28">
-        <v>12761</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="D37" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="D38" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="D39" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="F39" s="31">
-        <v>-0.03</v>
-      </c>
-      <c r="G39" s="31">
-        <v>0.04</v>
-      </c>
-      <c r="H39" s="31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="D40" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="F40" s="31">
-        <v>-0.03</v>
-      </c>
-      <c r="G40" s="31">
-        <v>0.04</v>
-      </c>
-      <c r="H40" s="31">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{EADF28DC-6FF9-4E22-A895-8BBD2143EE74}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BDAFEA-E991-448D-9CB0-3126CE77D16E}">
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="27"/>
-    <col min="3" max="3" width="3" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="4" max="4" width="58" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="5" max="6" width="17" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="7" max="258" width="21.7109375" style="27" customWidth="1"/>
-    <col min="259" max="16384" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="3:6">
-      <c r="C2" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="D10" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="D11" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="D12" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="D13" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="D16" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="D17" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="D18" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="28">
-        <v>242948</v>
-      </c>
-      <c r="F19" s="28">
-        <v>210030</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="D20" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="29">
-        <v>70580</v>
-      </c>
-      <c r="F21" s="29">
-        <v>55612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="29">
-        <v>63590</v>
-      </c>
-      <c r="F22" s="29">
-        <v>56829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="29">
-        <v>49831</v>
-      </c>
-      <c r="F23" s="29">
-        <v>23853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="29">
-        <v>33152</v>
-      </c>
-      <c r="F24" s="29">
-        <v>27788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="29">
-        <v>16731</v>
-      </c>
-      <c r="F25" s="29">
-        <v>26929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="D26" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="29">
-        <v>233884</v>
-      </c>
-      <c r="F26" s="29">
-        <v>191011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="D27" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="29">
-        <v>9064</v>
-      </c>
-      <c r="F27" s="29">
-        <v>19019</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E28" s="29">
-        <v>-5219</v>
-      </c>
-      <c r="F28" s="29">
-        <v>-5591</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="29">
-        <v>-3561</v>
-      </c>
-      <c r="F29" s="29">
-        <v>13230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="D30" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="29">
-        <v>284</v>
-      </c>
-      <c r="F30" s="29">
-        <v>26658</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="29">
-        <v>-2613</v>
-      </c>
-      <c r="F31" s="29">
-        <v>-2910</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="D32" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="29">
-        <v>-2329</v>
-      </c>
-      <c r="F32" s="29">
-        <v>23748</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="D33" s="27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="29">
-        <v>-718</v>
-      </c>
-      <c r="F34" s="29">
-        <v>7547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="D35" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="E36" s="28">
-        <v>-1611</v>
-      </c>
-      <c r="F36" s="28">
-        <v>16201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="D37" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="D38" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="D39" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="31">
-        <v>-0.01</v>
-      </c>
-      <c r="F39" s="31">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="D40" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="31">
-        <v>-0.01</v>
-      </c>
-      <c r="F40" s="31">
-        <v>0.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{DEC81CE3-1B17-4EE5-B6A8-78EDF350318E}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF1E5DE-DA0F-48F0-913B-9E8844BACCCC}">
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="27"/>
-    <col min="3" max="3" width="3" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="4" max="4" width="46" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="5" max="8" width="17" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="9" max="258" width="21.7109375" style="27" customWidth="1"/>
-    <col min="259" max="16384" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="3:8">
-      <c r="C2" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="32" t="s">
         <v>359</v>
       </c>
       <c r="D6" s="33"/>
@@ -5038,9 +5080,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -5598,9 +5637,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -6008,9 +6044,6 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A39" sqref="A1:B1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -6623,9 +6656,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A1:B1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -7233,9 +7263,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A1:B1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -7705,36 +7732,35 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,256)</f>
         <v>Input</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="str">
         <f>"Indicative valuation of "&amp;IF(Input!E7="","###",Input!E7)&amp;": Public information"</f>
         <v>Indicative valuation of Bumble Inc.: Public information</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -7742,7 +7768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -7750,7 +7776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -7758,7 +7784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -7766,7 +7792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -7774,7 +7800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -7782,7 +7808,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -7790,7 +7816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -7798,7 +7824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -7810,63 +7836,66 @@
         <v>2026</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:J16" si="0">+G16+1</f>
+        <f t="shared" ref="H16" si="0">+G16+1</f>
         <v>2027</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="K16" s="20" t="s">
+      <c r="I16" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
+        <v>565</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="K18" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E26" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7879,9 +7908,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -8363,7 +8389,6 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
@@ -8377,9 +8402,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -8936,8 +8958,1770 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="3" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="2" max="2" width="64" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="3" max="3" width="18" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="4" max="4" width="21" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="5" max="256" width="21.7109375" style="27" customWidth="1"/>
+    <col min="257" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="28">
+        <v>252057</v>
+      </c>
+      <c r="D18" s="28">
+        <v>355642</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="29">
+        <v>102547</v>
+      </c>
+      <c r="D20" s="29">
+        <v>102677</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="29">
+        <v>28725</v>
+      </c>
+      <c r="D21" s="29">
+        <v>34732</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="29">
+        <v>383329</v>
+      </c>
+      <c r="D22" s="29">
+        <v>493051</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="29">
+        <v>13303</v>
+      </c>
+      <c r="D23" s="29">
+        <v>15425</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="29">
+        <v>8974</v>
+      </c>
+      <c r="D25" s="29">
+        <v>12462</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1389002</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1585750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="29">
+        <v>764406</v>
+      </c>
+      <c r="D27" s="29">
+        <v>1484290</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="29">
+        <v>22558</v>
+      </c>
+      <c r="D28" s="29">
+        <v>27029</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="29">
+        <v>7840</v>
+      </c>
+      <c r="D29" s="29">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="28">
+        <v>2589412</v>
+      </c>
+      <c r="D30" s="28">
+        <v>3625127</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="28">
+        <v>6830</v>
+      </c>
+      <c r="D32" s="28">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="29">
+        <v>45329</v>
+      </c>
+      <c r="D33" s="29">
+        <v>48749</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="29">
+        <v>125083</v>
+      </c>
+      <c r="D34" s="29">
+        <v>185799</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="29">
+        <v>5750</v>
+      </c>
+      <c r="D35" s="29">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="29">
+        <v>182992</v>
+      </c>
+      <c r="D36" s="29">
+        <v>244909</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="29">
+        <v>612231</v>
+      </c>
+      <c r="D37" s="29">
+        <v>615176</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="29">
+        <v>975</v>
+      </c>
+      <c r="D38" s="29">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="29">
+        <v>412958</v>
+      </c>
+      <c r="D40" s="29">
+        <v>407389</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="29">
+        <v>13393</v>
+      </c>
+      <c r="D41" s="29">
+        <v>14707</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="29">
+        <v>1222549</v>
+      </c>
+      <c r="D42" s="29">
+        <v>1287854</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="29">
+        <v>1398</v>
+      </c>
+      <c r="D50" s="29">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="30">
+        <v>0</v>
+      </c>
+      <c r="D58" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="29">
+        <v>1749314</v>
+      </c>
+      <c r="D59" s="29">
+        <v>1772449</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="29">
+        <v>-266045</v>
+      </c>
+      <c r="D62" s="29">
+        <v>-73764</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="29">
+        <v>-705271</v>
+      </c>
+      <c r="D63" s="29">
+        <v>-144084</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="29">
+        <v>73166</v>
+      </c>
+      <c r="D64" s="29">
+        <v>79029</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="29">
+        <v>852562</v>
+      </c>
+      <c r="D65" s="29">
+        <v>1635015</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="29">
+        <v>514301</v>
+      </c>
+      <c r="D66" s="29">
+        <v>702258</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="29">
+        <v>1366863</v>
+      </c>
+      <c r="D67" s="29">
+        <v>2337273</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="28">
+        <v>2589412</v>
+      </c>
+      <c r="D68" s="28">
+        <v>3625127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{1AB99D2F-3969-4181-A947-1291E97A5AE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A4D628-0795-4037-BF0A-42980AEAEC89}">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="3" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="2" max="2" width="62" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="3" max="3" width="18" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="4" max="4" width="21" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="5" max="256" width="21.7109375" style="27" customWidth="1"/>
+    <col min="257" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="28">
+        <v>286664</v>
+      </c>
+      <c r="D17" s="28">
+        <v>355642</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="29">
+        <v>101800</v>
+      </c>
+      <c r="D19" s="29">
+        <v>102677</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="29">
+        <v>31121</v>
+      </c>
+      <c r="D20" s="29">
+        <v>34732</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="29">
+        <v>419585</v>
+      </c>
+      <c r="D21" s="29">
+        <v>493051</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="29">
+        <v>13264</v>
+      </c>
+      <c r="D22" s="29">
+        <v>15425</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="29">
+        <v>10062</v>
+      </c>
+      <c r="D24" s="29">
+        <v>12462</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1584546</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1585750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1455658</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1484290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="29">
+        <v>24245</v>
+      </c>
+      <c r="D27" s="29">
+        <v>27029</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="29">
+        <v>16880</v>
+      </c>
+      <c r="D28" s="29">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="28">
+        <v>3524240</v>
+      </c>
+      <c r="D29" s="28">
+        <v>3625127</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="28">
+        <v>5839</v>
+      </c>
+      <c r="D31" s="28">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="29">
+        <v>46702</v>
+      </c>
+      <c r="D32" s="29">
+        <v>48749</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="29">
+        <v>117902</v>
+      </c>
+      <c r="D33" s="29">
+        <v>185799</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="29">
+        <v>5750</v>
+      </c>
+      <c r="D34" s="29">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="29">
+        <v>176193</v>
+      </c>
+      <c r="D35" s="29">
+        <v>244909</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="29">
+        <v>613194</v>
+      </c>
+      <c r="D36" s="29">
+        <v>615176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="29">
+        <v>4521</v>
+      </c>
+      <c r="D37" s="29">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="29">
+        <v>419323</v>
+      </c>
+      <c r="D39" s="29">
+        <v>407389</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="29">
+        <v>13011</v>
+      </c>
+      <c r="D40" s="29">
+        <v>14707</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1226242</v>
+      </c>
+      <c r="D41" s="29">
+        <v>1287854</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="29">
+        <v>1396</v>
+      </c>
+      <c r="D49" s="29">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="30">
+        <v>0</v>
+      </c>
+      <c r="D53" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="30">
+        <v>0</v>
+      </c>
+      <c r="D57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="29">
+        <v>1771155</v>
+      </c>
+      <c r="D58" s="29">
+        <v>1772449</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="29">
+        <v>-119364</v>
+      </c>
+      <c r="D60" s="29">
+        <v>-73764</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="29">
+        <v>-77113</v>
+      </c>
+      <c r="D61" s="29">
+        <v>-144084</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="29">
+        <v>76853</v>
+      </c>
+      <c r="D62" s="29">
+        <v>79029</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="29">
+        <v>1652927</v>
+      </c>
+      <c r="D63" s="29">
+        <v>1635015</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="29">
+        <v>645071</v>
+      </c>
+      <c r="D64" s="29">
+        <v>702258</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="29">
+        <v>2297998</v>
+      </c>
+      <c r="D65" s="29">
+        <v>2337273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="28">
+        <v>3524240</v>
+      </c>
+      <c r="D66" s="28">
+        <v>3625127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{35CD097F-8117-4B0A-A009-FC9FD3DFE516}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A1AEE-F001-4664-8799-520CD7B9042C}">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="3" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="2" max="2" width="63" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="3" max="3" width="18" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="4" max="4" width="21" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="5" max="256" width="21.7109375" style="27" customWidth="1"/>
+    <col min="257" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="28">
+        <v>262699</v>
+      </c>
+      <c r="D17" s="28">
+        <v>355642</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="29">
+        <v>100685</v>
+      </c>
+      <c r="D19" s="29">
+        <v>102677</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="29">
+        <v>30708</v>
+      </c>
+      <c r="D20" s="29">
+        <v>34732</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="29">
+        <v>394092</v>
+      </c>
+      <c r="D21" s="29">
+        <v>493051</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="29">
+        <v>13989</v>
+      </c>
+      <c r="D22" s="29">
+        <v>15425</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="29">
+        <v>11675</v>
+      </c>
+      <c r="D24" s="29">
+        <v>12462</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1584842</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1585750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1469690</v>
+      </c>
+      <c r="D26" s="29">
+        <v>1484290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="29">
+        <v>26009</v>
+      </c>
+      <c r="D27" s="29">
+        <v>27029</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="29">
+        <v>16652</v>
+      </c>
+      <c r="D28" s="29">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="28">
+        <v>3516949</v>
+      </c>
+      <c r="D29" s="28">
+        <v>3625127</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="28">
+        <v>8108</v>
+      </c>
+      <c r="D31" s="28">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="29">
+        <v>46776</v>
+      </c>
+      <c r="D32" s="29">
+        <v>48749</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="29">
+        <v>140539</v>
+      </c>
+      <c r="D33" s="29">
+        <v>185799</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="29">
+        <v>5750</v>
+      </c>
+      <c r="D34" s="29">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="29">
+        <v>201173</v>
+      </c>
+      <c r="D35" s="29">
+        <v>244909</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="29">
+        <v>614181</v>
+      </c>
+      <c r="D36" s="29">
+        <v>615176</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="29">
+        <v>5041</v>
+      </c>
+      <c r="D37" s="29">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="29">
+        <v>419323</v>
+      </c>
+      <c r="D39" s="29">
+        <v>407389</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="29">
+        <v>14034</v>
+      </c>
+      <c r="D40" s="29">
+        <v>14707</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1253752</v>
+      </c>
+      <c r="D41" s="29">
+        <v>1287854</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="29">
+        <v>1392</v>
+      </c>
+      <c r="D49" s="29">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="30">
+        <v>0</v>
+      </c>
+      <c r="D53" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="30">
+        <v>0</v>
+      </c>
+      <c r="D57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="29">
+        <v>1764917</v>
+      </c>
+      <c r="D58" s="29">
+        <v>1772449</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="29">
+        <v>-119364</v>
+      </c>
+      <c r="D60" s="29">
+        <v>-73764</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="29">
+        <v>-119467</v>
+      </c>
+      <c r="D61" s="29">
+        <v>-144084</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="29">
+        <v>76867</v>
+      </c>
+      <c r="D62" s="29">
+        <v>79029</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="29">
+        <v>1604345</v>
+      </c>
+      <c r="D63" s="29">
+        <v>1635015</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="29">
+        <v>658852</v>
+      </c>
+      <c r="D64" s="29">
+        <v>702258</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="29">
+        <v>2263197</v>
+      </c>
+      <c r="D65" s="29">
+        <v>2337273</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="28">
+        <v>3516949</v>
+      </c>
+      <c r="D66" s="28">
+        <v>3625127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{BD908F3C-4CA7-44AA-8145-1419E4B8D319}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C258C65E-AC4E-4C22-AC17-21A7A775E047}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -8992,7 +10776,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -9000,7 +10784,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -9067,10 +10851,10 @@
         <v>144</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -9083,471 +10867,453 @@
         <v>140</v>
       </c>
       <c r="C18" s="28">
-        <v>252057</v>
+        <v>439184</v>
       </c>
       <c r="D18" s="28">
-        <v>355642</v>
+        <v>402559</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27" t="s">
-        <v>139</v>
+        <v>310</v>
+      </c>
+      <c r="C19" s="29">
+        <v>102007</v>
+      </c>
+      <c r="D19" s="29">
+        <v>66930</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="29">
-        <v>102547</v>
+        <v>42952</v>
       </c>
       <c r="D20" s="29">
-        <v>102677</v>
+        <v>31882</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="29">
-        <v>28725</v>
+        <v>584143</v>
       </c>
       <c r="D21" s="29">
-        <v>34732</v>
+        <v>501371</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="29">
-        <v>383329</v>
+        <v>15537</v>
       </c>
       <c r="D22" s="29">
-        <v>493051</v>
+        <v>17419</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="C23" s="29">
-        <v>13303</v>
+        <v>13589</v>
       </c>
       <c r="D23" s="29">
-        <v>15425</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1584062</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1579770</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="29">
-        <v>8974</v>
+        <v>1495791</v>
       </c>
       <c r="D25" s="29">
-        <v>12462</v>
+        <v>1524428</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="29">
-        <v>1389002</v>
+        <v>32379</v>
       </c>
       <c r="D26" s="29">
-        <v>1585750</v>
+        <v>24050</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="29">
-        <v>764406</v>
+        <v>7692</v>
       </c>
       <c r="D27" s="29">
-        <v>1484290</v>
+        <v>31116</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="29">
-        <v>22558</v>
-      </c>
-      <c r="D28" s="29">
-        <v>27029</v>
+        <v>17</v>
+      </c>
+      <c r="C28" s="28">
+        <v>3733193</v>
+      </c>
+      <c r="D28" s="28">
+        <v>3692621</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="29">
-        <v>7840</v>
-      </c>
-      <c r="D29" s="29">
-        <v>7120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="27" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C30" s="28">
-        <v>2589412</v>
+        <v>5351</v>
       </c>
       <c r="D30" s="28">
-        <v>3625127</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C31" s="29">
+        <v>49305</v>
+      </c>
+      <c r="D31" s="29">
+        <v>46108</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="28">
-        <v>6830</v>
-      </c>
-      <c r="D32" s="28">
-        <v>4611</v>
+        <v>125</v>
+      </c>
+      <c r="C32" s="29">
+        <v>136471</v>
+      </c>
+      <c r="D32" s="29">
+        <v>156443</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="29">
-        <v>45329</v>
+        <v>5750</v>
       </c>
       <c r="D33" s="29">
-        <v>48749</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="29">
-        <v>125083</v>
+        <v>196877</v>
       </c>
       <c r="D34" s="29">
-        <v>185799</v>
+        <v>211668</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="29">
-        <v>5750</v>
+        <v>616179</v>
       </c>
       <c r="D35" s="29">
-        <v>5750</v>
+        <v>619223</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="29">
-        <v>182992</v>
+        <v>8766</v>
       </c>
       <c r="D36" s="29">
-        <v>244909</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="29">
-        <v>612231</v>
-      </c>
-      <c r="D37" s="29">
-        <v>615176</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="29">
-        <v>975</v>
+        <v>416754</v>
       </c>
       <c r="D38" s="29">
-        <v>5673</v>
+        <v>385486</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C39" s="29">
+        <v>14458</v>
+      </c>
+      <c r="D39" s="29">
+        <v>14588</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" s="29">
-        <v>412958</v>
+        <v>1253034</v>
       </c>
       <c r="D40" s="29">
-        <v>407389</v>
+        <v>1239042</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="29">
-        <v>13393</v>
-      </c>
-      <c r="D41" s="29">
-        <v>14707</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="29">
-        <v>1222549</v>
-      </c>
-      <c r="D42" s="29">
-        <v>1287854</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="27" t="s">
-        <v>115</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="27" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="27" t="s">
-        <v>113</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="27" t="s">
-        <v>112</v>
+        <v>305</v>
+      </c>
+      <c r="C47" s="29">
+        <v>1380</v>
+      </c>
+      <c r="D47" s="29">
+        <v>1298</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="29">
-        <v>1398</v>
-      </c>
-      <c r="D50" s="29">
-        <v>1385</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="27" t="s">
-        <v>108</v>
+        <v>303</v>
+      </c>
+      <c r="C51" s="30">
+        <v>0</v>
+      </c>
+      <c r="D51" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="30">
-        <v>0</v>
-      </c>
-      <c r="D54" s="30">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="C55" s="30">
+        <v>0</v>
+      </c>
+      <c r="D55" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C56" s="29">
+        <v>1750233</v>
+      </c>
+      <c r="D56" s="29">
+        <v>1691911</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="27" t="s">
-        <v>102</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="30">
-        <v>0</v>
-      </c>
-      <c r="D58" s="30">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C59" s="29">
-        <v>1749314</v>
-      </c>
-      <c r="D59" s="29">
-        <v>1772449</v>
+        <v>-15743</v>
+      </c>
+      <c r="D59" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="C60" s="29">
+        <v>-118058</v>
+      </c>
+      <c r="D60" s="29">
+        <v>-139871</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="C61" s="29">
+        <v>71911</v>
+      </c>
+      <c r="D61" s="29">
+        <v>74477</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C62" s="29">
-        <v>-266045</v>
+        <v>1689723</v>
       </c>
       <c r="D62" s="29">
-        <v>-73764</v>
+        <v>1627815</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C63" s="29">
-        <v>-705271</v>
+        <v>790436</v>
       </c>
       <c r="D63" s="29">
-        <v>-144084</v>
+        <v>825764</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C64" s="29">
-        <v>73166</v>
+        <v>2480159</v>
       </c>
       <c r="D64" s="29">
-        <v>79029</v>
+        <v>2453579</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="29">
-        <v>852562</v>
-      </c>
-      <c r="D65" s="29">
-        <v>1635015</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="29">
-        <v>514301</v>
-      </c>
-      <c r="D66" s="29">
-        <v>702258</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="29">
-        <v>1366863</v>
-      </c>
-      <c r="D67" s="29">
-        <v>2337273</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="28">
-        <v>2589412</v>
-      </c>
-      <c r="D68" s="28">
-        <v>3625127</v>
+      <c r="C65" s="28">
+        <v>3733193</v>
+      </c>
+      <c r="D65" s="28">
+        <v>3692621</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{1AB99D2F-3969-4181-A947-1291E97A5AE3}"/>
+    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{5AB8BBAF-328F-4795-817C-D2E61A64FD67}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A4D628-0795-4037-BF0A-42980AEAEC89}">
-  <dimension ref="A1:D66"/>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1F43D1-AE28-4A88-889F-B502A19D4EC7}">
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="2" max="2" width="62" style="27" customWidth="1" outlineLevel="7"/>
+    <col min="2" max="2" width="61" style="27" customWidth="1" outlineLevel="7"/>
     <col min="3" max="3" width="18" style="27" customWidth="1" outlineLevel="7"/>
     <col min="4" max="4" width="21" style="27" customWidth="1" outlineLevel="7"/>
     <col min="5" max="256" width="21.7109375" style="27" customWidth="1"/>
@@ -9596,7 +11362,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -9604,7 +11370,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="32" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -9663,10 +11429,10 @@
         <v>144</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9679,345 +11445,357 @@
         <v>140</v>
       </c>
       <c r="C17" s="28">
-        <v>286664</v>
+        <v>381019</v>
       </c>
       <c r="D17" s="28">
-        <v>355642</v>
+        <v>402559</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="27" t="s">
-        <v>238</v>
+        <v>310</v>
+      </c>
+      <c r="C18" s="29">
+        <v>98520</v>
+      </c>
+      <c r="D18" s="29">
+        <v>66930</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="29">
-        <v>101800</v>
+        <v>47406</v>
       </c>
       <c r="D19" s="29">
-        <v>102677</v>
+        <v>31882</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="29">
-        <v>31121</v>
+        <v>526945</v>
       </c>
       <c r="D20" s="29">
-        <v>34732</v>
+        <v>501371</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="29">
-        <v>419585</v>
+        <v>16741</v>
       </c>
       <c r="D21" s="29">
-        <v>493051</v>
+        <v>17419</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="C22" s="29">
-        <v>13264</v>
+        <v>15654</v>
       </c>
       <c r="D22" s="29">
-        <v>15425</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="C23" s="29">
+        <v>1585281</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1579770</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="27" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="C24" s="29">
-        <v>10062</v>
+        <v>1508036</v>
       </c>
       <c r="D24" s="29">
-        <v>12462</v>
+        <v>1524428</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="29">
-        <v>1584546</v>
+        <v>31507</v>
       </c>
       <c r="D25" s="29">
-        <v>1585750</v>
+        <v>24050</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="29">
-        <v>1455658</v>
+        <v>8133</v>
       </c>
       <c r="D26" s="29">
-        <v>1484290</v>
+        <v>31116</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="29">
-        <v>24245</v>
-      </c>
-      <c r="D27" s="29">
-        <v>27029</v>
+        <v>17</v>
+      </c>
+      <c r="C27" s="28">
+        <v>3692297</v>
+      </c>
+      <c r="D27" s="28">
+        <v>3692621</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="29">
-        <v>16880</v>
-      </c>
-      <c r="D28" s="29">
-        <v>7120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C29" s="28">
-        <v>3524240</v>
+        <v>8372</v>
       </c>
       <c r="D29" s="28">
-        <v>3625127</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C30" s="29">
+        <v>48110</v>
+      </c>
+      <c r="D30" s="29">
+        <v>46108</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="28">
-        <v>5839</v>
-      </c>
-      <c r="D31" s="28">
-        <v>4611</v>
+        <v>125</v>
+      </c>
+      <c r="C31" s="29">
+        <v>124309</v>
+      </c>
+      <c r="D31" s="29">
+        <v>156443</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="29">
-        <v>46702</v>
+        <v>5750</v>
       </c>
       <c r="D32" s="29">
-        <v>48749</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33" s="29">
-        <v>117902</v>
+        <v>186541</v>
       </c>
       <c r="D33" s="29">
-        <v>185799</v>
+        <v>211668</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="29">
-        <v>5750</v>
+        <v>617189</v>
       </c>
       <c r="D34" s="29">
-        <v>5750</v>
+        <v>619223</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="29">
-        <v>176193</v>
+        <v>10718</v>
       </c>
       <c r="D35" s="29">
-        <v>244909</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="29">
-        <v>613194</v>
-      </c>
-      <c r="D36" s="29">
-        <v>615176</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" s="29">
-        <v>4521</v>
+        <v>416754</v>
       </c>
       <c r="D37" s="29">
-        <v>5673</v>
+        <v>385486</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="C38" s="29">
+        <v>14763</v>
+      </c>
+      <c r="D38" s="29">
+        <v>14588</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" s="29">
-        <v>419323</v>
+        <v>1245965</v>
       </c>
       <c r="D39" s="29">
-        <v>407389</v>
+        <v>1239042</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="29">
-        <v>13011</v>
-      </c>
-      <c r="D40" s="29">
-        <v>14707</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="29">
-        <v>1226242</v>
-      </c>
-      <c r="D41" s="29">
-        <v>1287854</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="27" t="s">
-        <v>115</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="27" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="27" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="27" t="s">
-        <v>235</v>
+        <v>319</v>
+      </c>
+      <c r="C46" s="29">
+        <v>1378</v>
+      </c>
+      <c r="D46" s="29">
+        <v>1298</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="27" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="29">
-        <v>1396</v>
-      </c>
-      <c r="D49" s="29">
-        <v>1385</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="27" t="s">
-        <v>108</v>
+        <v>303</v>
+      </c>
+      <c r="C50" s="30">
+        <v>0</v>
+      </c>
+      <c r="D50" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="27" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="30">
-        <v>0</v>
-      </c>
-      <c r="D53" s="30">
-        <v>0</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="C54" s="30">
+        <v>0</v>
+      </c>
+      <c r="D54" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C55" s="29">
+        <v>1735792</v>
+      </c>
+      <c r="D55" s="29">
+        <v>1691911</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="27" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="30">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="C57" s="29">
+        <v>-15743</v>
       </c>
       <c r="D57" s="30">
         <v>0</v>
@@ -10025,114 +11803,84 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C58" s="29">
-        <v>1771155</v>
+        <v>-134729</v>
       </c>
       <c r="D58" s="29">
-        <v>1772449</v>
+        <v>-139871</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="27" t="s">
-        <v>231</v>
+        <v>96</v>
+      </c>
+      <c r="C59" s="29">
+        <v>78606</v>
+      </c>
+      <c r="D59" s="29">
+        <v>74477</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="27" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="C60" s="29">
-        <v>-119364</v>
+        <v>1665304</v>
       </c>
       <c r="D60" s="29">
-        <v>-73764</v>
+        <v>1627815</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C61" s="29">
-        <v>-77113</v>
+        <v>781028</v>
       </c>
       <c r="D61" s="29">
-        <v>-144084</v>
+        <v>825764</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C62" s="29">
-        <v>76853</v>
+        <v>2446332</v>
       </c>
       <c r="D62" s="29">
-        <v>79029</v>
+        <v>2453579</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="29">
-        <v>1652927</v>
-      </c>
-      <c r="D63" s="29">
-        <v>1635015</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="29">
-        <v>645071</v>
-      </c>
-      <c r="D64" s="29">
-        <v>702258</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="29">
-        <v>2297998</v>
-      </c>
-      <c r="D65" s="29">
-        <v>2337273</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="28">
-        <v>3524240</v>
-      </c>
-      <c r="D66" s="28">
-        <v>3625127</v>
+      <c r="C63" s="28">
+        <v>3692297</v>
+      </c>
+      <c r="D63" s="28">
+        <v>3692621</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{35CD097F-8117-4B0A-A009-FC9FD3DFE516}"/>
+    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{678926AC-15F7-40DF-B95B-446861A001CA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452A1AEE-F001-4664-8799-520CD7B9042C}">
-  <dimension ref="A1:D66"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86412AA-4B77-43EA-95BA-A72424C7CD7C}">
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -10187,1750 +11935,6 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="28">
-        <v>262699</v>
-      </c>
-      <c r="D17" s="28">
-        <v>355642</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="29">
-        <v>100685</v>
-      </c>
-      <c r="D19" s="29">
-        <v>102677</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="29">
-        <v>30708</v>
-      </c>
-      <c r="D20" s="29">
-        <v>34732</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="29">
-        <v>394092</v>
-      </c>
-      <c r="D21" s="29">
-        <v>493051</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="29">
-        <v>13989</v>
-      </c>
-      <c r="D22" s="29">
-        <v>15425</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="29">
-        <v>11675</v>
-      </c>
-      <c r="D24" s="29">
-        <v>12462</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="29">
-        <v>1584842</v>
-      </c>
-      <c r="D25" s="29">
-        <v>1585750</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="29">
-        <v>1469690</v>
-      </c>
-      <c r="D26" s="29">
-        <v>1484290</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="29">
-        <v>26009</v>
-      </c>
-      <c r="D27" s="29">
-        <v>27029</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="29">
-        <v>16652</v>
-      </c>
-      <c r="D28" s="29">
-        <v>7120</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="28">
-        <v>3516949</v>
-      </c>
-      <c r="D29" s="28">
-        <v>3625127</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="28">
-        <v>8108</v>
-      </c>
-      <c r="D31" s="28">
-        <v>4611</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="29">
-        <v>46776</v>
-      </c>
-      <c r="D32" s="29">
-        <v>48749</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="29">
-        <v>140539</v>
-      </c>
-      <c r="D33" s="29">
-        <v>185799</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="29">
-        <v>5750</v>
-      </c>
-      <c r="D34" s="29">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="29">
-        <v>201173</v>
-      </c>
-      <c r="D35" s="29">
-        <v>244909</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="29">
-        <v>614181</v>
-      </c>
-      <c r="D36" s="29">
-        <v>615176</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="29">
-        <v>5041</v>
-      </c>
-      <c r="D37" s="29">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="29">
-        <v>419323</v>
-      </c>
-      <c r="D39" s="29">
-        <v>407389</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="29">
-        <v>14034</v>
-      </c>
-      <c r="D40" s="29">
-        <v>14707</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="29">
-        <v>1253752</v>
-      </c>
-      <c r="D41" s="29">
-        <v>1287854</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="29">
-        <v>1392</v>
-      </c>
-      <c r="D49" s="29">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="30">
-        <v>0</v>
-      </c>
-      <c r="D53" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="30">
-        <v>0</v>
-      </c>
-      <c r="D57" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="29">
-        <v>1764917</v>
-      </c>
-      <c r="D58" s="29">
-        <v>1772449</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="29">
-        <v>-119364</v>
-      </c>
-      <c r="D60" s="29">
-        <v>-73764</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="29">
-        <v>-119467</v>
-      </c>
-      <c r="D61" s="29">
-        <v>-144084</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="29">
-        <v>76867</v>
-      </c>
-      <c r="D62" s="29">
-        <v>79029</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="29">
-        <v>1604345</v>
-      </c>
-      <c r="D63" s="29">
-        <v>1635015</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="29">
-        <v>658852</v>
-      </c>
-      <c r="D64" s="29">
-        <v>702258</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="29">
-        <v>2263197</v>
-      </c>
-      <c r="D65" s="29">
-        <v>2337273</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="28">
-        <v>3516949</v>
-      </c>
-      <c r="D66" s="28">
-        <v>3625127</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{BD908F3C-4CA7-44AA-8145-1419E4B8D319}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C258C65E-AC4E-4C22-AC17-21A7A775E047}">
-  <dimension ref="A1:D65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="3" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="2" max="2" width="64" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="3" max="3" width="18" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="4" max="4" width="21" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="5" max="256" width="21.7109375" style="27" customWidth="1"/>
-    <col min="257" max="16384" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="28">
-        <v>439184</v>
-      </c>
-      <c r="D18" s="28">
-        <v>402559</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C19" s="29">
-        <v>102007</v>
-      </c>
-      <c r="D19" s="29">
-        <v>66930</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="29">
-        <v>42952</v>
-      </c>
-      <c r="D20" s="29">
-        <v>31882</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="29">
-        <v>584143</v>
-      </c>
-      <c r="D21" s="29">
-        <v>501371</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="29">
-        <v>15537</v>
-      </c>
-      <c r="D22" s="29">
-        <v>17419</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="29">
-        <v>13589</v>
-      </c>
-      <c r="D23" s="29">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="29">
-        <v>1584062</v>
-      </c>
-      <c r="D24" s="29">
-        <v>1579770</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="29">
-        <v>1495791</v>
-      </c>
-      <c r="D25" s="29">
-        <v>1524428</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="29">
-        <v>32379</v>
-      </c>
-      <c r="D26" s="29">
-        <v>24050</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="29">
-        <v>7692</v>
-      </c>
-      <c r="D27" s="29">
-        <v>31116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="28">
-        <v>3733193</v>
-      </c>
-      <c r="D28" s="28">
-        <v>3692621</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="28">
-        <v>5351</v>
-      </c>
-      <c r="D30" s="28">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="29">
-        <v>49305</v>
-      </c>
-      <c r="D31" s="29">
-        <v>46108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="29">
-        <v>136471</v>
-      </c>
-      <c r="D32" s="29">
-        <v>156443</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="29">
-        <v>5750</v>
-      </c>
-      <c r="D33" s="29">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="29">
-        <v>196877</v>
-      </c>
-      <c r="D34" s="29">
-        <v>211668</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="29">
-        <v>616179</v>
-      </c>
-      <c r="D35" s="29">
-        <v>619223</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="29">
-        <v>8766</v>
-      </c>
-      <c r="D36" s="29">
-        <v>8077</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="29">
-        <v>416754</v>
-      </c>
-      <c r="D38" s="29">
-        <v>385486</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="29">
-        <v>14458</v>
-      </c>
-      <c r="D39" s="29">
-        <v>14588</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="29">
-        <v>1253034</v>
-      </c>
-      <c r="D40" s="29">
-        <v>1239042</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="C47" s="29">
-        <v>1380</v>
-      </c>
-      <c r="D47" s="29">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="30">
-        <v>0</v>
-      </c>
-      <c r="D51" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="30">
-        <v>0</v>
-      </c>
-      <c r="D55" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="29">
-        <v>1750233</v>
-      </c>
-      <c r="D56" s="29">
-        <v>1691911</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="29">
-        <v>-15743</v>
-      </c>
-      <c r="D59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="29">
-        <v>-118058</v>
-      </c>
-      <c r="D60" s="29">
-        <v>-139871</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="29">
-        <v>71911</v>
-      </c>
-      <c r="D61" s="29">
-        <v>74477</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="29">
-        <v>1689723</v>
-      </c>
-      <c r="D62" s="29">
-        <v>1627815</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="29">
-        <v>790436</v>
-      </c>
-      <c r="D63" s="29">
-        <v>825764</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="29">
-        <v>2480159</v>
-      </c>
-      <c r="D64" s="29">
-        <v>2453579</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="28">
-        <v>3733193</v>
-      </c>
-      <c r="D65" s="28">
-        <v>3692621</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{5AB8BBAF-328F-4795-817C-D2E61A64FD67}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1F43D1-AE28-4A88-889F-B502A19D4EC7}">
-  <dimension ref="A1:D63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="3" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="2" max="2" width="61" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="3" max="3" width="18" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="4" max="4" width="21" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="5" max="256" width="21.7109375" style="27" customWidth="1"/>
-    <col min="257" max="16384" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="28">
-        <v>381019</v>
-      </c>
-      <c r="D17" s="28">
-        <v>402559</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" s="29">
-        <v>98520</v>
-      </c>
-      <c r="D18" s="29">
-        <v>66930</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="29">
-        <v>47406</v>
-      </c>
-      <c r="D19" s="29">
-        <v>31882</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="29">
-        <v>526945</v>
-      </c>
-      <c r="D20" s="29">
-        <v>501371</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="29">
-        <v>16741</v>
-      </c>
-      <c r="D21" s="29">
-        <v>17419</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="29">
-        <v>15654</v>
-      </c>
-      <c r="D22" s="29">
-        <v>14467</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="29">
-        <v>1585281</v>
-      </c>
-      <c r="D23" s="29">
-        <v>1579770</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="29">
-        <v>1508036</v>
-      </c>
-      <c r="D24" s="29">
-        <v>1524428</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="29">
-        <v>31507</v>
-      </c>
-      <c r="D25" s="29">
-        <v>24050</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="29">
-        <v>8133</v>
-      </c>
-      <c r="D26" s="29">
-        <v>31116</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="28">
-        <v>3692297</v>
-      </c>
-      <c r="D27" s="28">
-        <v>3692621</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="28">
-        <v>8372</v>
-      </c>
-      <c r="D29" s="28">
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="29">
-        <v>48110</v>
-      </c>
-      <c r="D30" s="29">
-        <v>46108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="29">
-        <v>124309</v>
-      </c>
-      <c r="D31" s="29">
-        <v>156443</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="29">
-        <v>5750</v>
-      </c>
-      <c r="D32" s="29">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="29">
-        <v>186541</v>
-      </c>
-      <c r="D33" s="29">
-        <v>211668</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="29">
-        <v>617189</v>
-      </c>
-      <c r="D34" s="29">
-        <v>619223</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="29">
-        <v>10718</v>
-      </c>
-      <c r="D35" s="29">
-        <v>8077</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="29">
-        <v>416754</v>
-      </c>
-      <c r="D37" s="29">
-        <v>385486</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="29">
-        <v>14763</v>
-      </c>
-      <c r="D38" s="29">
-        <v>14588</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="29">
-        <v>1245965</v>
-      </c>
-      <c r="D39" s="29">
-        <v>1239042</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="C46" s="29">
-        <v>1378</v>
-      </c>
-      <c r="D46" s="29">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="C50" s="30">
-        <v>0</v>
-      </c>
-      <c r="D50" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="30">
-        <v>0</v>
-      </c>
-      <c r="D54" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="29">
-        <v>1735792</v>
-      </c>
-      <c r="D55" s="29">
-        <v>1691911</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="C57" s="29">
-        <v>-15743</v>
-      </c>
-      <c r="D57" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="29">
-        <v>-134729</v>
-      </c>
-      <c r="D58" s="29">
-        <v>-139871</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="29">
-        <v>78606</v>
-      </c>
-      <c r="D59" s="29">
-        <v>74477</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="29">
-        <v>1665304</v>
-      </c>
-      <c r="D60" s="29">
-        <v>1627815</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="29">
-        <v>781028</v>
-      </c>
-      <c r="D61" s="29">
-        <v>825764</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="29">
-        <v>2446332</v>
-      </c>
-      <c r="D62" s="29">
-        <v>2453579</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="28">
-        <v>3692297</v>
-      </c>
-      <c r="D63" s="28">
-        <v>3692621</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" location="Table_Of_Contents!A1" display="Table Of Contents" xr:uid="{678926AC-15F7-40DF-B95B-446861A001CA}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86412AA-4B77-43EA-95BA-A72424C7CD7C}">
-  <dimension ref="A1:D60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="3" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="2" max="2" width="63" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="3" max="3" width="18" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="4" max="4" width="21" style="27" customWidth="1" outlineLevel="7"/>
-    <col min="5" max="256" width="21.7109375" style="27" customWidth="1"/>
-    <col min="257" max="16384" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
         <v>337</v>
       </c>
       <c r="B6" s="33"/>
@@ -12417,9 +12421,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -13004,7 +13005,6 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
@@ -13018,9 +13018,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -13587,9 +13584,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -14155,9 +14149,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -14438,9 +14429,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -14990,9 +14978,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -15553,9 +15538,6 @@
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -16131,7 +16113,6 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
@@ -16146,9 +16127,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView topLeftCell="A19" workbookViewId="1">
-      <selection activeCell="B46" sqref="B46"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -16743,9 +16721,6 @@
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
-    </sheetView>
-    <sheetView topLeftCell="A19" workbookViewId="1">
-      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -17500,7 +17475,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView topLeftCell="A16" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -18088,13 +18062,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AG750"/>
+  <dimension ref="A1:AO733"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -20096,7 +20067,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:41">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="F33" s="12"/>
@@ -20119,7 +20090,7 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:41">
       <c r="A34" s="36" t="s">
         <v>549</v>
       </c>
@@ -20184,8 +20155,14 @@
         <f ca="1">SUMIFS(INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!A:A"), $A34) / $B$3</f>
         <v>13.444000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="AN34">
+        <v>244</v>
+      </c>
+      <c r="AO34">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="11" t="b" cm="1">
@@ -20252,8 +20229,12 @@
         <f ca="1">+X34-X25</f>
         <v>2.3092638912203256E-14</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="AO35">
+        <f>AO34+AN34</f>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="F36" s="12"/>
@@ -20275,8 +20256,12 @@
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="AO36">
+        <f>+AO35/2</f>
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="E37" s="2" t="str">
@@ -20287,7 +20272,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:41">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="E38" s="6" t="str">
@@ -20345,13 +20330,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="3" customHeight="1">
+    <row r="39" spans="1:41" ht="3" customHeight="1">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:41">
       <c r="A40" s="36" t="s">
         <v>17</v>
       </c>
@@ -20427,7 +20412,7 @@
         <v>2508.2919999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:41">
       <c r="A41" s="36" t="s">
         <v>95</v>
       </c>
@@ -20503,7 +20488,7 @@
         <v>814.51400000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:41">
       <c r="A42" s="36" t="s">
         <v>94</v>
       </c>
@@ -20579,7 +20564,7 @@
         <v>539.72699999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:41">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="E43" s="10" t="s">
@@ -20653,7 +20638,7 @@
         <v>1354.241</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:41">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="E44" s="10" t="s">
@@ -20727,7 +20712,7 @@
         <v>1154.0509999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:41">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="E45" s="9"/>
@@ -20750,7 +20735,7 @@
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:41">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="F46" s="12"/>
@@ -20772,7 +20757,7 @@
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:41">
       <c r="A47" s="36" t="s">
         <v>117</v>
       </c>
@@ -20838,7 +20823,7 @@
         <v>1154.0509999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:41">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="11" t="b" cm="1">
@@ -21440,34 +21425,13 @@
       <c r="X60" s="24">
         <v>103.291444</v>
       </c>
-      <c r="Y60" s="48">
-        <f>(Y25*10^6/Y61)/10^6</f>
-        <v>122.58823529411764</v>
-      </c>
-      <c r="Z60" s="48">
-        <f t="shared" ref="Z60:AE60" si="35">(Z25*10^6/Z61)/10^6</f>
-        <v>109.82142857142857</v>
-      </c>
-      <c r="AA60" s="48">
-        <f t="shared" si="35"/>
-        <v>98.260869565217391</v>
-      </c>
-      <c r="AB60" s="48">
-        <f t="shared" si="35"/>
-        <v>113.05</v>
-      </c>
-      <c r="AC60" s="48">
-        <f t="shared" si="35"/>
-        <v>67.333333333333343</v>
-      </c>
-      <c r="AD60" s="48">
-        <f t="shared" si="35"/>
-        <v>116.33333333333333</v>
-      </c>
-      <c r="AE60" s="48">
-        <f t="shared" si="35"/>
-        <v>96.249999999999986</v>
-      </c>
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="48"/>
+      <c r="AA60" s="48"/>
+      <c r="AB60" s="48"/>
+      <c r="AC60" s="48"/>
+      <c r="AD60" s="48"/>
+      <c r="AE60" s="48"/>
     </row>
     <row r="61" spans="1:31">
       <c r="E61" t="s">
@@ -21492,27 +21456,6 @@
       <c r="W61" s="12"/>
       <c r="X61" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="Y61">
-        <v>0.34</v>
-      </c>
-      <c r="Z61">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA61">
-        <v>0.23</v>
-      </c>
-      <c r="AB61">
-        <v>0.2</v>
-      </c>
-      <c r="AC61">
-        <v>0.21</v>
-      </c>
-      <c r="AD61">
-        <v>0.33</v>
-      </c>
-      <c r="AE61">
-        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -21582,9 +21525,11 @@
       <c r="V64" s="12"/>
       <c r="W64" s="12"/>
       <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-    </row>
-    <row r="65" spans="6:25">
+      <c r="Y64" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="65" spans="6:33">
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -21603,9 +21548,17 @@
       <c r="V65" s="12"/>
       <c r="W65" s="12"/>
       <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-    </row>
-    <row r="66" spans="6:25">
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+    </row>
+    <row r="66" spans="6:33">
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -21624,9 +21577,35 @@
       <c r="V66" s="12"/>
       <c r="W66" s="12"/>
       <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-    </row>
-    <row r="67" spans="6:25">
+      <c r="Y66" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z66" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA66" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="AB66" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC66" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD66" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE66" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="AF66" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG66" s="39" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67" spans="6:33">
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -21645,9 +21624,8 @@
       <c r="V67" s="12"/>
       <c r="W67" s="12"/>
       <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-    </row>
-    <row r="68" spans="6:25">
+    </row>
+    <row r="68" spans="6:33">
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -21665,10 +21643,38 @@
       <c r="U68" s="12"/>
       <c r="V68" s="12"/>
       <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-    </row>
-    <row r="69" spans="6:25">
+      <c r="X68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y68" s="41">
+        <v>243</v>
+      </c>
+      <c r="Z68" s="41">
+        <v>240</v>
+      </c>
+      <c r="AA68" s="41">
+        <v>233</v>
+      </c>
+      <c r="AB68" s="41">
+        <v>226</v>
+      </c>
+      <c r="AC68" s="41">
+        <v>224</v>
+      </c>
+      <c r="AD68" s="41">
+        <v>225</v>
+      </c>
+      <c r="AE68" s="41">
+        <v>226</v>
+      </c>
+      <c r="AF68" s="41">
+        <v>225</v>
+      </c>
+      <c r="AG68" s="41">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="6:33">
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -21686,10 +21692,38 @@
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
       <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-    </row>
-    <row r="70" spans="6:25">
+      <c r="X69" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y69" s="41">
+        <v>85.32</v>
+      </c>
+      <c r="Z69" s="41">
+        <v>75.78</v>
+      </c>
+      <c r="AA69" s="41">
+        <v>70.62</v>
+      </c>
+      <c r="AB69" s="41">
+        <v>63.9</v>
+      </c>
+      <c r="AC69" s="41">
+        <v>67.28</v>
+      </c>
+      <c r="AD69" s="41">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="AE69" s="41">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="AF69" s="41">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="AG69" s="41">
+        <v>71.849999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="6:33" ht="13.5" thickBot="1">
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -21707,10 +21741,38 @@
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
       <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-    </row>
-    <row r="71" spans="6:25">
+      <c r="X70" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y70" s="40">
+        <v>41.68</v>
+      </c>
+      <c r="Z70" s="40">
+        <v>30.75</v>
+      </c>
+      <c r="AA70" s="40">
+        <v>22.6</v>
+      </c>
+      <c r="AB70" s="40">
+        <v>22.61</v>
+      </c>
+      <c r="AC70" s="40">
+        <v>14.14</v>
+      </c>
+      <c r="AD70" s="40">
+        <v>38.39</v>
+      </c>
+      <c r="AE70" s="40">
+        <v>26.95</v>
+      </c>
+      <c r="AF70" s="40">
+        <v>21.27</v>
+      </c>
+      <c r="AG70" s="40">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="71" spans="6:33">
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -21729,9 +21791,8 @@
       <c r="V71" s="12"/>
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-    </row>
-    <row r="72" spans="6:25">
+    </row>
+    <row r="72" spans="6:33">
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -21749,10 +21810,32 @@
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-    </row>
-    <row r="73" spans="6:25">
+      <c r="X72" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y72">
+        <v>0.34</v>
+      </c>
+      <c r="Z72">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA72">
+        <v>0.23</v>
+      </c>
+      <c r="AB72">
+        <v>0.2</v>
+      </c>
+      <c r="AC72">
+        <v>0.21</v>
+      </c>
+      <c r="AD72">
+        <v>0.33</v>
+      </c>
+      <c r="AE72">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="6:33">
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -21773,7 +21856,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="6:25">
+    <row r="74" spans="6:33">
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -21794,7 +21877,7 @@
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
     </row>
-    <row r="75" spans="6:25">
+    <row r="75" spans="6:33">
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -21815,7 +21898,7 @@
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
     </row>
-    <row r="76" spans="6:25">
+    <row r="76" spans="6:33">
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -21836,7 +21919,7 @@
       <c r="X76" s="12"/>
       <c r="Y76" s="12"/>
     </row>
-    <row r="77" spans="6:25">
+    <row r="77" spans="6:33">
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -21857,7 +21940,7 @@
       <c r="X77" s="12"/>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" spans="6:25">
+    <row r="78" spans="6:33">
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -21878,7 +21961,7 @@
       <c r="X78" s="12"/>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" spans="6:25">
+    <row r="79" spans="6:33">
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -21899,7 +21982,7 @@
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
     </row>
-    <row r="80" spans="6:25">
+    <row r="80" spans="6:33">
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -35633,363 +35716,6 @@
       <c r="X733" s="12"/>
       <c r="Y733" s="12"/>
     </row>
-    <row r="734" spans="6:25">
-      <c r="F734" s="12"/>
-      <c r="G734" s="12"/>
-      <c r="H734" s="12"/>
-      <c r="I734" s="12"/>
-      <c r="J734" s="12"/>
-      <c r="L734" s="12"/>
-      <c r="M734" s="12"/>
-      <c r="N734" s="12"/>
-      <c r="O734" s="12"/>
-      <c r="P734" s="12"/>
-      <c r="Q734" s="12"/>
-      <c r="R734" s="12"/>
-      <c r="S734" s="12"/>
-      <c r="T734" s="12"/>
-      <c r="U734" s="12"/>
-      <c r="V734" s="12"/>
-      <c r="W734" s="12"/>
-      <c r="X734" s="12"/>
-      <c r="Y734" s="12"/>
-    </row>
-    <row r="735" spans="6:25">
-      <c r="F735" s="12"/>
-      <c r="G735" s="12"/>
-      <c r="H735" s="12"/>
-      <c r="I735" s="12"/>
-      <c r="J735" s="12"/>
-      <c r="L735" s="12"/>
-      <c r="M735" s="12"/>
-      <c r="N735" s="12"/>
-      <c r="O735" s="12"/>
-      <c r="P735" s="12"/>
-      <c r="Q735" s="12"/>
-      <c r="R735" s="12"/>
-      <c r="S735" s="12"/>
-      <c r="T735" s="12"/>
-      <c r="U735" s="12"/>
-      <c r="V735" s="12"/>
-      <c r="W735" s="12"/>
-      <c r="X735" s="12"/>
-      <c r="Y735" s="12"/>
-    </row>
-    <row r="736" spans="6:25">
-      <c r="F736" s="12"/>
-      <c r="G736" s="12"/>
-      <c r="H736" s="12"/>
-      <c r="I736" s="12"/>
-      <c r="J736" s="12"/>
-      <c r="L736" s="12"/>
-      <c r="M736" s="12"/>
-      <c r="N736" s="12"/>
-      <c r="O736" s="12"/>
-      <c r="P736" s="12"/>
-      <c r="Q736" s="12"/>
-      <c r="R736" s="12"/>
-      <c r="S736" s="12"/>
-      <c r="T736" s="12"/>
-      <c r="U736" s="12"/>
-      <c r="V736" s="12"/>
-      <c r="W736" s="12"/>
-      <c r="X736" s="12"/>
-      <c r="Y736" s="12"/>
-    </row>
-    <row r="737" spans="6:25">
-      <c r="F737" s="12"/>
-      <c r="G737" s="12"/>
-      <c r="H737" s="12"/>
-      <c r="I737" s="12"/>
-      <c r="J737" s="12"/>
-      <c r="L737" s="12"/>
-      <c r="M737" s="12"/>
-      <c r="N737" s="12"/>
-      <c r="O737" s="12"/>
-      <c r="P737" s="12"/>
-      <c r="Q737" s="12"/>
-      <c r="R737" s="12"/>
-      <c r="S737" s="12"/>
-      <c r="T737" s="12"/>
-      <c r="U737" s="12"/>
-      <c r="V737" s="12"/>
-      <c r="W737" s="12"/>
-      <c r="X737" s="12"/>
-      <c r="Y737" s="12"/>
-    </row>
-    <row r="738" spans="6:25">
-      <c r="F738" s="12"/>
-      <c r="G738" s="12"/>
-      <c r="H738" s="12"/>
-      <c r="I738" s="12"/>
-      <c r="J738" s="12"/>
-      <c r="L738" s="12"/>
-      <c r="M738" s="12"/>
-      <c r="N738" s="12"/>
-      <c r="O738" s="12"/>
-      <c r="P738" s="12"/>
-      <c r="Q738" s="12"/>
-      <c r="R738" s="12"/>
-      <c r="S738" s="12"/>
-      <c r="T738" s="12"/>
-      <c r="U738" s="12"/>
-      <c r="V738" s="12"/>
-      <c r="W738" s="12"/>
-      <c r="X738" s="12"/>
-      <c r="Y738" s="12"/>
-    </row>
-    <row r="739" spans="6:25">
-      <c r="F739" s="12"/>
-      <c r="G739" s="12"/>
-      <c r="H739" s="12"/>
-      <c r="I739" s="12"/>
-      <c r="J739" s="12"/>
-      <c r="L739" s="12"/>
-      <c r="M739" s="12"/>
-      <c r="N739" s="12"/>
-      <c r="O739" s="12"/>
-      <c r="P739" s="12"/>
-      <c r="Q739" s="12"/>
-      <c r="R739" s="12"/>
-      <c r="S739" s="12"/>
-      <c r="T739" s="12"/>
-      <c r="U739" s="12"/>
-      <c r="V739" s="12"/>
-      <c r="W739" s="12"/>
-      <c r="X739" s="12"/>
-      <c r="Y739" s="12"/>
-    </row>
-    <row r="740" spans="6:25">
-      <c r="F740" s="12"/>
-      <c r="G740" s="12"/>
-      <c r="H740" s="12"/>
-      <c r="I740" s="12"/>
-      <c r="J740" s="12"/>
-      <c r="L740" s="12"/>
-      <c r="M740" s="12"/>
-      <c r="N740" s="12"/>
-      <c r="O740" s="12"/>
-      <c r="P740" s="12"/>
-      <c r="Q740" s="12"/>
-      <c r="R740" s="12"/>
-      <c r="S740" s="12"/>
-      <c r="T740" s="12"/>
-      <c r="U740" s="12"/>
-      <c r="V740" s="12"/>
-      <c r="W740" s="12"/>
-      <c r="X740" s="12"/>
-      <c r="Y740" s="12"/>
-    </row>
-    <row r="741" spans="6:25">
-      <c r="F741" s="12"/>
-      <c r="G741" s="12"/>
-      <c r="H741" s="12"/>
-      <c r="I741" s="12"/>
-      <c r="J741" s="12"/>
-      <c r="L741" s="12"/>
-      <c r="M741" s="12"/>
-      <c r="N741" s="12"/>
-      <c r="O741" s="12"/>
-      <c r="P741" s="12"/>
-      <c r="Q741" s="12"/>
-      <c r="R741" s="12"/>
-      <c r="S741" s="12"/>
-      <c r="T741" s="12"/>
-      <c r="U741" s="12"/>
-      <c r="V741" s="12"/>
-      <c r="W741" s="12"/>
-      <c r="X741" s="12"/>
-      <c r="Y741" s="12"/>
-    </row>
-    <row r="742" spans="6:25">
-      <c r="F742" s="12"/>
-      <c r="G742" s="12"/>
-      <c r="H742" s="12"/>
-      <c r="I742" s="12"/>
-      <c r="J742" s="12"/>
-      <c r="L742" s="12"/>
-      <c r="M742" s="12"/>
-      <c r="N742" s="12"/>
-      <c r="O742" s="12"/>
-      <c r="P742" s="12"/>
-      <c r="Q742" s="12"/>
-      <c r="R742" s="12"/>
-      <c r="S742" s="12"/>
-      <c r="T742" s="12"/>
-      <c r="U742" s="12"/>
-      <c r="V742" s="12"/>
-      <c r="W742" s="12"/>
-      <c r="X742" s="12"/>
-      <c r="Y742" s="12"/>
-    </row>
-    <row r="743" spans="6:25">
-      <c r="F743" s="12"/>
-      <c r="G743" s="12"/>
-      <c r="H743" s="12"/>
-      <c r="I743" s="12"/>
-      <c r="J743" s="12"/>
-      <c r="L743" s="12"/>
-      <c r="M743" s="12"/>
-      <c r="N743" s="12"/>
-      <c r="O743" s="12"/>
-      <c r="P743" s="12"/>
-      <c r="Q743" s="12"/>
-      <c r="R743" s="12"/>
-      <c r="S743" s="12"/>
-      <c r="T743" s="12"/>
-      <c r="U743" s="12"/>
-      <c r="V743" s="12"/>
-      <c r="W743" s="12"/>
-      <c r="X743" s="12"/>
-      <c r="Y743" s="12"/>
-    </row>
-    <row r="744" spans="6:25">
-      <c r="F744" s="12"/>
-      <c r="G744" s="12"/>
-      <c r="H744" s="12"/>
-      <c r="I744" s="12"/>
-      <c r="J744" s="12"/>
-      <c r="L744" s="12"/>
-      <c r="M744" s="12"/>
-      <c r="N744" s="12"/>
-      <c r="O744" s="12"/>
-      <c r="P744" s="12"/>
-      <c r="Q744" s="12"/>
-      <c r="R744" s="12"/>
-      <c r="S744" s="12"/>
-      <c r="T744" s="12"/>
-      <c r="U744" s="12"/>
-      <c r="V744" s="12"/>
-      <c r="W744" s="12"/>
-      <c r="X744" s="12"/>
-      <c r="Y744" s="12"/>
-    </row>
-    <row r="745" spans="6:25">
-      <c r="F745" s="12"/>
-      <c r="G745" s="12"/>
-      <c r="H745" s="12"/>
-      <c r="I745" s="12"/>
-      <c r="J745" s="12"/>
-      <c r="L745" s="12"/>
-      <c r="M745" s="12"/>
-      <c r="N745" s="12"/>
-      <c r="O745" s="12"/>
-      <c r="P745" s="12"/>
-      <c r="Q745" s="12"/>
-      <c r="R745" s="12"/>
-      <c r="S745" s="12"/>
-      <c r="T745" s="12"/>
-      <c r="U745" s="12"/>
-      <c r="V745" s="12"/>
-      <c r="W745" s="12"/>
-      <c r="X745" s="12"/>
-      <c r="Y745" s="12"/>
-    </row>
-    <row r="746" spans="6:25">
-      <c r="F746" s="12"/>
-      <c r="G746" s="12"/>
-      <c r="H746" s="12"/>
-      <c r="I746" s="12"/>
-      <c r="J746" s="12"/>
-      <c r="L746" s="12"/>
-      <c r="M746" s="12"/>
-      <c r="N746" s="12"/>
-      <c r="O746" s="12"/>
-      <c r="P746" s="12"/>
-      <c r="Q746" s="12"/>
-      <c r="R746" s="12"/>
-      <c r="S746" s="12"/>
-      <c r="T746" s="12"/>
-      <c r="U746" s="12"/>
-      <c r="V746" s="12"/>
-      <c r="W746" s="12"/>
-      <c r="X746" s="12"/>
-      <c r="Y746" s="12"/>
-    </row>
-    <row r="747" spans="6:25">
-      <c r="F747" s="12"/>
-      <c r="G747" s="12"/>
-      <c r="H747" s="12"/>
-      <c r="I747" s="12"/>
-      <c r="J747" s="12"/>
-      <c r="L747" s="12"/>
-      <c r="M747" s="12"/>
-      <c r="N747" s="12"/>
-      <c r="O747" s="12"/>
-      <c r="P747" s="12"/>
-      <c r="Q747" s="12"/>
-      <c r="R747" s="12"/>
-      <c r="S747" s="12"/>
-      <c r="T747" s="12"/>
-      <c r="U747" s="12"/>
-      <c r="V747" s="12"/>
-      <c r="W747" s="12"/>
-      <c r="X747" s="12"/>
-      <c r="Y747" s="12"/>
-    </row>
-    <row r="748" spans="6:25">
-      <c r="F748" s="12"/>
-      <c r="G748" s="12"/>
-      <c r="H748" s="12"/>
-      <c r="I748" s="12"/>
-      <c r="J748" s="12"/>
-      <c r="L748" s="12"/>
-      <c r="M748" s="12"/>
-      <c r="N748" s="12"/>
-      <c r="O748" s="12"/>
-      <c r="P748" s="12"/>
-      <c r="Q748" s="12"/>
-      <c r="R748" s="12"/>
-      <c r="S748" s="12"/>
-      <c r="T748" s="12"/>
-      <c r="U748" s="12"/>
-      <c r="V748" s="12"/>
-      <c r="W748" s="12"/>
-      <c r="X748" s="12"/>
-      <c r="Y748" s="12"/>
-    </row>
-    <row r="749" spans="6:25">
-      <c r="F749" s="12"/>
-      <c r="G749" s="12"/>
-      <c r="H749" s="12"/>
-      <c r="I749" s="12"/>
-      <c r="J749" s="12"/>
-      <c r="L749" s="12"/>
-      <c r="M749" s="12"/>
-      <c r="N749" s="12"/>
-      <c r="O749" s="12"/>
-      <c r="P749" s="12"/>
-      <c r="Q749" s="12"/>
-      <c r="R749" s="12"/>
-      <c r="S749" s="12"/>
-      <c r="T749" s="12"/>
-      <c r="U749" s="12"/>
-      <c r="V749" s="12"/>
-      <c r="W749" s="12"/>
-      <c r="X749" s="12"/>
-      <c r="Y749" s="12"/>
-    </row>
-    <row r="750" spans="6:25">
-      <c r="F750" s="12"/>
-      <c r="G750" s="12"/>
-      <c r="H750" s="12"/>
-      <c r="I750" s="12"/>
-      <c r="J750" s="12"/>
-      <c r="L750" s="12"/>
-      <c r="M750" s="12"/>
-      <c r="N750" s="12"/>
-      <c r="O750" s="12"/>
-      <c r="P750" s="12"/>
-      <c r="Q750" s="12"/>
-      <c r="R750" s="12"/>
-      <c r="S750" s="12"/>
-      <c r="T750" s="12"/>
-      <c r="U750" s="12"/>
-      <c r="V750" s="12"/>
-      <c r="W750" s="12"/>
-      <c r="X750" s="12"/>
-      <c r="Y750" s="12"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
@@ -36008,6 +35734,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -36018,7 +35745,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -36597,7 +36323,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -37420,7 +37145,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -38005,9 +37729,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView topLeftCell="A16" workbookViewId="1">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -38574,9 +38295,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-    <sheetView topLeftCell="A16" workbookViewId="1">
-      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -39343,7 +39061,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView topLeftCell="A16" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -39902,7 +39619,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -40498,7 +40214,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -41662,7 +41377,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -42864,7 +42578,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -43736,9 +43449,6 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="F63" sqref="F63"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
@@ -43753,7 +43463,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
@@ -44550,7 +44259,6 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
@@ -44564,9 +44272,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A1:B1048576"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -44967,9 +44672,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -45557,9 +45259,6 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>

--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517ED249-862C-4883-A3C9-5308CF4A38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC82A1EA-8F4F-47E7-A2A3-5E7D3B882624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="31845" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="581">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -1843,9 +1843,6 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>Bumble revenue per paying user ($)</t>
-  </si>
-  <si>
     <t>$mn</t>
   </si>
   <si>
@@ -1861,16 +1858,37 @@
     <t>Total paying users (mn)</t>
   </si>
   <si>
-    <t>Badoo and other revenue per paying user ($)</t>
-  </si>
-  <si>
-    <t>Total average rev. per paying user ($)</t>
-  </si>
-  <si>
     <t>Bumble</t>
   </si>
   <si>
     <t>Badoo and other</t>
+  </si>
+  <si>
+    <t>Bumble paying user growth</t>
+  </si>
+  <si>
+    <t>Badoo paying user growth</t>
+  </si>
+  <si>
+    <t>Total paying user growth</t>
+  </si>
+  <si>
+    <t>Bumble ARPPU ($)</t>
+  </si>
+  <si>
+    <t>Badoo and other ARPPU ($)</t>
+  </si>
+  <si>
+    <t>Total ARRPU ($)</t>
+  </si>
+  <si>
+    <t>Bumble ARPPU growth</t>
+  </si>
+  <si>
+    <t>Badoo ARPPU growth</t>
+  </si>
+  <si>
+    <t>Total ARPPU growth</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2099,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2199,6 +2217,9 @@
     </xf>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2260,16 +2281,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>571244</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>21290</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>371219</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>554972</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47063</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>354947</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2293,7 +2314,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15677894" y="4840940"/>
+          <a:off x="17744819" y="6279215"/>
           <a:ext cx="7070328" cy="2673723"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2305,16 +2326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>414619</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>153441</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>525001</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>143617</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>239250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>116404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2337,8 +2358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20836219" y="10201274"/>
-          <a:ext cx="4244232" cy="2801093"/>
+          <a:off x="21543870" y="11198680"/>
+          <a:ext cx="4766666" cy="3205224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7546,7 +7567,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -17283,10 +17304,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AO743"/>
+  <dimension ref="A1:AG750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -17554,7 +17575,7 @@
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="E11" s="60" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F11" s="61">
         <v>694.32899999999995</v>
@@ -17625,7 +17646,7 @@
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="E12" s="60" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F12" s="61">
         <v>209.17400000000001</v>
@@ -17834,7 +17855,7 @@
         <v>-64.581000000000003</v>
       </c>
       <c r="O14" s="39">
-        <f t="shared" ref="O13:O18" ca="1" si="4">F14-SUM(L14:N14)</f>
+        <f t="shared" ref="O14:O18" ca="1" si="4">F14-SUM(L14:N14)</f>
         <v>-65.371000000000009</v>
       </c>
       <c r="P14" s="39">
@@ -17850,7 +17871,7 @@
         <v>-80.049000000000007</v>
       </c>
       <c r="S14" s="39">
-        <f t="shared" ref="S13:S18" ca="1" si="5">G14-SUM(P14:R14)</f>
+        <f t="shared" ref="S14:S18" ca="1" si="5">G14-SUM(P14:R14)</f>
         <v>-80.468999999999966</v>
       </c>
       <c r="T14" s="39">
@@ -17866,7 +17887,7 @@
         <v>-79.552000000000007</v>
       </c>
       <c r="W14" s="39">
-        <f t="shared" ref="W13:W27" ca="1" si="6">H14-SUM(T14:V14)</f>
+        <f t="shared" ref="W14:W27" ca="1" si="6">H14-SUM(T14:V14)</f>
         <v>-77.952999999999975</v>
       </c>
       <c r="X14" s="39">
@@ -19399,23 +19420,23 @@
       <c r="AF32" s="40"/>
       <c r="AG32" s="40"/>
     </row>
-    <row r="33" spans="1:41" ht="3" customHeight="1"/>
-    <row r="34" spans="1:41">
+    <row r="33" spans="1:26" ht="3" customHeight="1"/>
+    <row r="34" spans="1:26">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="E34" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="W34" s="58"/>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:26">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="E35" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F35" s="52">
         <v>2.0022000000000002</v>
@@ -19426,8 +19447,8 @@
       <c r="H35" s="52">
         <v>2.8073000000000001</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
       <c r="L35" s="52">
         <v>1.7751999999999999</v>
       </c>
@@ -19471,12 +19492,13 @@
         <v>2.7084000000000001</v>
       </c>
       <c r="Y35" s="12"/>
-    </row>
-    <row r="36" spans="1:41">
+      <c r="Z35" s="39"/>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="E36" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F36" s="52">
         <v>1.1797</v>
@@ -19487,8 +19509,8 @@
       <c r="H36" s="52">
         <v>1.3420000000000001</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
       <c r="L36" s="52">
         <v>1.232</v>
       </c>
@@ -19532,12 +19554,13 @@
         <v>1.3063</v>
       </c>
       <c r="Y36" s="12"/>
-    </row>
-    <row r="37" spans="1:41">
+      <c r="Z36" s="39"/>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="E37" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F37" s="46">
         <f t="shared" ref="F37:H37" si="32">SUM(F35:F36)</f>
@@ -19551,8 +19574,8 @@
         <f t="shared" si="32"/>
         <v>4.1493000000000002</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
       <c r="L37" s="46">
         <f t="shared" ref="L37:W37" si="33">SUM(L35:L36)</f>
         <v>3.0072000000000001</v>
@@ -19606,15 +19629,16 @@
         <v>4.0147000000000004</v>
       </c>
       <c r="Y37" s="12"/>
-    </row>
-    <row r="38" spans="1:41" ht="1.5" customHeight="1">
+      <c r="Z37" s="39"/>
+    </row>
+    <row r="38" spans="1:26" ht="1.5" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -19630,11 +19654,11 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:26">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="E39" s="3" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="F39" s="52">
         <v>28.9</v>
@@ -19645,8 +19669,8 @@
       <c r="H39" s="52">
         <v>25.72</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
       <c r="L39" s="52">
         <v>28.99</v>
       </c>
@@ -19691,11 +19715,11 @@
       </c>
       <c r="Y39" s="52"/>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:26">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="E40" s="3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F40" s="52">
         <v>13.06</v>
@@ -19706,8 +19730,8 @@
       <c r="H40" s="52">
         <v>11.85</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
       <c r="L40" s="52">
         <v>13.48</v>
       </c>
@@ -19752,11 +19776,11 @@
       </c>
       <c r="Y40" s="52"/>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:26">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="E41" s="45" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F41" s="46">
         <f t="shared" ref="F41:H41" si="34">F35/F37*F39+F36/F37*F40</f>
@@ -19770,8 +19794,8 @@
         <f t="shared" si="34"/>
         <v>21.23405297279059</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="L41" s="46">
         <f t="shared" ref="L41:W41" si="35">L35/L37*L39+L36/L37*L40</f>
         <v>22.635810055865921</v>
@@ -19826,7 +19850,7 @@
       </c>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:26">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="F42" s="12"/>
@@ -19849,185 +19873,232 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:26">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
+      <c r="E43" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F43" s="15" t="str">
+        <f t="shared" ref="F43:H45" si="36">IFERROR(+F35/E35-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="36"/>
+        <v>0.25731695135351096</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" si="36"/>
+        <v>0.11515849686184176</v>
+      </c>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="L43" s="15" t="str">
+        <f t="shared" ref="L43" si="37">IFERROR(+L35/K35-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="M43" s="15">
+        <f t="shared" ref="M43:W49" si="38">IFERROR(+M35/L35-1,"n/a")</f>
+        <v>8.4103199639477433E-2</v>
+      </c>
+      <c r="N43" s="15">
+        <f t="shared" si="38"/>
+        <v>8.5009093270979275E-2</v>
+      </c>
+      <c r="O43" s="15">
+        <f t="shared" si="38"/>
+        <v>6.3646377089220385E-2</v>
+      </c>
+      <c r="P43" s="15">
+        <f t="shared" si="38"/>
+        <v>4.4034218820350635E-2</v>
+      </c>
+      <c r="Q43" s="15">
+        <f t="shared" si="38"/>
+        <v>5.9944799033983198E-2</v>
+      </c>
+      <c r="R43" s="15">
+        <f t="shared" si="38"/>
+        <v>5.9850272601513543E-2</v>
+      </c>
+      <c r="S43" s="15">
+        <f t="shared" si="38"/>
+        <v>3.1939805750699879E-2</v>
+      </c>
+      <c r="T43" s="15">
+        <f t="shared" si="38"/>
+        <v>1.5587217737436099E-2</v>
+      </c>
+      <c r="U43" s="15">
+        <f t="shared" si="38"/>
+        <v>3.1941391941392006E-2</v>
+      </c>
+      <c r="V43" s="15">
+        <f t="shared" si="38"/>
+        <v>1.8493539684793392E-2</v>
+      </c>
+      <c r="W43" s="15">
+        <f t="shared" si="38"/>
+        <v>-1.9726065590910724E-2</v>
+      </c>
+      <c r="X43" s="15">
+        <f>IFERROR(+X35/W35-1,"n/a")</f>
+        <v>-3.7081807515909948E-2</v>
+      </c>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="1:41">
-      <c r="A44" s="33" t="s">
-        <v>547</v>
-      </c>
+    <row r="44" spans="1:26">
+      <c r="A44" s="33"/>
       <c r="B44" s="33"/>
-      <c r="E44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!A:A"), $A44) / $B$3</f>
-        <v>-79.745999999999995</v>
-      </c>
-      <c r="G44" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'is_fy" &amp; G$2 &amp; G$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; G$2 &amp; G$1 &amp; "'!A:A"), $A44) / $B$3</f>
-        <v>-4.2130000000000001</v>
-      </c>
-      <c r="H44" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'is_fy" &amp; H$2 &amp; H$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; H$2 &amp; H$1 &amp; "'!A:A"), $A44) / $B$3</f>
-        <v>-557.00800000000004</v>
-      </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="L44" s="62">
-        <f t="shared" ref="L44:V44" ca="1" si="36">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A44) / $B$3</f>
-        <v>16.395</v>
-      </c>
-      <c r="M44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>-4.3920000000000003</v>
-      </c>
-      <c r="N44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>18.062999999999999</v>
-      </c>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>-1.611</v>
-      </c>
-      <c r="Q44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>6.7530000000000001</v>
-      </c>
-      <c r="R44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>16.670999999999999</v>
-      </c>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>24.617000000000001</v>
-      </c>
-      <c r="U44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>27.395</v>
-      </c>
-      <c r="V44" s="62">
-        <f t="shared" ca="1" si="36"/>
-        <v>-613.19899999999996</v>
-      </c>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62">
-        <f ca="1">SUMIFS(INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!A:A"), $A44) / $B$3</f>
-        <v>13.444000000000001</v>
-      </c>
-      <c r="AN44">
-        <v>244</v>
-      </c>
-      <c r="AO44">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41">
+      <c r="E44" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F44" s="15" t="str">
+        <f t="shared" si="36"/>
+        <v>n/a</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="36"/>
+        <v>2.000508603882345E-2</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="36"/>
+        <v>0.11526635086844506</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="L44" s="15" t="str">
+        <f t="shared" ref="L44" si="39">IFERROR(+L36/K36-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" si="38"/>
+        <v>-0.11022727272727262</v>
+      </c>
+      <c r="N44" s="15">
+        <f t="shared" si="38"/>
+        <v>9.6697682904579363E-2</v>
+      </c>
+      <c r="O44" s="15">
+        <f t="shared" si="38"/>
+        <v>-1.1478955248710676E-2</v>
+      </c>
+      <c r="P44" s="15">
+        <f t="shared" si="38"/>
+        <v>-3.9885560417367794E-2</v>
+      </c>
+      <c r="Q44" s="15">
+        <f t="shared" si="38"/>
+        <v>3.0236634531113138E-2</v>
+      </c>
+      <c r="R44" s="15">
+        <f t="shared" si="38"/>
+        <v>3.4113143343258212E-2</v>
+      </c>
+      <c r="S44" s="15">
+        <f t="shared" si="38"/>
+        <v>5.388285620269806E-2</v>
+      </c>
+      <c r="T44" s="15">
+        <f t="shared" si="38"/>
+        <v>1.03036453048162E-2</v>
+      </c>
+      <c r="U44" s="15">
+        <f t="shared" si="38"/>
+        <v>2.0937958742177187E-2</v>
+      </c>
+      <c r="V44" s="15">
+        <f t="shared" si="38"/>
+        <v>4.9038898138338283E-2</v>
+      </c>
+      <c r="W44" s="15">
+        <f t="shared" si="38"/>
+        <v>-1.4500072139662423E-2</v>
+      </c>
+      <c r="X44" s="15">
+        <f>IFERROR(+X36/W36-1,"n/a")</f>
+        <v>-4.3774247858868409E-2</v>
+      </c>
+      <c r="Y44" s="12"/>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
-      <c r="C45" s="11" t="b" cm="1">
-        <f t="array" aca="1" ref="C45" ca="1">AND(F45:AC45&lt;$B$1,F45:AC45&gt;-$B$1)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="13">
-        <f ca="1">+F44-F27</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="13">
-        <f ca="1">+G44-G27</f>
-        <v>1.1457501614131615E-13</v>
-      </c>
-      <c r="H45" s="13">
-        <f ca="1">+H44-H27</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="L45" s="34">
-        <f ca="1">+L44-L27</f>
-        <v>1.1690000000000396</v>
-      </c>
-      <c r="M45" s="34">
-        <f ca="1">+M44-M27</f>
-        <v>1.248000000000018</v>
-      </c>
-      <c r="N45" s="34">
-        <f ca="1">+N44-N27</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="34">
-        <f ca="1">F27-SUM(L27:O27)</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="34">
-        <f ca="1">+P44-P27</f>
-        <v>1.4432899320127035E-14</v>
-      </c>
-      <c r="Q45" s="34">
-        <f ca="1">+Q44-Q27</f>
-        <v>-2.6645352591003757E-14</v>
-      </c>
-      <c r="R45" s="34">
-        <f ca="1">+R44-R27</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="34">
-        <f ca="1">G27-SUM(P27:S27)</f>
-        <v>-2.0605739337042905E-13</v>
-      </c>
-      <c r="T45" s="34">
-        <f ca="1">+T44-T27</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="34">
-        <f ca="1">+U44-U27</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="34">
-        <f ca="1">+V44-V27</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="34">
-        <f ca="1">H27-SUM(T27:W27)</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="34">
-        <f ca="1">+X44-X27</f>
-        <v>2.3092638912203256E-14</v>
-      </c>
-      <c r="AO45">
-        <f>AO44+AN44</f>
-        <v>493</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41">
+      <c r="E45" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="F45" s="63" t="str">
+        <f t="shared" si="36"/>
+        <v>n/a</v>
+      </c>
+      <c r="G45" s="63">
+        <f t="shared" si="36"/>
+        <v>0.16933278858543632</v>
+      </c>
+      <c r="H45" s="63">
+        <f t="shared" si="36"/>
+        <v>0.11519337759023851</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="L45" s="63" t="str">
+        <f t="shared" ref="L45" si="40">IFERROR(+L37/K37-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="M45" s="63">
+        <f t="shared" si="38"/>
+        <v>4.4892258579409816E-3</v>
+      </c>
+      <c r="N45" s="63">
+        <f t="shared" si="38"/>
+        <v>8.9250835898963654E-2</v>
+      </c>
+      <c r="O45" s="63">
+        <f t="shared" si="38"/>
+        <v>3.619730723642256E-2</v>
+      </c>
+      <c r="P45" s="63">
+        <f t="shared" si="38"/>
+        <v>1.4782659705519841E-2</v>
+      </c>
+      <c r="Q45" s="63">
+        <f t="shared" si="38"/>
+        <v>5.014740736458756E-2</v>
+      </c>
+      <c r="R45" s="63">
+        <f t="shared" si="38"/>
+        <v>5.1523408471637389E-2</v>
+      </c>
+      <c r="S45" s="63">
+        <f t="shared" si="38"/>
+        <v>3.8921607119486445E-2</v>
+      </c>
+      <c r="T45" s="63">
+        <f t="shared" si="38"/>
+        <v>1.3881890557291721E-2</v>
+      </c>
+      <c r="U45" s="63">
+        <f t="shared" si="38"/>
+        <v>2.8402455085356548E-2</v>
+      </c>
+      <c r="V45" s="63">
+        <f t="shared" si="38"/>
+        <v>2.824626685352527E-2</v>
+      </c>
+      <c r="W45" s="63">
+        <f t="shared" si="38"/>
+        <v>-1.8023733991305302E-2</v>
+      </c>
+      <c r="X45" s="63">
+        <f>IFERROR(+X37/W37-1,"n/a")</f>
+        <v>-3.9269646788551604E-2</v>
+      </c>
+      <c r="Y45" s="12"/>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -20047,1384 +20118,1616 @@
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
-      <c r="AO46">
-        <f>+AO45/2</f>
-        <v>246.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41">
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
-      <c r="E47" s="2" t="str">
+      <c r="E47" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F47" s="15" t="str">
+        <f t="shared" ref="F47:F49" si="41">IFERROR(+F39/E39-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" ref="G47:G49" si="42">IFERROR(+G39/F39-1,"n/a")</f>
+        <v>-3.2179930795847689E-2</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" ref="H47:H49" si="43">IFERROR(+H39/G39-1,"n/a")</f>
+        <v>-8.0443332141580282E-2</v>
+      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="L47" s="15" t="str">
+        <f t="shared" ref="L47:L49" si="44">IFERROR(+L39/K39-1,"n/a")</f>
+        <v>n/a</v>
+      </c>
+      <c r="M47" s="15">
+        <f t="shared" si="38"/>
+        <v>6.553984132459556E-3</v>
+      </c>
+      <c r="N47" s="15">
+        <f t="shared" si="38"/>
+        <v>-1.1651816312542862E-2</v>
+      </c>
+      <c r="O47" s="15">
+        <f t="shared" si="38"/>
+        <v>-6.8376025676818442E-3</v>
+      </c>
+      <c r="P47" s="15">
+        <f t="shared" si="38"/>
+        <v>-2.48859557656127E-2</v>
+      </c>
+      <c r="Q47" s="15">
+        <f t="shared" si="38"/>
+        <v>1.0025062656641603E-2</v>
+      </c>
+      <c r="R47" s="15">
+        <f t="shared" si="38"/>
+        <v>6.0262318326833597E-3</v>
+      </c>
+      <c r="S47" s="15">
+        <f t="shared" si="38"/>
+        <v>-3.5522425432995219E-2</v>
+      </c>
+      <c r="T47" s="15">
+        <f t="shared" si="38"/>
+        <v>-3.7698316986432334E-2</v>
+      </c>
+      <c r="U47" s="15">
+        <f t="shared" si="38"/>
+        <v>-2.0880789673500377E-2</v>
+      </c>
+      <c r="V47" s="15">
+        <f t="shared" si="38"/>
+        <v>-8.1426909654905844E-3</v>
+      </c>
+      <c r="W47" s="15">
+        <f t="shared" si="38"/>
+        <v>-1.6153129270075284E-2</v>
+      </c>
+      <c r="X47" s="15">
+        <f>IFERROR(+X39/W39-1,"n/a")</f>
+        <v>-1.2985477491052944E-2</v>
+      </c>
+      <c r="Y47" s="12"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="E48" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F48" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>n/a</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="42"/>
+        <v>-2.7565084226646386E-2</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="43"/>
+        <v>-6.6929133858267709E-2</v>
+      </c>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="L48" s="15" t="str">
+        <f t="shared" si="44"/>
+        <v>n/a</v>
+      </c>
+      <c r="M48" s="15">
+        <f t="shared" si="38"/>
+        <v>5.9347181008901906E-3</v>
+      </c>
+      <c r="N48" s="15">
+        <f t="shared" si="38"/>
+        <v>-5.9734513274336321E-2</v>
+      </c>
+      <c r="O48" s="15">
+        <f t="shared" si="38"/>
+        <v>0.1171388784392926</v>
+      </c>
+      <c r="P48" s="15">
+        <f t="shared" si="38"/>
+        <v>-0.12451420806994762</v>
+      </c>
+      <c r="Q48" s="15">
+        <f t="shared" si="38"/>
+        <v>2.8869286287088958E-2</v>
+      </c>
+      <c r="R48" s="15">
+        <f t="shared" si="38"/>
+        <v>-3.1176929072487258E-3</v>
+      </c>
+      <c r="S48" s="15">
+        <f t="shared" si="38"/>
+        <v>7.6210588913737443E-2</v>
+      </c>
+      <c r="T48" s="15">
+        <f t="shared" si="38"/>
+        <v>-0.10277957355109479</v>
+      </c>
+      <c r="U48" s="15">
+        <f t="shared" si="38"/>
+        <v>-3.4008097165991846E-2</v>
+      </c>
+      <c r="V48" s="15">
+        <f t="shared" si="38"/>
+        <v>8.3822296730931001E-3</v>
+      </c>
+      <c r="W48" s="15">
+        <f t="shared" si="38"/>
+        <v>-2.9509630424973121E-4</v>
+      </c>
+      <c r="X48" s="15">
+        <f>IFERROR(+X40/W40-1,"n/a")</f>
+        <v>-0.10863139100795338</v>
+      </c>
+      <c r="Y48" s="12"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="E49" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="F49" s="63" t="str">
+        <f t="shared" si="41"/>
+        <v>n/a</v>
+      </c>
+      <c r="G49" s="63">
+        <f t="shared" si="42"/>
+        <v>1.8714760066562697E-4</v>
+      </c>
+      <c r="H49" s="63">
+        <f t="shared" si="43"/>
+        <v>-7.8046062257750903E-2</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="L49" s="63" t="str">
+        <f t="shared" si="44"/>
+        <v>n/a</v>
+      </c>
+      <c r="M49" s="63">
+        <f t="shared" si="38"/>
+        <v>3.8688880536839054E-2</v>
+      </c>
+      <c r="N49" s="63">
+        <f t="shared" si="38"/>
+        <v>-2.3413177038095645E-2</v>
+      </c>
+      <c r="O49" s="63">
+        <f t="shared" si="38"/>
+        <v>2.885853387316395E-2</v>
+      </c>
+      <c r="P49" s="63">
+        <f t="shared" si="38"/>
+        <v>-3.3535259795943073E-2</v>
+      </c>
+      <c r="Q49" s="63">
+        <f t="shared" si="38"/>
+        <v>1.7631386311102171E-2</v>
+      </c>
+      <c r="R49" s="63">
+        <f t="shared" si="38"/>
+        <v>7.9870173052551952E-3</v>
+      </c>
+      <c r="S49" s="63">
+        <f t="shared" si="38"/>
+        <v>-1.8769386229742113E-2</v>
+      </c>
+      <c r="T49" s="63">
+        <f t="shared" si="38"/>
+        <v>-4.9586945372707691E-2</v>
+      </c>
+      <c r="U49" s="63">
+        <f t="shared" si="38"/>
+        <v>-2.1786750623926765E-2</v>
+      </c>
+      <c r="V49" s="63">
+        <f t="shared" si="38"/>
+        <v>-9.2913084346182284E-3</v>
+      </c>
+      <c r="W49" s="63">
+        <f t="shared" si="38"/>
+        <v>-1.3942845182056685E-2</v>
+      </c>
+      <c r="X49" s="63">
+        <f>IFERROR(+X41/W41-1,"n/a")</f>
+        <v>-2.9965804598571788E-2</v>
+      </c>
+      <c r="Y49" s="12"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="12"/>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B51" s="33"/>
+      <c r="E51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!A:A"), $A51) / $B$3</f>
+        <v>-79.745999999999995</v>
+      </c>
+      <c r="G51" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'is_fy" &amp; G$2 &amp; G$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; G$2 &amp; G$1 &amp; "'!A:A"), $A51) / $B$3</f>
+        <v>-4.2130000000000001</v>
+      </c>
+      <c r="H51" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'is_fy" &amp; H$2 &amp; H$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; H$2 &amp; H$1 &amp; "'!A:A"), $A51) / $B$3</f>
+        <v>-557.00800000000004</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="L51" s="62">
+        <f t="shared" ref="L51:V51" ca="1" si="45">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A51) / $B$3</f>
+        <v>16.395</v>
+      </c>
+      <c r="M51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>-4.3920000000000003</v>
+      </c>
+      <c r="N51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>18.062999999999999</v>
+      </c>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>-1.611</v>
+      </c>
+      <c r="Q51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="R51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>16.670999999999999</v>
+      </c>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>24.617000000000001</v>
+      </c>
+      <c r="U51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>27.395</v>
+      </c>
+      <c r="V51" s="62">
+        <f t="shared" ca="1" si="45"/>
+        <v>-613.19899999999996</v>
+      </c>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62">
+        <f ca="1">SUMIFS(INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!A:A"), $A51) / $B$3</f>
+        <v>13.444000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="11" t="b" cm="1">
+        <f t="array" aca="1" ref="C52" ca="1">AND(F52:AC52&lt;$B$1,F52:AC52&gt;-$B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="13">
+        <f ca="1">+F51-F27</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <f ca="1">+G51-G27</f>
+        <v>1.1457501614131615E-13</v>
+      </c>
+      <c r="H52" s="13">
+        <f ca="1">+H51-H27</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="L52" s="34">
+        <f ca="1">+L51-L27</f>
+        <v>1.1690000000000396</v>
+      </c>
+      <c r="M52" s="34">
+        <f ca="1">+M51-M27</f>
+        <v>1.248000000000018</v>
+      </c>
+      <c r="N52" s="34">
+        <f ca="1">+N51-N27</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="34">
+        <f ca="1">F27-SUM(L27:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="34">
+        <f ca="1">+P51-P27</f>
+        <v>1.4432899320127035E-14</v>
+      </c>
+      <c r="Q52" s="34">
+        <f ca="1">+Q51-Q27</f>
+        <v>-2.6645352591003757E-14</v>
+      </c>
+      <c r="R52" s="34">
+        <f ca="1">+R51-R27</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="34">
+        <f ca="1">G27-SUM(P27:S27)</f>
+        <v>-2.0605739337042905E-13</v>
+      </c>
+      <c r="T52" s="34">
+        <f ca="1">+T51-T27</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="34">
+        <f ca="1">+U51-U27</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="34">
+        <f ca="1">+V51-V27</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="34">
+        <f ca="1">H27-SUM(T27:W27)</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="34">
+        <f ca="1">+X51-X27</f>
+        <v>2.3092638912203256E-14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="E54" s="2" t="str">
         <f>Input!$E$8&amp;" - BS"</f>
         <v>BMBL - BS</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:41">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="E48" s="6" t="str">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="E55" s="6" t="str">
         <f>+Input!$E$14</f>
         <v>$mn</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G55" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H55" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="L48" s="14" t="s">
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="L55" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M48" s="14" t="s">
+      <c r="M55" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="N48" s="14" t="s">
+      <c r="N55" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="O55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P48" s="14" t="s">
+      <c r="P55" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="14" t="s">
+      <c r="Q55" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="R48" s="14" t="s">
+      <c r="R55" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="S48" s="14" t="s">
+      <c r="S55" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T48" s="14" t="s">
+      <c r="T55" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="U48" s="14" t="s">
+      <c r="U55" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="V55" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="W48" s="14" t="s">
+      <c r="W55" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X48" s="14" t="s">
+      <c r="X55" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="3" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:24" s="49" customFormat="1">
-      <c r="A50" s="47" t="s">
+    <row r="56" spans="1:25" ht="3" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:25" s="49" customFormat="1">
+      <c r="A57" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
-      <c r="E50" s="49" t="s">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="E57" s="49" t="s">
         <v>564</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F57" s="50">
         <f>+bs_fy22!C16/B3</f>
         <v>402.55900000000003</v>
       </c>
-      <c r="G50" s="50">
-        <f t="shared" ref="G50:H53" ca="1" si="37">SUMIFS(INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!B:B"), $A50) / $B$3</f>
+      <c r="G57" s="50">
+        <f t="shared" ref="G57:H60" ca="1" si="46">SUMIFS(INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>355.642</v>
       </c>
-      <c r="H50" s="50">
-        <f t="shared" ca="1" si="37"/>
+      <c r="H57" s="50">
+        <f t="shared" ca="1" si="46"/>
         <v>204.31899999999999</v>
       </c>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50">
-        <f t="shared" ref="L50:R53" ca="1" si="38">SUMIFS(INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!B:B"), $A50) / $B$3</f>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50">
+        <f t="shared" ref="L57:R60" ca="1" si="47">SUMIFS(INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>308.78800000000001</v>
       </c>
-      <c r="M50" s="50">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A50) / $B$3</f>
+      <c r="M57" s="50">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>334.64499999999998</v>
       </c>
-      <c r="N50" s="50">
-        <f t="shared" ca="1" si="38"/>
+      <c r="N57" s="50">
+        <f t="shared" ca="1" si="47"/>
         <v>365.10500000000002</v>
       </c>
-      <c r="O50" s="50">
-        <f>F50</f>
+      <c r="O57" s="50">
+        <f>F57</f>
         <v>402.55900000000003</v>
       </c>
-      <c r="P50" s="50">
-        <f t="shared" ca="1" si="38"/>
+      <c r="P57" s="50">
+        <f t="shared" ca="1" si="47"/>
         <v>388.95499999999998</v>
       </c>
-      <c r="Q50" s="50">
-        <f t="shared" ca="1" si="38"/>
+      <c r="Q57" s="50">
+        <f t="shared" ca="1" si="47"/>
         <v>381.01900000000001</v>
       </c>
-      <c r="R50" s="50">
-        <f t="shared" ca="1" si="38"/>
+      <c r="R57" s="50">
+        <f t="shared" ca="1" si="47"/>
         <v>439.18400000000003</v>
       </c>
-      <c r="S50" s="50">
-        <f ca="1">+G50</f>
+      <c r="S57" s="50">
+        <f ca="1">+G57</f>
         <v>355.642</v>
       </c>
-      <c r="T50" s="50">
-        <f t="shared" ref="T50:V53" ca="1" si="39">SUMIFS(INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!B:B"), $A50) / $B$3</f>
+      <c r="T57" s="50">
+        <f t="shared" ref="T57:V60" ca="1" si="48">SUMIFS(INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>262.69900000000001</v>
       </c>
-      <c r="U50" s="50">
-        <f t="shared" ca="1" si="39"/>
+      <c r="U57" s="50">
+        <f t="shared" ca="1" si="48"/>
         <v>286.66399999999999</v>
       </c>
-      <c r="V50" s="50">
-        <f t="shared" ca="1" si="39"/>
+      <c r="V57" s="50">
+        <f t="shared" ca="1" si="48"/>
         <v>252.05699999999999</v>
       </c>
-      <c r="W50" s="50">
-        <f ca="1">H50</f>
+      <c r="W57" s="50">
+        <f ca="1">H57</f>
         <v>204.31899999999999</v>
       </c>
-      <c r="X50" s="50">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A50) / $B$3</f>
+      <c r="X57" s="50">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>202.24299999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
-      <c r="A51" s="33" t="s">
+    <row r="58" spans="1:25">
+      <c r="A58" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="E51" s="2" t="s">
+      <c r="B58" s="33"/>
+      <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F58" s="38">
         <f>+bs_fy22!C26/B3</f>
         <v>3692.6210000000001</v>
       </c>
-      <c r="G51" s="38">
-        <f t="shared" ca="1" si="37"/>
+      <c r="G58" s="38">
+        <f t="shared" ca="1" si="46"/>
         <v>3625.127</v>
       </c>
-      <c r="H51" s="38">
-        <f t="shared" ca="1" si="37"/>
+      <c r="H58" s="38">
+        <f t="shared" ca="1" si="46"/>
         <v>2524.8870000000002</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="38">
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="38">
         <f>+bs_q122!C28/B3</f>
         <v>3795.402</v>
       </c>
-      <c r="M51" s="38">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A51) / $B$3</f>
+      <c r="M58" s="38">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A58) / $B$3</f>
         <v>3767.819</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N58" s="38">
         <f>+bs_q322!C28/B3</f>
         <v>3792.8380000000002</v>
       </c>
-      <c r="O51" s="38">
-        <f>F51</f>
+      <c r="O58" s="38">
+        <f>F58</f>
         <v>3692.6210000000001</v>
       </c>
-      <c r="P51" s="38">
-        <f t="shared" ca="1" si="38"/>
+      <c r="P58" s="38">
+        <f t="shared" ca="1" si="47"/>
         <v>3702.5920000000001</v>
       </c>
-      <c r="Q51" s="38">
-        <f t="shared" ca="1" si="38"/>
+      <c r="Q58" s="38">
+        <f t="shared" ca="1" si="47"/>
         <v>3692.297</v>
       </c>
-      <c r="R51" s="38">
-        <f t="shared" ca="1" si="38"/>
+      <c r="R58" s="38">
+        <f t="shared" ca="1" si="47"/>
         <v>3733.1930000000002</v>
       </c>
-      <c r="S51" s="38">
-        <f ca="1">+G51</f>
+      <c r="S58" s="38">
+        <f ca="1">+G58</f>
         <v>3625.127</v>
       </c>
-      <c r="T51" s="38">
-        <f t="shared" ca="1" si="39"/>
+      <c r="T58" s="38">
+        <f t="shared" ca="1" si="48"/>
         <v>3516.9490000000001</v>
       </c>
-      <c r="U51" s="38">
-        <f t="shared" ca="1" si="39"/>
+      <c r="U58" s="38">
+        <f t="shared" ca="1" si="48"/>
         <v>3524.24</v>
       </c>
-      <c r="V51" s="38">
-        <f t="shared" ca="1" si="39"/>
+      <c r="V58" s="38">
+        <f t="shared" ca="1" si="48"/>
         <v>2589.4119999999998</v>
       </c>
-      <c r="W51" s="38">
-        <f ca="1">H51</f>
+      <c r="W58" s="38">
+        <f ca="1">H58</f>
         <v>2524.8870000000002</v>
       </c>
-      <c r="X51" s="38">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A51) / $B$3</f>
+      <c r="X58" s="38">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A58) / $B$3</f>
         <v>2508.2919999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
-      <c r="A52" s="33" t="s">
+    <row r="59" spans="1:25">
+      <c r="A59" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="E52" s="9" t="s">
+      <c r="B59" s="33"/>
+      <c r="E59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F59" s="39">
         <f>+bs_fy22!C55/B3</f>
         <v>1627.8150000000001</v>
       </c>
-      <c r="G52" s="39">
-        <f t="shared" ca="1" si="37"/>
+      <c r="G59" s="39">
+        <f t="shared" ca="1" si="46"/>
         <v>1635.0150000000001</v>
       </c>
-      <c r="H52" s="39">
-        <f t="shared" ca="1" si="37"/>
+      <c r="H59" s="39">
+        <f t="shared" ca="1" si="46"/>
         <v>824.53499999999997</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39">
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39">
         <f>+bs_q122!C61/B3</f>
         <v>1643.2070000000001</v>
       </c>
-      <c r="M52" s="39">
+      <c r="M59" s="39">
         <f>+bs_q222!C61/B3</f>
         <v>1656.027</v>
       </c>
-      <c r="N52" s="39">
+      <c r="N59" s="39">
         <f>+bs_q322!C62/B3</f>
         <v>1695.481</v>
       </c>
-      <c r="O52" s="39">
-        <f>F52</f>
+      <c r="O59" s="39">
+        <f>F59</f>
         <v>1627.8150000000001</v>
       </c>
-      <c r="P52" s="39">
-        <f t="shared" ca="1" si="38"/>
+      <c r="P59" s="39">
+        <f t="shared" ca="1" si="47"/>
         <v>1724.2070000000001</v>
       </c>
-      <c r="Q52" s="39">
-        <f t="shared" ca="1" si="38"/>
+      <c r="Q59" s="39">
+        <f t="shared" ca="1" si="47"/>
         <v>1665.3040000000001</v>
       </c>
-      <c r="R52" s="39">
-        <f t="shared" ca="1" si="38"/>
+      <c r="R59" s="39">
+        <f t="shared" ca="1" si="47"/>
         <v>1689.723</v>
       </c>
-      <c r="S52" s="39">
-        <f ca="1">+G52</f>
+      <c r="S59" s="39">
+        <f ca="1">+G59</f>
         <v>1635.0150000000001</v>
       </c>
-      <c r="T52" s="39">
-        <f t="shared" ca="1" si="39"/>
+      <c r="T59" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>1604.345</v>
       </c>
-      <c r="U52" s="39">
-        <f t="shared" ca="1" si="39"/>
+      <c r="U59" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>1652.9269999999999</v>
       </c>
-      <c r="V52" s="39">
-        <f t="shared" ca="1" si="39"/>
+      <c r="V59" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>852.56200000000001</v>
       </c>
-      <c r="W52" s="39">
-        <f ca="1">H52</f>
+      <c r="W59" s="39">
+        <f ca="1">H59</f>
         <v>824.53499999999997</v>
       </c>
-      <c r="X52" s="39">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A52) / $B$3</f>
+      <c r="X59" s="39">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A59) / $B$3</f>
         <v>814.51400000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="33" t="s">
+    <row r="60" spans="1:25">
+      <c r="A60" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="E53" s="9" t="s">
+      <c r="B60" s="33"/>
+      <c r="E60" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F53" s="39">
-        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!B:B"), $A53) / $B$3</f>
+      <c r="F60" s="39">
+        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!B:B"), $A60) / $B$3</f>
         <v>825.76400000000001</v>
       </c>
-      <c r="G53" s="39">
-        <f t="shared" ca="1" si="37"/>
+      <c r="G60" s="39">
+        <f t="shared" ca="1" si="46"/>
         <v>702.25800000000004</v>
       </c>
-      <c r="H53" s="39">
-        <f t="shared" ca="1" si="37"/>
+      <c r="H60" s="39">
+        <f t="shared" ca="1" si="46"/>
         <v>524.51900000000001</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39">
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39">
         <f>+bs_q122!C62/B3</f>
         <v>865.93799999999999</v>
       </c>
-      <c r="M53" s="39">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A53) / $B$3</f>
+      <c r="M60" s="39">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A60) / $B$3</f>
         <v>860.48699999999997</v>
       </c>
-      <c r="N53" s="39">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!B:B"), $A53) / $B$3</f>
+      <c r="N60" s="39">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!B:B"), $A60) / $B$3</f>
         <v>866.82299999999998</v>
       </c>
-      <c r="O53" s="39">
-        <f ca="1">F53</f>
+      <c r="O60" s="39">
+        <f ca="1">F60</f>
         <v>825.76400000000001</v>
       </c>
-      <c r="P53" s="39">
-        <f t="shared" ca="1" si="38"/>
+      <c r="P60" s="39">
+        <f t="shared" ca="1" si="47"/>
         <v>712.48900000000003</v>
       </c>
-      <c r="Q53" s="39">
-        <f t="shared" ca="1" si="38"/>
+      <c r="Q60" s="39">
+        <f t="shared" ca="1" si="47"/>
         <v>781.02800000000002</v>
       </c>
-      <c r="R53" s="39">
-        <f t="shared" ca="1" si="38"/>
+      <c r="R60" s="39">
+        <f t="shared" ca="1" si="47"/>
         <v>790.43600000000004</v>
       </c>
-      <c r="S53" s="39">
-        <f ca="1">+G53</f>
+      <c r="S60" s="39">
+        <f ca="1">+G60</f>
         <v>702.25800000000004</v>
       </c>
-      <c r="T53" s="39">
-        <f t="shared" ca="1" si="39"/>
+      <c r="T60" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>658.85199999999998</v>
       </c>
-      <c r="U53" s="39">
-        <f t="shared" ca="1" si="39"/>
+      <c r="U60" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>645.07100000000003</v>
       </c>
-      <c r="V53" s="39">
-        <f t="shared" ca="1" si="39"/>
+      <c r="V60" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>514.30100000000004</v>
       </c>
-      <c r="W53" s="39">
-        <f ca="1">H53</f>
+      <c r="W60" s="39">
+        <f ca="1">H60</f>
         <v>524.51900000000001</v>
       </c>
-      <c r="X53" s="39">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A53) / $B$3</f>
+      <c r="X60" s="39">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A60) / $B$3</f>
         <v>539.72699999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="E54" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="38">
-        <f ca="1">SUM(F52:F53)</f>
-        <v>2453.5790000000002</v>
-      </c>
-      <c r="G54" s="38">
-        <f ca="1">SUM(G52:G53)</f>
-        <v>2337.2730000000001</v>
-      </c>
-      <c r="H54" s="38">
-        <f ca="1">SUM(H52:H53)</f>
-        <v>1349.0540000000001</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="38">
-        <f t="shared" ref="L54:X54" si="40">SUM(L52:L53)</f>
-        <v>2509.145</v>
-      </c>
-      <c r="M54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2516.5140000000001</v>
-      </c>
-      <c r="N54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2562.3040000000001</v>
-      </c>
-      <c r="O54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2453.5790000000002</v>
-      </c>
-      <c r="P54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2436.6959999999999</v>
-      </c>
-      <c r="Q54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2446.3320000000003</v>
-      </c>
-      <c r="R54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2480.1590000000001</v>
-      </c>
-      <c r="S54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2337.2730000000001</v>
-      </c>
-      <c r="T54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2263.1970000000001</v>
-      </c>
-      <c r="U54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>2297.998</v>
-      </c>
-      <c r="V54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>1366.8630000000001</v>
-      </c>
-      <c r="W54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>1349.0540000000001</v>
-      </c>
-      <c r="X54" s="38">
-        <f t="shared" ca="1" si="40"/>
-        <v>1354.241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="E55" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="38">
-        <f ca="1">+F51-F54</f>
-        <v>1239.0419999999999</v>
-      </c>
-      <c r="G55" s="38">
-        <f ca="1">+G51-G54</f>
-        <v>1287.8539999999998</v>
-      </c>
-      <c r="H55" s="38">
-        <f ca="1">+H51-H54</f>
-        <v>1175.8330000000001</v>
-      </c>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="38">
-        <f t="shared" ref="L55:X55" si="41">+L51-L54</f>
-        <v>1286.2570000000001</v>
-      </c>
-      <c r="M55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1251.3049999999998</v>
-      </c>
-      <c r="N55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1230.5340000000001</v>
-      </c>
-      <c r="O55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1239.0419999999999</v>
-      </c>
-      <c r="P55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1265.8960000000002</v>
-      </c>
-      <c r="Q55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1245.9649999999997</v>
-      </c>
-      <c r="R55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1253.0340000000001</v>
-      </c>
-      <c r="S55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1287.8539999999998</v>
-      </c>
-      <c r="T55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1253.752</v>
-      </c>
-      <c r="U55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1226.2419999999997</v>
-      </c>
-      <c r="V55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1222.5489999999998</v>
-      </c>
-      <c r="W55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1175.8330000000001</v>
-      </c>
-      <c r="X55" s="38">
-        <f t="shared" ca="1" si="41"/>
-        <v>1154.0509999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-    </row>
-    <row r="57" spans="1:24">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="33"/>
-      <c r="E58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1239.0419999999999</v>
-      </c>
-      <c r="G58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1287.854</v>
-      </c>
-      <c r="H58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; H$2 &amp; H$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; H$2 &amp; H$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1175.8330000000001</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="L58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1286.2570000000001</v>
-      </c>
-      <c r="M58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1251.3050000000001</v>
-      </c>
-      <c r="N58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1230.5340000000001</v>
-      </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; P$2 &amp; P$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; P$2 &amp; P$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1265.896</v>
-      </c>
-      <c r="Q58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; Q$2 &amp; Q$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; Q$2 &amp; Q$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1245.9649999999999</v>
-      </c>
-      <c r="R58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; R$2 &amp; R$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; R$2 &amp; R$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1253.0340000000001</v>
-      </c>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1253.752</v>
-      </c>
-      <c r="U58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; U$2 &amp; U$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; U$2 &amp; U$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1226.242</v>
-      </c>
-      <c r="V58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; V$2 &amp; V$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; V$2 &amp; V$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1222.549</v>
-      </c>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13">
-        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A58) / $B$3</f>
-        <v>1154.0509999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="11" t="b" cm="1">
-        <f t="array" aca="1" ref="C59" ca="1">AND(F59:AC59&lt;$B$1,F59:AC59&gt;-$B$1)</f>
-        <v>1</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="13">
-        <f ca="1">+F55-F58</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="13">
-        <f ca="1">+G55-G58</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="13">
-        <f ca="1">+H55-H58</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="L59" s="13">
-        <f ca="1">+L55-L58</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="13">
-        <f ca="1">+M55-M58</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="13">
-        <f ca="1">+N55-N58</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13">
-        <f ca="1">+P55-P58</f>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="13">
-        <f ca="1">+Q55-Q58</f>
-        <v>0</v>
-      </c>
-      <c r="R59" s="13">
-        <f ca="1">+R55-R58</f>
-        <v>0</v>
-      </c>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13">
-        <f ca="1">+T55-T58</f>
-        <v>0</v>
-      </c>
-      <c r="U59" s="13">
-        <f ca="1">+U55-U58</f>
-        <v>0</v>
-      </c>
-      <c r="V59" s="13">
-        <f ca="1">+V55-V58</f>
-        <v>0</v>
-      </c>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13">
-        <f ca="1">+X55-X58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-    </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:25">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
-      <c r="E61" s="2" t="str">
+      <c r="E61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="38">
+        <f ca="1">SUM(F59:F60)</f>
+        <v>2453.5790000000002</v>
+      </c>
+      <c r="G61" s="38">
+        <f ca="1">SUM(G59:G60)</f>
+        <v>2337.2730000000001</v>
+      </c>
+      <c r="H61" s="38">
+        <f ca="1">SUM(H59:H60)</f>
+        <v>1349.0540000000001</v>
+      </c>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="38">
+        <f t="shared" ref="L61:X61" si="49">SUM(L59:L60)</f>
+        <v>2509.145</v>
+      </c>
+      <c r="M61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2516.5140000000001</v>
+      </c>
+      <c r="N61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2562.3040000000001</v>
+      </c>
+      <c r="O61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2453.5790000000002</v>
+      </c>
+      <c r="P61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2436.6959999999999</v>
+      </c>
+      <c r="Q61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2446.3320000000003</v>
+      </c>
+      <c r="R61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2480.1590000000001</v>
+      </c>
+      <c r="S61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2337.2730000000001</v>
+      </c>
+      <c r="T61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2263.1970000000001</v>
+      </c>
+      <c r="U61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>2297.998</v>
+      </c>
+      <c r="V61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>1366.8630000000001</v>
+      </c>
+      <c r="W61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>1349.0540000000001</v>
+      </c>
+      <c r="X61" s="38">
+        <f t="shared" ca="1" si="49"/>
+        <v>1354.241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="E62" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="38">
+        <f ca="1">+F58-F61</f>
+        <v>1239.0419999999999</v>
+      </c>
+      <c r="G62" s="38">
+        <f ca="1">+G58-G61</f>
+        <v>1287.8539999999998</v>
+      </c>
+      <c r="H62" s="38">
+        <f ca="1">+H58-H61</f>
+        <v>1175.8330000000001</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="38">
+        <f t="shared" ref="L62:X62" si="50">+L58-L61</f>
+        <v>1286.2570000000001</v>
+      </c>
+      <c r="M62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1251.3049999999998</v>
+      </c>
+      <c r="N62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1230.5340000000001</v>
+      </c>
+      <c r="O62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1239.0419999999999</v>
+      </c>
+      <c r="P62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1265.8960000000002</v>
+      </c>
+      <c r="Q62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1245.9649999999997</v>
+      </c>
+      <c r="R62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1253.0340000000001</v>
+      </c>
+      <c r="S62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1287.8539999999998</v>
+      </c>
+      <c r="T62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1253.752</v>
+      </c>
+      <c r="U62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1226.2419999999997</v>
+      </c>
+      <c r="V62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1222.5489999999998</v>
+      </c>
+      <c r="W62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1175.8330000000001</v>
+      </c>
+      <c r="X62" s="38">
+        <f t="shared" ca="1" si="50"/>
+        <v>1154.0509999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="A65" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="E65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; F$2 &amp; F$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1239.0419999999999</v>
+      </c>
+      <c r="G65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1287.854</v>
+      </c>
+      <c r="H65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_fy" &amp; H$2 &amp; H$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; H$2 &amp; H$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1175.8330000000001</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="L65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1286.2570000000001</v>
+      </c>
+      <c r="M65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1251.3050000000001</v>
+      </c>
+      <c r="N65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; N$2 &amp; N$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1230.5340000000001</v>
+      </c>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; P$2 &amp; P$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; P$2 &amp; P$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1265.896</v>
+      </c>
+      <c r="Q65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; Q$2 &amp; Q$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; Q$2 &amp; Q$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1245.9649999999999</v>
+      </c>
+      <c r="R65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; R$2 &amp; R$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; R$2 &amp; R$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1253.0340000000001</v>
+      </c>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1253.752</v>
+      </c>
+      <c r="U65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; U$2 &amp; U$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; U$2 &amp; U$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1226.242</v>
+      </c>
+      <c r="V65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; V$2 &amp; V$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; V$2 &amp; V$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1222.549</v>
+      </c>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13">
+        <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A65) / $B$3</f>
+        <v>1154.0509999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="11" t="b" cm="1">
+        <f t="array" aca="1" ref="C66" ca="1">AND(F66:AC66&lt;$B$1,F66:AC66&gt;-$B$1)</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="13">
+        <f ca="1">+F62-F65</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="13">
+        <f ca="1">+G62-G65</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="13">
+        <f ca="1">+H62-H65</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="L66" s="13">
+        <f ca="1">+L62-L65</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="13">
+        <f ca="1">+M62-M65</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="13">
+        <f ca="1">+N62-N65</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13">
+        <f ca="1">+P62-P65</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="13">
+        <f ca="1">+Q62-Q65</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="13">
+        <f ca="1">+R62-R65</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13">
+        <f ca="1">+T62-T65</f>
+        <v>0</v>
+      </c>
+      <c r="U66" s="13">
+        <f ca="1">+U62-U65</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="13">
+        <f ca="1">+V62-V65</f>
+        <v>0</v>
+      </c>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13">
+        <f ca="1">+X62-X65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+    </row>
+    <row r="68" spans="1:31">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="E68" s="2" t="str">
         <f>Input!$E$8&amp;" - CF"</f>
         <v>BMBL - CF</v>
       </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="O61" s="19" t="s">
+      <c r="H68" s="5"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="O68" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19" t="s">
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19" t="s">
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
-      <c r="E62" s="6" t="str">
+    <row r="69" spans="1:31">
+      <c r="E69" s="6" t="str">
         <f>+Input!$E$14</f>
         <v>$mn</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F69" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G69" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H69" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="L62" s="14" t="str">
-        <f t="shared" ref="L62:O62" si="42">L48</f>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="L69" s="14" t="str">
+        <f t="shared" ref="L69:O69" si="51">L55</f>
         <v>Mar 22</v>
       </c>
-      <c r="M62" s="14" t="str">
-        <f t="shared" si="42"/>
+      <c r="M69" s="14" t="str">
+        <f t="shared" si="51"/>
         <v>Jun 22</v>
       </c>
-      <c r="N62" s="14" t="str">
-        <f t="shared" si="42"/>
+      <c r="N69" s="14" t="str">
+        <f t="shared" si="51"/>
         <v>Sep 22</v>
       </c>
-      <c r="O62" s="14" t="str">
-        <f t="shared" si="42"/>
+      <c r="O69" s="14" t="str">
+        <f t="shared" si="51"/>
         <v>Dec 22</v>
       </c>
-      <c r="P62" s="14" t="str">
-        <f t="shared" ref="P62" si="43">P48</f>
+      <c r="P69" s="14" t="str">
+        <f t="shared" ref="P69" si="52">P55</f>
         <v>Mar 23</v>
       </c>
-      <c r="Q62" s="14" t="str">
-        <f t="shared" ref="Q62:S62" si="44">Q48</f>
+      <c r="Q69" s="14" t="str">
+        <f t="shared" ref="Q69:S69" si="53">Q55</f>
         <v>Jun 23</v>
       </c>
-      <c r="R62" s="14" t="str">
-        <f t="shared" si="44"/>
+      <c r="R69" s="14" t="str">
+        <f t="shared" si="53"/>
         <v>Sep 23</v>
       </c>
-      <c r="S62" s="14" t="str">
-        <f t="shared" si="44"/>
+      <c r="S69" s="14" t="str">
+        <f t="shared" si="53"/>
         <v>Dec 23</v>
       </c>
-      <c r="T62" s="14" t="str">
-        <f>T48</f>
+      <c r="T69" s="14" t="str">
+        <f>T55</f>
         <v>Mar 24</v>
       </c>
-      <c r="U62" s="14" t="str">
-        <f t="shared" ref="U62:X62" si="45">U48</f>
+      <c r="U69" s="14" t="str">
+        <f t="shared" ref="U69:X69" si="54">U55</f>
         <v>Jun 24</v>
       </c>
-      <c r="V62" s="14" t="str">
-        <f t="shared" si="45"/>
+      <c r="V69" s="14" t="str">
+        <f t="shared" si="54"/>
         <v>Sep 24</v>
       </c>
-      <c r="W62" s="14" t="str">
-        <f t="shared" si="45"/>
+      <c r="W69" s="14" t="str">
+        <f t="shared" si="54"/>
         <v>Dec 24</v>
       </c>
-      <c r="X62" s="14" t="str">
-        <f t="shared" si="45"/>
+      <c r="X69" s="14" t="str">
+        <f t="shared" si="54"/>
         <v>Mar 25</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="3" customHeight="1">
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="B64" s="33"/>
-      <c r="E64" s="9" t="s">
+    <row r="70" spans="1:31" ht="3" customHeight="1">
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:31">
+      <c r="B71" s="33"/>
+      <c r="E71" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="39">
+      <c r="F71" s="39">
         <f>+cf_fy24!E44/$B$3</f>
         <v>132.941</v>
       </c>
-      <c r="G64" s="39">
+      <c r="G71" s="39">
         <f>+cf_fy24!D44/$B$3</f>
         <v>182.08600000000001</v>
       </c>
-      <c r="H64" s="39">
+      <c r="H71" s="39">
         <f>+cf_fy24!C44/$B$3</f>
         <v>123.441</v>
       </c>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39">
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39">
         <f>+cf_q123!D42/$B$3</f>
         <v>19.358000000000001</v>
       </c>
-      <c r="M64" s="39">
-        <f>+cf_q222!C41/$B$3-L64</f>
+      <c r="M71" s="39">
+        <f>+cf_q222!C41/$B$3-L71</f>
         <v>25.409000000000002</v>
       </c>
-      <c r="N64" s="39">
-        <f>+cf_q322!D44/$B$3-SUM(L64:M64)</f>
+      <c r="N71" s="39">
+        <f>+cf_q322!D44/$B$3-SUM(L71:M71)</f>
         <v>37.002000000000002</v>
       </c>
-      <c r="O64" s="39">
-        <f>F64-SUM(L64:N64)</f>
+      <c r="O71" s="39">
+        <f>F71-SUM(L71:N71)</f>
         <v>51.171999999999997</v>
       </c>
-      <c r="P64" s="39">
+      <c r="P71" s="39">
         <f>+cf_q123!C42/$B$3</f>
         <v>13.388999999999999</v>
       </c>
-      <c r="Q64" s="39">
-        <f>+cf_q224!D43/$B$3-P64</f>
+      <c r="Q71" s="39">
+        <f>+cf_q224!D43/$B$3-P71</f>
         <v>42.710999999999999</v>
       </c>
-      <c r="R64" s="39">
-        <f>+cf_q324!E44/$B$3-Q64-P64</f>
+      <c r="R71" s="39">
+        <f>+cf_q324!E44/$B$3-Q71-P71</f>
         <v>62.569000000000003</v>
       </c>
-      <c r="S64" s="39">
-        <f>G64-SUM(P64:R64)</f>
+      <c r="S71" s="39">
+        <f>G71-SUM(P71:R71)</f>
         <v>63.417000000000016</v>
       </c>
-      <c r="T64" s="39">
+      <c r="T71" s="39">
         <f>+cf_q125!D43/$B$3</f>
         <v>2.42</v>
       </c>
-      <c r="U64" s="39">
-        <f>+cf_q224!C43/$B$3-T64</f>
+      <c r="U71" s="39">
+        <f>+cf_q224!C43/$B$3-T71</f>
         <v>32.924999999999997</v>
       </c>
-      <c r="V64" s="39">
-        <f>+cf_q324!C44/$B$3-U64-T64</f>
+      <c r="V71" s="39">
+        <f>+cf_q324!C44/$B$3-U71-T71</f>
         <v>93.494</v>
       </c>
-      <c r="W64" s="39">
-        <f>H64-SUM(T64:V64)</f>
+      <c r="W71" s="39">
+        <f>H71-SUM(T71:V71)</f>
         <v>-5.3979999999999961</v>
       </c>
-      <c r="X64" s="39">
+      <c r="X71" s="39">
         <f>+cf_q125!C43/$B$3</f>
         <v>43.244999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
-      <c r="B65" s="33"/>
-      <c r="E65" s="9" t="s">
+    <row r="72" spans="1:31">
+      <c r="B72" s="33"/>
+      <c r="E72" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F72" s="41">
         <f>+cf_fy24!E49/$B$3</f>
         <v>-86.052999999999997</v>
       </c>
-      <c r="G65" s="41">
+      <c r="G72" s="41">
         <f>+cf_fy24!D49/$B$3</f>
         <v>-24.754999999999999</v>
       </c>
-      <c r="H65" s="41">
+      <c r="H72" s="41">
         <f>+cf_fy24!C49/$B$3</f>
         <v>-26.754000000000001</v>
       </c>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="41">
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="41">
         <f>+cf_q123!D46/$B$3</f>
         <v>-74.715999999999994</v>
       </c>
-      <c r="M65" s="41">
-        <f>+cf_q222!C46/$B$3-L65</f>
+      <c r="M72" s="41">
+        <f>+cf_q222!C46/$B$3-L72</f>
         <v>-3.0530000000000115</v>
       </c>
-      <c r="N65" s="41">
-        <f>+cf_q322!D49/$B$3-L65-M65</f>
+      <c r="N72" s="41">
+        <f>+cf_q322!D49/$B$3-L72-M72</f>
         <v>-3.2620000000000005</v>
       </c>
-      <c r="O65" s="41">
-        <f>F65-SUM(L65:N65)</f>
+      <c r="O72" s="41">
+        <f>F72-SUM(L72:N72)</f>
         <v>-5.0219999999999914</v>
       </c>
-      <c r="P65" s="41">
+      <c r="P72" s="41">
         <f>+cf_q123!C46/$B$3</f>
         <v>-6.8109999999999999</v>
       </c>
-      <c r="Q65" s="41">
-        <f>+cf_q224!D47/$B$3-P65</f>
+      <c r="Q72" s="41">
+        <f>+cf_q224!D47/$B$3-P72</f>
         <v>-12.276</v>
       </c>
-      <c r="R65" s="41">
-        <f>+cf_q324!E49/$B$3-P65-Q65</f>
+      <c r="R72" s="41">
+        <f>+cf_q324!E49/$B$3-P72-Q72</f>
         <v>-3.5019999999999989</v>
       </c>
-      <c r="S65" s="41">
-        <f>G65-SUM(P65:R65)</f>
+      <c r="S72" s="41">
+        <f>G72-SUM(P72:R72)</f>
         <v>-2.1660000000000004</v>
       </c>
-      <c r="T65" s="41">
+      <c r="T72" s="41">
         <f>+cf_q125!D46/$B$3</f>
         <v>-2.8010000000000002</v>
       </c>
-      <c r="U65" s="41">
-        <f>+cf_q224!C47/$B$3-T65</f>
+      <c r="U72" s="41">
+        <f>+cf_q224!C47/$B$3-T72</f>
         <v>-1.7299999999999995</v>
       </c>
-      <c r="V65" s="41">
-        <f>+cf_q324!C49/$B$3-T65-U65</f>
+      <c r="V72" s="41">
+        <f>+cf_q324!C49/$B$3-T72-U72</f>
         <v>-19.053999999999998</v>
       </c>
-      <c r="W65" s="41">
-        <f>H65-SUM(T65:V65)</f>
+      <c r="W72" s="41">
+        <f>H72-SUM(T72:V72)</f>
         <v>-3.169000000000004</v>
       </c>
-      <c r="X65" s="41">
+      <c r="X72" s="41">
         <f>+cf_q125!C46/$B$3</f>
         <v>-2.411</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
-      <c r="B66" s="33"/>
-      <c r="E66" s="2" t="s">
+    <row r="73" spans="1:31">
+      <c r="B73" s="33"/>
+      <c r="E73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="38">
-        <f>+F64+F65</f>
+      <c r="F73" s="38">
+        <f>+F71+F72</f>
         <v>46.888000000000005</v>
       </c>
-      <c r="G66" s="38">
-        <f>+G64+G65</f>
+      <c r="G73" s="38">
+        <f>+G71+G72</f>
         <v>157.33100000000002</v>
       </c>
-      <c r="H66" s="38">
-        <f>+H64+H65</f>
+      <c r="H73" s="38">
+        <f>+H71+H72</f>
         <v>96.686999999999998</v>
       </c>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="38">
-        <f t="shared" ref="L66:R66" si="46">+L64+L65</f>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="38">
+        <f t="shared" ref="L73:R73" si="55">+L71+L72</f>
         <v>-55.35799999999999</v>
       </c>
-      <c r="M66" s="38">
-        <f t="shared" si="46"/>
+      <c r="M73" s="38">
+        <f t="shared" si="55"/>
         <v>22.355999999999991</v>
       </c>
-      <c r="N66" s="38">
-        <f t="shared" si="46"/>
+      <c r="N73" s="38">
+        <f t="shared" si="55"/>
         <v>33.74</v>
       </c>
-      <c r="O66" s="38">
-        <f t="shared" si="46"/>
+      <c r="O73" s="38">
+        <f t="shared" si="55"/>
         <v>46.150000000000006</v>
       </c>
-      <c r="P66" s="38">
-        <f t="shared" si="46"/>
+      <c r="P73" s="38">
+        <f t="shared" si="55"/>
         <v>6.5779999999999994</v>
       </c>
-      <c r="Q66" s="38">
-        <f t="shared" si="46"/>
+      <c r="Q73" s="38">
+        <f t="shared" si="55"/>
         <v>30.434999999999999</v>
       </c>
-      <c r="R66" s="38">
-        <f t="shared" si="46"/>
+      <c r="R73" s="38">
+        <f t="shared" si="55"/>
         <v>59.067000000000007</v>
       </c>
-      <c r="S66" s="38">
-        <f t="shared" ref="S66:S68" si="47">G66-SUM(P66:R66)</f>
+      <c r="S73" s="38">
+        <f t="shared" ref="S73:S75" si="56">G73-SUM(P73:R73)</f>
         <v>61.251000000000005</v>
       </c>
-      <c r="T66" s="38">
-        <f>+T64+T65</f>
+      <c r="T73" s="38">
+        <f>+T71+T72</f>
         <v>-0.38100000000000023</v>
       </c>
-      <c r="U66" s="38">
-        <f>+U64+U65</f>
+      <c r="U73" s="38">
+        <f>+U71+U72</f>
         <v>31.194999999999997</v>
       </c>
-      <c r="V66" s="38">
-        <f>+V64+V65</f>
+      <c r="V73" s="38">
+        <f>+V71+V72</f>
         <v>74.44</v>
       </c>
-      <c r="W66" s="38">
-        <f t="shared" ref="W66:W68" si="48">H66-SUM(T66:V66)</f>
+      <c r="W73" s="38">
+        <f t="shared" ref="W73:W75" si="57">H73-SUM(T73:V73)</f>
         <v>-8.5669999999999931</v>
       </c>
-      <c r="X66" s="38">
-        <f>+X64+X65</f>
+      <c r="X73" s="38">
+        <f>+X71+X72</f>
         <v>40.833999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="E67" s="9" t="s">
+    <row r="74" spans="1:31">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="E74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F74" s="39">
         <f>+cf_fy24!E60/$B$3</f>
         <v>-14.954000000000001</v>
       </c>
-      <c r="G67" s="39">
+      <c r="G74" s="39">
         <f>+cf_fy24!D60/$B$3</f>
         <v>-198.89099999999999</v>
       </c>
-      <c r="H67" s="39">
+      <c r="H74" s="39">
         <f>+cf_fy24!C60/$B$3</f>
         <v>-250.828</v>
       </c>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39">
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39">
         <f>+cf_q123!D53/$B$3</f>
         <v>-7.1459999999999999</v>
       </c>
-      <c r="M67" s="39">
-        <f>+cf_q222!C56/$B$3-L67</f>
+      <c r="M74" s="39">
+        <f>+cf_q222!C56/$B$3-L74</f>
         <v>-1.9230000000000009</v>
       </c>
-      <c r="N67" s="39">
-        <f>+cf_q322!D60/$B$3-M67-L67</f>
+      <c r="N74" s="39">
+        <f>+cf_q322!D60/$B$3-M74-L74</f>
         <v>-2.5959999999999974</v>
       </c>
-      <c r="O67" s="39">
-        <f t="shared" ref="O67:O68" si="49">F67-SUM(L67:N67)</f>
+      <c r="O74" s="39">
+        <f t="shared" ref="O74:O75" si="58">F74-SUM(L74:N74)</f>
         <v>-3.2890000000000015</v>
       </c>
-      <c r="P67" s="39">
+      <c r="P74" s="39">
         <f>+cf_q123!C53/$B$3</f>
         <v>-16.167999999999999</v>
       </c>
-      <c r="Q67" s="39">
-        <f>+cf_q224!D55/$B$3-P67</f>
+      <c r="Q74" s="39">
+        <f>+cf_q224!D55/$B$3-P74</f>
         <v>-38.532000000000004</v>
       </c>
-      <c r="R67" s="39">
-        <f>+cf_q324!E58/$B$3-P67-Q67</f>
+      <c r="R74" s="39">
+        <f>+cf_q324!E58/$B$3-P74-Q74</f>
         <v>-3.654999999999994</v>
       </c>
-      <c r="S67" s="39">
-        <f t="shared" si="47"/>
+      <c r="S74" s="39">
+        <f t="shared" si="56"/>
         <v>-140.536</v>
       </c>
-      <c r="T67" s="39">
+      <c r="T74" s="39">
         <f>+cf_q125!D55/$B$3</f>
         <v>-94.366</v>
       </c>
-      <c r="U67" s="39">
-        <f>+cf_q224!C55/$B$3-T67</f>
+      <c r="U74" s="39">
+        <f>+cf_q224!C55/$B$3-T74</f>
         <v>-6.6370000000000005</v>
       </c>
-      <c r="V67" s="39">
-        <f>+cf_q324!C58/$B$3-T67-U67</f>
+      <c r="V74" s="39">
+        <f>+cf_q324!C58/$B$3-T74-U74</f>
         <v>-106.746</v>
       </c>
-      <c r="W67" s="39">
-        <f t="shared" si="48"/>
+      <c r="W74" s="39">
+        <f t="shared" si="57"/>
         <v>-43.079000000000008</v>
       </c>
-      <c r="X67" s="39">
+      <c r="X74" s="39">
         <f>+cf_q125!C55/$B$3</f>
         <v>-42.466000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="E68" s="22" t="s">
+    <row r="75" spans="1:31">
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="E75" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F75" s="43">
         <f>+cf_fy24!E55/$B$3</f>
         <v>0</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G75" s="43">
         <f>+cf_fy24!D55/$B$3</f>
         <v>-112.83</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H75" s="43">
         <f>+cf_fy24!C55/$B$3</f>
         <v>-192.113</v>
       </c>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39">
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39">
         <v>0</v>
       </c>
-      <c r="M68" s="39">
+      <c r="M75" s="39">
         <v>0</v>
       </c>
-      <c r="N68" s="39">
+      <c r="N75" s="39">
         <v>0</v>
       </c>
-      <c r="O68" s="39">
-        <f t="shared" si="49"/>
+      <c r="O75" s="39">
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="P68" s="39">
+      <c r="P75" s="39">
         <v>0</v>
       </c>
-      <c r="Q68" s="39">
-        <f>+cf_q224!D51/$B$3-P68</f>
+      <c r="Q75" s="39">
+        <f>+cf_q224!D51/$B$3-P75</f>
         <v>-20.89</v>
       </c>
-      <c r="R68" s="39">
-        <f>+cf_q324!E53/$B$3-Q68-P68</f>
+      <c r="R75" s="39">
+        <f>+cf_q324!E53/$B$3-Q75-P75</f>
         <v>0</v>
       </c>
-      <c r="S68" s="39">
-        <f t="shared" si="47"/>
+      <c r="S75" s="39">
+        <f t="shared" si="56"/>
         <v>-91.94</v>
       </c>
-      <c r="T68" s="39">
+      <c r="T75" s="39">
         <f>+cf_q125!D50/$B$3</f>
         <v>-62.107999999999997</v>
       </c>
-      <c r="U68" s="39">
-        <f>+cf_q224!C51/$B$3-T68</f>
+      <c r="U75" s="39">
+        <f>+cf_q224!C51/$B$3-T75</f>
         <v>0</v>
       </c>
-      <c r="V68" s="39">
-        <f>+cf_q324!C53/$B$3-T68-U68</f>
+      <c r="V75" s="39">
+        <f>+cf_q324!C53/$B$3-T75-U75</f>
         <v>-89.734999999999985</v>
       </c>
-      <c r="W68" s="39">
-        <f t="shared" si="48"/>
+      <c r="W75" s="39">
+        <f t="shared" si="57"/>
         <v>-40.27000000000001</v>
       </c>
-      <c r="X68" s="39">
+      <c r="X75" s="39">
         <f>+cf_q125!C50/$B$3</f>
         <v>-28.681999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
-      <c r="X69" s="39">
-        <f>X68/6</f>
+    <row r="76" spans="1:31">
+      <c r="X76" s="39">
+        <f>X75/6</f>
         <v>-4.7803333333333331</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-    </row>
-    <row r="71" spans="1:33">
-      <c r="E71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="56">
-        <v>103.291444</v>
-      </c>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="44"/>
-      <c r="AA71" s="44"/>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="44"/>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="44"/>
-    </row>
-    <row r="72" spans="1:33">
-      <c r="E72" t="s">
-        <v>559</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33">
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-    </row>
-    <row r="74" spans="1:33">
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-    </row>
-    <row r="75" spans="1:33">
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-    </row>
-    <row r="76" spans="1:33">
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="5"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="5"/>
-    </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:31">
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -21443,89 +21746,48 @@
       <c r="V77" s="12"/>
       <c r="W77" s="12"/>
       <c r="X77" s="12"/>
-      <c r="Y77" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="Z77" s="36" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA77" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="AB77" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC77" s="36" t="s">
-        <v>554</v>
-      </c>
-      <c r="AD77" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="AE77" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="AF77" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="AG77" s="36" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33">
+    </row>
+    <row r="78" spans="1:31">
+      <c r="E78" t="s">
+        <v>72</v>
+      </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y78" s="53">
-        <v>243</v>
-      </c>
-      <c r="Z78" s="53">
-        <v>240</v>
-      </c>
-      <c r="AA78" s="53">
-        <v>233</v>
-      </c>
-      <c r="AB78" s="53">
-        <v>226</v>
-      </c>
-      <c r="AC78" s="53">
-        <v>224</v>
-      </c>
-      <c r="AD78" s="53">
-        <v>225</v>
-      </c>
-      <c r="AE78" s="53">
-        <v>226</v>
-      </c>
-      <c r="AF78" s="53">
-        <v>225</v>
-      </c>
-      <c r="AG78" s="53">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="56">
+        <v>103.291444</v>
+      </c>
+      <c r="Y78" s="44"/>
+      <c r="Z78" s="44"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="44"/>
+      <c r="AC78" s="44"/>
+      <c r="AD78" s="44"/>
+      <c r="AE78" s="44"/>
+    </row>
+    <row r="79" spans="1:31">
+      <c r="E79" t="s">
+        <v>559</v>
+      </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
@@ -21538,38 +21800,11 @@
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
-      <c r="X79" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y79" s="53">
-        <v>85.32</v>
-      </c>
-      <c r="Z79" s="53">
-        <v>75.78</v>
-      </c>
-      <c r="AA79" s="53">
-        <v>70.62</v>
-      </c>
-      <c r="AB79" s="53">
-        <v>63.9</v>
-      </c>
-      <c r="AC79" s="53">
-        <v>67.28</v>
-      </c>
-      <c r="AD79" s="53">
-        <v>69.739999999999995</v>
-      </c>
-      <c r="AE79" s="53">
-        <v>68.010000000000005</v>
-      </c>
-      <c r="AF79" s="53">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="AG79" s="53">
-        <v>71.849999999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" ht="13.5" thickBot="1">
+      <c r="X79" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -21587,36 +21822,14 @@
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
-      <c r="X80" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="Y80" s="54">
-        <v>41.68</v>
-      </c>
-      <c r="Z80" s="54">
-        <v>30.75</v>
-      </c>
-      <c r="AA80" s="54">
-        <v>22.6</v>
-      </c>
-      <c r="AB80" s="54">
-        <v>22.61</v>
-      </c>
-      <c r="AC80" s="54">
-        <v>14.14</v>
-      </c>
-      <c r="AD80" s="54">
-        <v>38.39</v>
-      </c>
-      <c r="AE80" s="54">
-        <v>26.95</v>
-      </c>
-      <c r="AF80" s="54">
-        <v>21.27</v>
-      </c>
-      <c r="AG80" s="54">
-        <v>16.39</v>
-      </c>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
     </row>
     <row r="81" spans="6:33">
       <c r="F81" s="12"/>
@@ -21637,15 +21850,7 @@
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
       <c r="X81" s="12"/>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="55"/>
-      <c r="AA81" s="55"/>
-      <c r="AB81" s="55"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="55"/>
-      <c r="AE81" s="55"/>
-      <c r="AF81" s="55"/>
-      <c r="AG81" s="55"/>
+      <c r="Y81" s="12"/>
     </row>
     <row r="82" spans="6:33">
       <c r="F82" s="12"/>
@@ -21665,32 +21870,8 @@
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
-      <c r="X82" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="Y82" s="55">
-        <v>0.34</v>
-      </c>
-      <c r="Z82" s="55">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AA82" s="55">
-        <v>0.23</v>
-      </c>
-      <c r="AB82" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="AC82" s="55">
-        <v>0.21</v>
-      </c>
-      <c r="AD82" s="55">
-        <v>0.33</v>
-      </c>
-      <c r="AE82" s="55">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AF82" s="55"/>
-      <c r="AG82" s="55"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
     </row>
     <row r="83" spans="6:33">
       <c r="F83" s="12"/>
@@ -21711,7 +21892,15 @@
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="12"/>
-      <c r="Y83" s="12"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
     </row>
     <row r="84" spans="6:33">
       <c r="F84" s="12"/>
@@ -21732,7 +21921,33 @@
       <c r="V84" s="12"/>
       <c r="W84" s="12"/>
       <c r="X84" s="12"/>
-      <c r="Y84" s="12"/>
+      <c r="Y84" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z84" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA84" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB84" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC84" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD84" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE84" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="AF84" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG84" s="36" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="85" spans="6:33">
       <c r="F85" s="12"/>
@@ -21752,8 +21967,36 @@
       <c r="U85" s="12"/>
       <c r="V85" s="12"/>
       <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
+      <c r="X85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y85" s="53">
+        <v>243</v>
+      </c>
+      <c r="Z85" s="53">
+        <v>240</v>
+      </c>
+      <c r="AA85" s="53">
+        <v>233</v>
+      </c>
+      <c r="AB85" s="53">
+        <v>226</v>
+      </c>
+      <c r="AC85" s="53">
+        <v>224</v>
+      </c>
+      <c r="AD85" s="53">
+        <v>225</v>
+      </c>
+      <c r="AE85" s="53">
+        <v>226</v>
+      </c>
+      <c r="AF85" s="53">
+        <v>225</v>
+      </c>
+      <c r="AG85" s="53">
+        <v>231</v>
+      </c>
     </row>
     <row r="86" spans="6:33">
       <c r="F86" s="12"/>
@@ -21773,10 +22016,38 @@
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
       <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="12"/>
-    </row>
-    <row r="87" spans="6:33">
+      <c r="X86" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y86" s="53">
+        <v>85.32</v>
+      </c>
+      <c r="Z86" s="53">
+        <v>75.78</v>
+      </c>
+      <c r="AA86" s="53">
+        <v>70.62</v>
+      </c>
+      <c r="AB86" s="53">
+        <v>63.9</v>
+      </c>
+      <c r="AC86" s="53">
+        <v>67.28</v>
+      </c>
+      <c r="AD86" s="53">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="AE86" s="53">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="AF86" s="53">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="AG86" s="53">
+        <v>71.849999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="6:33" ht="13.5" thickBot="1">
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -21794,8 +22065,36 @@
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
       <c r="W87" s="12"/>
-      <c r="X87" s="12"/>
-      <c r="Y87" s="12"/>
+      <c r="X87" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y87" s="54">
+        <v>41.68</v>
+      </c>
+      <c r="Z87" s="54">
+        <v>30.75</v>
+      </c>
+      <c r="AA87" s="54">
+        <v>22.6</v>
+      </c>
+      <c r="AB87" s="54">
+        <v>22.61</v>
+      </c>
+      <c r="AC87" s="54">
+        <v>14.14</v>
+      </c>
+      <c r="AD87" s="54">
+        <v>38.39</v>
+      </c>
+      <c r="AE87" s="54">
+        <v>26.95</v>
+      </c>
+      <c r="AF87" s="54">
+        <v>21.27</v>
+      </c>
+      <c r="AG87" s="54">
+        <v>16.39</v>
+      </c>
     </row>
     <row r="88" spans="6:33">
       <c r="F88" s="12"/>
@@ -21816,7 +22115,15 @@
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
       <c r="X88" s="12"/>
-      <c r="Y88" s="12"/>
+      <c r="Y88" s="55"/>
+      <c r="Z88" s="55"/>
+      <c r="AA88" s="55"/>
+      <c r="AB88" s="55"/>
+      <c r="AC88" s="55"/>
+      <c r="AD88" s="55"/>
+      <c r="AE88" s="55"/>
+      <c r="AF88" s="55"/>
+      <c r="AG88" s="55"/>
     </row>
     <row r="89" spans="6:33">
       <c r="F89" s="12"/>
@@ -21836,8 +22143,32 @@
       <c r="U89" s="12"/>
       <c r="V89" s="12"/>
       <c r="W89" s="12"/>
-      <c r="X89" s="12"/>
-      <c r="Y89" s="12"/>
+      <c r="X89" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y89" s="55">
+        <v>0.34</v>
+      </c>
+      <c r="Z89" s="55">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA89" s="55">
+        <v>0.23</v>
+      </c>
+      <c r="AB89" s="55">
+        <v>0.2</v>
+      </c>
+      <c r="AC89" s="55">
+        <v>0.21</v>
+      </c>
+      <c r="AD89" s="55">
+        <v>0.33</v>
+      </c>
+      <c r="AE89" s="55">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF89" s="55"/>
+      <c r="AG89" s="55"/>
     </row>
     <row r="90" spans="6:33">
       <c r="F90" s="12"/>
@@ -35573,18 +35904,165 @@
       <c r="X743" s="12"/>
       <c r="Y743" s="12"/>
     </row>
+    <row r="744" spans="6:25">
+      <c r="F744" s="12"/>
+      <c r="G744" s="12"/>
+      <c r="H744" s="12"/>
+      <c r="I744" s="12"/>
+      <c r="J744" s="12"/>
+      <c r="L744" s="12"/>
+      <c r="M744" s="12"/>
+      <c r="N744" s="12"/>
+      <c r="O744" s="12"/>
+      <c r="P744" s="12"/>
+      <c r="Q744" s="12"/>
+      <c r="R744" s="12"/>
+      <c r="S744" s="12"/>
+      <c r="T744" s="12"/>
+      <c r="U744" s="12"/>
+      <c r="V744" s="12"/>
+      <c r="W744" s="12"/>
+      <c r="X744" s="12"/>
+      <c r="Y744" s="12"/>
+    </row>
+    <row r="745" spans="6:25">
+      <c r="F745" s="12"/>
+      <c r="G745" s="12"/>
+      <c r="H745" s="12"/>
+      <c r="I745" s="12"/>
+      <c r="J745" s="12"/>
+      <c r="L745" s="12"/>
+      <c r="M745" s="12"/>
+      <c r="N745" s="12"/>
+      <c r="O745" s="12"/>
+      <c r="P745" s="12"/>
+      <c r="Q745" s="12"/>
+      <c r="R745" s="12"/>
+      <c r="S745" s="12"/>
+      <c r="T745" s="12"/>
+      <c r="U745" s="12"/>
+      <c r="V745" s="12"/>
+      <c r="W745" s="12"/>
+      <c r="X745" s="12"/>
+      <c r="Y745" s="12"/>
+    </row>
+    <row r="746" spans="6:25">
+      <c r="F746" s="12"/>
+      <c r="G746" s="12"/>
+      <c r="H746" s="12"/>
+      <c r="I746" s="12"/>
+      <c r="J746" s="12"/>
+      <c r="L746" s="12"/>
+      <c r="M746" s="12"/>
+      <c r="N746" s="12"/>
+      <c r="O746" s="12"/>
+      <c r="P746" s="12"/>
+      <c r="Q746" s="12"/>
+      <c r="R746" s="12"/>
+      <c r="S746" s="12"/>
+      <c r="T746" s="12"/>
+      <c r="U746" s="12"/>
+      <c r="V746" s="12"/>
+      <c r="W746" s="12"/>
+      <c r="X746" s="12"/>
+      <c r="Y746" s="12"/>
+    </row>
+    <row r="747" spans="6:25">
+      <c r="F747" s="12"/>
+      <c r="G747" s="12"/>
+      <c r="H747" s="12"/>
+      <c r="I747" s="12"/>
+      <c r="J747" s="12"/>
+      <c r="L747" s="12"/>
+      <c r="M747" s="12"/>
+      <c r="N747" s="12"/>
+      <c r="O747" s="12"/>
+      <c r="P747" s="12"/>
+      <c r="Q747" s="12"/>
+      <c r="R747" s="12"/>
+      <c r="S747" s="12"/>
+      <c r="T747" s="12"/>
+      <c r="U747" s="12"/>
+      <c r="V747" s="12"/>
+      <c r="W747" s="12"/>
+      <c r="X747" s="12"/>
+      <c r="Y747" s="12"/>
+    </row>
+    <row r="748" spans="6:25">
+      <c r="F748" s="12"/>
+      <c r="G748" s="12"/>
+      <c r="H748" s="12"/>
+      <c r="I748" s="12"/>
+      <c r="J748" s="12"/>
+      <c r="L748" s="12"/>
+      <c r="M748" s="12"/>
+      <c r="N748" s="12"/>
+      <c r="O748" s="12"/>
+      <c r="P748" s="12"/>
+      <c r="Q748" s="12"/>
+      <c r="R748" s="12"/>
+      <c r="S748" s="12"/>
+      <c r="T748" s="12"/>
+      <c r="U748" s="12"/>
+      <c r="V748" s="12"/>
+      <c r="W748" s="12"/>
+      <c r="X748" s="12"/>
+      <c r="Y748" s="12"/>
+    </row>
+    <row r="749" spans="6:25">
+      <c r="F749" s="12"/>
+      <c r="G749" s="12"/>
+      <c r="H749" s="12"/>
+      <c r="I749" s="12"/>
+      <c r="J749" s="12"/>
+      <c r="L749" s="12"/>
+      <c r="M749" s="12"/>
+      <c r="N749" s="12"/>
+      <c r="O749" s="12"/>
+      <c r="P749" s="12"/>
+      <c r="Q749" s="12"/>
+      <c r="R749" s="12"/>
+      <c r="S749" s="12"/>
+      <c r="T749" s="12"/>
+      <c r="U749" s="12"/>
+      <c r="V749" s="12"/>
+      <c r="W749" s="12"/>
+      <c r="X749" s="12"/>
+      <c r="Y749" s="12"/>
+    </row>
+    <row r="750" spans="6:25">
+      <c r="F750" s="12"/>
+      <c r="G750" s="12"/>
+      <c r="H750" s="12"/>
+      <c r="I750" s="12"/>
+      <c r="J750" s="12"/>
+      <c r="L750" s="12"/>
+      <c r="M750" s="12"/>
+      <c r="N750" s="12"/>
+      <c r="O750" s="12"/>
+      <c r="P750" s="12"/>
+      <c r="Q750" s="12"/>
+      <c r="R750" s="12"/>
+      <c r="S750" s="12"/>
+      <c r="T750" s="12"/>
+      <c r="U750" s="12"/>
+      <c r="V750" s="12"/>
+      <c r="W750" s="12"/>
+      <c r="X750" s="12"/>
+      <c r="Y750" s="12"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C52">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C66">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC82A1EA-8F4F-47E7-A2A3-5E7D3B882624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC465B-1CED-4CF7-9E5E-4A2D63ABF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="31845" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="27270" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="582">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -1890,6 +1890,9 @@
   <si>
     <t>Total ARPPU growth</t>
   </si>
+  <si>
+    <t>Q1 27</t>
+  </si>
 </sst>
 </file>
 
@@ -1906,7 +1909,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2009,6 +2012,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0366CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2099,7 +2109,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2220,6 +2230,8 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17306,21 +17318,21 @@
   </sheetPr>
   <dimension ref="A1:AG750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="38.140625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" outlineLevel="1">
+    <row r="1" spans="1:33" s="4" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B1" s="4">
         <v>0.1</v>
       </c>
@@ -17367,7 +17379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" outlineLevel="1">
+    <row r="2" spans="1:33" s="4" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B2" s="11" t="b">
         <f ca="1">AND(C:C)</f>
         <v>0</v>
@@ -17406,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" collapsed="1">
       <c r="A3" s="4" t="s">
         <v>548</v>
       </c>
@@ -17563,7 +17575,7 @@
         <v>556</v>
       </c>
       <c r="AF9" s="36" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="AG9" s="36" t="s">
         <v>557</v>
@@ -17792,31 +17804,31 @@
         <f>SUM(X11:X12)</f>
         <v>247.101</v>
       </c>
-      <c r="Y13" s="38">
+      <c r="Y13" s="53">
         <v>243</v>
       </c>
-      <c r="Z13" s="38">
+      <c r="Z13" s="53">
         <v>240</v>
       </c>
-      <c r="AA13" s="38">
+      <c r="AA13" s="53">
         <v>233</v>
       </c>
-      <c r="AB13" s="38">
+      <c r="AB13" s="53">
         <v>226</v>
       </c>
-      <c r="AC13" s="38">
+      <c r="AC13" s="53">
         <v>224</v>
       </c>
-      <c r="AD13" s="38">
+      <c r="AD13" s="53">
         <v>225</v>
       </c>
-      <c r="AE13" s="38">
+      <c r="AE13" s="53">
         <v>226</v>
       </c>
-      <c r="AF13" s="38">
+      <c r="AF13" s="53">
         <v>225</v>
       </c>
-      <c r="AG13" s="38">
+      <c r="AG13" s="53">
         <v>231</v>
       </c>
     </row>
@@ -18318,31 +18330,31 @@
         <f ca="1">SUM(X13:X18)</f>
         <v>51.103999999999978</v>
       </c>
-      <c r="Y19" s="38">
+      <c r="Y19" s="64">
         <v>85.32</v>
       </c>
-      <c r="Z19" s="38">
+      <c r="Z19" s="64">
         <v>75.78</v>
       </c>
-      <c r="AA19" s="38">
+      <c r="AA19" s="64">
         <v>70.62</v>
       </c>
-      <c r="AB19" s="38">
+      <c r="AB19" s="64">
         <v>63.9</v>
       </c>
-      <c r="AC19" s="38">
+      <c r="AC19" s="64">
         <v>67.28</v>
       </c>
-      <c r="AD19" s="38">
+      <c r="AD19" s="64">
         <v>69.739999999999995</v>
       </c>
-      <c r="AE19" s="38">
+      <c r="AE19" s="64">
         <v>68.010000000000005</v>
       </c>
-      <c r="AF19" s="38">
+      <c r="AF19" s="64">
         <v>72.989999999999995</v>
       </c>
-      <c r="AG19" s="38">
+      <c r="AG19" s="64">
         <v>71.849999999999994</v>
       </c>
     </row>
@@ -19005,31 +19017,31 @@
         <f t="shared" ca="1" si="22"/>
         <v>13.443999999999978</v>
       </c>
-      <c r="Y27" s="37">
+      <c r="Y27" s="65">
         <v>41.68</v>
       </c>
-      <c r="Z27" s="37">
+      <c r="Z27" s="65">
         <v>30.75</v>
       </c>
-      <c r="AA27" s="37">
+      <c r="AA27" s="65">
         <v>22.6</v>
       </c>
-      <c r="AB27" s="37">
+      <c r="AB27" s="65">
         <v>22.61</v>
       </c>
-      <c r="AC27" s="37">
+      <c r="AC27" s="65">
         <v>14.14</v>
       </c>
-      <c r="AD27" s="37">
+      <c r="AD27" s="65">
         <v>38.39</v>
       </c>
-      <c r="AE27" s="37">
+      <c r="AE27" s="65">
         <v>26.95</v>
       </c>
-      <c r="AF27" s="37">
+      <c r="AF27" s="65">
         <v>21.27</v>
       </c>
-      <c r="AG27" s="37">
+      <c r="AG27" s="65">
         <v>16.39</v>
       </c>
     </row>
@@ -19107,7 +19119,7 @@
         <v>-4.3701686738180978E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="25"/>
+        <f>IFERROR(+X13/W13-1,"n/a")</f>
         <v>-5.559759677123477E-2</v>
       </c>
       <c r="Y29" s="15">

--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC465B-1CED-4CF7-9E5E-4A2D63ABF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7EA8B1-18B7-4E2A-B8B8-22791868F427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="27270" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -1907,7 +1907,7 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -2109,7 +2109,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2207,24 +2207,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2293,16 +2283,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>371219</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>145115</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>167112</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>77080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>354947</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>28013</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>150840</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>150477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2326,8 +2316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17744819" y="6279215"/>
-          <a:ext cx="7070328" cy="2673723"/>
+          <a:off x="13869505" y="4785151"/>
+          <a:ext cx="7005014" cy="2699576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2338,16 +2328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>153441</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561654</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>239250</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>116404</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>62356</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>21155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2370,7 +2360,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21543870" y="11198680"/>
+          <a:off x="14264047" y="7987395"/>
           <a:ext cx="4766666" cy="3205224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7492,7 +7482,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -17318,8 +17308,8 @@
   </sheetPr>
   <dimension ref="A1:AG750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -17582,65 +17572,63 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="3" customHeight="1"/>
-    <row r="11" spans="1:33" s="49" customFormat="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="E11" s="60" t="s">
+    <row r="11" spans="1:33">
+      <c r="A11" s="33"/>
+      <c r="E11" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="55">
         <v>694.32899999999995</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="55">
         <v>844.774</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="55">
         <v>866.28899999999999</v>
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="61">
+      <c r="K11" s="39"/>
+      <c r="L11" s="55">
         <v>154.36699999999999</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11" s="55">
         <v>168.47399999999999</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="55">
         <v>180.64099999999999</v>
       </c>
       <c r="O11" s="39">
         <f>F11-SUM(L11:N11)</f>
         <v>190.84699999999998</v>
       </c>
-      <c r="P11" s="61">
+      <c r="P11" s="55">
         <v>194.27699999999999</v>
       </c>
-      <c r="Q11" s="61">
+      <c r="Q11" s="55">
         <v>207.977</v>
       </c>
-      <c r="R11" s="61">
+      <c r="R11" s="55">
         <v>221.785</v>
       </c>
       <c r="S11" s="39">
         <f>G11-SUM(P11:R11)</f>
         <v>220.73500000000001</v>
       </c>
-      <c r="T11" s="61">
+      <c r="T11" s="55">
         <v>215.75700000000001</v>
       </c>
-      <c r="U11" s="61">
+      <c r="U11" s="55">
         <v>217.98400000000001</v>
       </c>
-      <c r="V11" s="61">
+      <c r="V11" s="55">
         <v>220.18799999999999</v>
       </c>
       <c r="W11" s="39">
         <f>H11-SUM(T11:V11)</f>
         <v>212.36</v>
       </c>
-      <c r="X11" s="61">
+      <c r="X11" s="55">
         <v>201.822</v>
       </c>
       <c r="Y11" s="40"/>
@@ -17653,65 +17641,63 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="40"/>
     </row>
-    <row r="12" spans="1:33" s="49" customFormat="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="E12" s="60" t="s">
+    <row r="12" spans="1:33">
+      <c r="A12" s="33"/>
+      <c r="E12" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="55">
         <v>209.17400000000001</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="55">
         <v>207.05600000000001</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="55">
         <v>205.35400000000001</v>
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="61">
+      <c r="K12" s="39"/>
+      <c r="L12" s="55">
         <v>55.662999999999997</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="55">
         <v>50.731999999999999</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="55">
         <v>51.997999999999998</v>
       </c>
       <c r="O12" s="39">
         <f>F12-SUM(L12:N12)</f>
         <v>50.781000000000006</v>
       </c>
-      <c r="P12" s="61">
+      <c r="P12" s="55">
         <v>48.670999999999999</v>
       </c>
-      <c r="Q12" s="61">
+      <c r="Q12" s="55">
         <v>51.758000000000003</v>
       </c>
-      <c r="R12" s="61">
+      <c r="R12" s="55">
         <v>53.725000000000001</v>
       </c>
       <c r="S12" s="39">
         <f>G12-SUM(P12:R12)</f>
         <v>52.902000000000015</v>
       </c>
-      <c r="T12" s="61">
+      <c r="T12" s="55">
         <v>52.018000000000001</v>
       </c>
-      <c r="U12" s="61">
+      <c r="U12" s="55">
         <v>50.631</v>
       </c>
-      <c r="V12" s="61">
+      <c r="V12" s="55">
         <v>53.417000000000002</v>
       </c>
       <c r="W12" s="39">
         <f>H12-SUM(T12:V12)</f>
         <v>49.288000000000011</v>
       </c>
-      <c r="X12" s="61">
+      <c r="X12" s="55">
         <v>45.279000000000003</v>
       </c>
       <c r="Y12" s="40"/>
@@ -17748,8 +17734,8 @@
         <v>963.101</v>
       </c>
       <c r="J13" s="38">
-        <f>SUM(Y13:AB13)</f>
-        <v>942</v>
+        <f>SUM(AB13:AE13)</f>
+        <v>901</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="38">
@@ -17769,66 +17755,66 @@
         <v>241.62799999999999</v>
       </c>
       <c r="P13" s="38">
-        <f>SUM(P11:P12)</f>
+        <f t="shared" ref="P13:X13" si="2">SUM(P11:P12)</f>
         <v>242.94799999999998</v>
       </c>
       <c r="Q13" s="38">
-        <f>SUM(Q11:Q12)</f>
+        <f t="shared" si="2"/>
         <v>259.73500000000001</v>
       </c>
       <c r="R13" s="38">
-        <f>SUM(R11:R12)</f>
+        <f t="shared" si="2"/>
         <v>275.51</v>
       </c>
       <c r="S13" s="38">
-        <f>SUM(S11:S12)</f>
+        <f t="shared" si="2"/>
         <v>273.63700000000006</v>
       </c>
       <c r="T13" s="38">
-        <f>SUM(T11:T12)</f>
+        <f t="shared" si="2"/>
         <v>267.77499999999998</v>
       </c>
       <c r="U13" s="38">
-        <f>SUM(U11:U12)</f>
+        <f t="shared" si="2"/>
         <v>268.61500000000001</v>
       </c>
       <c r="V13" s="38">
-        <f>SUM(V11:V12)</f>
+        <f t="shared" si="2"/>
         <v>273.60500000000002</v>
       </c>
       <c r="W13" s="38">
-        <f>SUM(W11:W12)</f>
+        <f t="shared" si="2"/>
         <v>261.64800000000002</v>
       </c>
       <c r="X13" s="38">
-        <f>SUM(X11:X12)</f>
+        <f t="shared" si="2"/>
         <v>247.101</v>
       </c>
-      <c r="Y13" s="53">
+      <c r="Y13" s="48">
         <v>243</v>
       </c>
-      <c r="Z13" s="53">
+      <c r="Z13" s="48">
         <v>240</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AA13" s="48">
         <v>233</v>
       </c>
-      <c r="AB13" s="53">
+      <c r="AB13" s="48">
         <v>226</v>
       </c>
-      <c r="AC13" s="53">
+      <c r="AC13" s="48">
         <v>224</v>
       </c>
-      <c r="AD13" s="53">
+      <c r="AD13" s="48">
         <v>225</v>
       </c>
-      <c r="AE13" s="53">
+      <c r="AE13" s="48">
         <v>226</v>
       </c>
-      <c r="AF13" s="53">
+      <c r="AF13" s="48">
         <v>225</v>
       </c>
-      <c r="AG13" s="53">
+      <c r="AG13" s="48">
         <v>231</v>
       </c>
     </row>
@@ -17840,66 +17826,66 @@
         <v>53</v>
       </c>
       <c r="F14" s="39">
-        <f t="shared" ref="F14:H15" ca="1" si="2">SUMIFS(INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!A:A"), $A14) / $B$3*-1</f>
+        <f t="shared" ref="F14:H15" ca="1" si="3">SUMIFS(INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!A:A"), $A14) / $B$3*-1</f>
         <v>-249.49</v>
       </c>
       <c r="G14" s="39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-307.83499999999998</v>
       </c>
       <c r="H14" s="39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-318.83499999999998</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39">
-        <f t="shared" ref="L14:V17" ca="1" si="3">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A14) / $B$3*-1</f>
+        <f t="shared" ref="L14:V17" ca="1" si="4">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A14) / $B$3*-1</f>
         <v>-56.780999999999999</v>
       </c>
       <c r="M14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-62.756999999999998</v>
       </c>
       <c r="N14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-64.581000000000003</v>
       </c>
       <c r="O14" s="39">
-        <f t="shared" ref="O14:O18" ca="1" si="4">F14-SUM(L14:N14)</f>
+        <f t="shared" ref="O14:O18" ca="1" si="5">F14-SUM(L14:N14)</f>
         <v>-65.371000000000009</v>
       </c>
       <c r="P14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-70.58</v>
       </c>
       <c r="Q14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-76.736999999999995</v>
       </c>
       <c r="R14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-80.049000000000007</v>
       </c>
       <c r="S14" s="39">
-        <f t="shared" ref="S14:S18" ca="1" si="5">G14-SUM(P14:R14)</f>
+        <f t="shared" ref="S14:S18" ca="1" si="6">G14-SUM(P14:R14)</f>
         <v>-80.468999999999966</v>
       </c>
       <c r="T14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-81.289000000000001</v>
       </c>
       <c r="U14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-80.040999999999997</v>
       </c>
       <c r="V14" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-79.552000000000007</v>
       </c>
       <c r="W14" s="39">
-        <f t="shared" ref="W14:W27" ca="1" si="6">H14-SUM(T14:V14)</f>
+        <f t="shared" ref="W14:W27" ca="1" si="7">H14-SUM(T14:V14)</f>
         <v>-77.952999999999975</v>
       </c>
       <c r="X14" s="39">
@@ -17924,66 +17910,66 @@
         <v>54</v>
       </c>
       <c r="F15" s="39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-249.26900000000001</v>
       </c>
       <c r="G15" s="39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-270.38</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-261.17200000000003</v>
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-56.829000000000001</v>
       </c>
       <c r="M15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-59.482999999999997</v>
       </c>
       <c r="N15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-64.316000000000003</v>
       </c>
       <c r="O15" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>-68.64100000000002</v>
+      </c>
+      <c r="P15" s="39">
         <f t="shared" ca="1" si="4"/>
-        <v>-68.64100000000002</v>
-      </c>
-      <c r="P15" s="39">
-        <f t="shared" ca="1" si="3"/>
         <v>-63.59</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-65.328999999999994</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-68.847999999999999</v>
       </c>
       <c r="S15" s="39">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-72.613</v>
       </c>
       <c r="T15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-63.616999999999997</v>
       </c>
       <c r="U15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-67.561999999999998</v>
       </c>
       <c r="V15" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-63.548999999999999</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-66.444000000000017</v>
       </c>
       <c r="X15" s="39">
@@ -18008,66 +17994,66 @@
         <v>55</v>
       </c>
       <c r="F16" s="39">
-        <f t="shared" ref="F16:H21" ca="1" si="7">SUMIFS(INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!A:A"), $A16) / $B$3*-1</f>
+        <f t="shared" ref="F16:H21" ca="1" si="8">SUMIFS(INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!E:E"), INDIRECT("'is_fy" &amp; F$2 &amp; F$1 &amp; "'!A:A"), $A16) / $B$3*-1</f>
         <v>-319.3</v>
       </c>
       <c r="G16" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-221.649</v>
       </c>
       <c r="H16" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-128.52099999999999</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-26.446000000000002</v>
       </c>
       <c r="M16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-51.375</v>
       </c>
       <c r="N16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-29.815000000000001</v>
       </c>
       <c r="O16" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>-211.66400000000002</v>
+      </c>
+      <c r="P16" s="39">
         <f t="shared" ca="1" si="4"/>
-        <v>-211.66400000000002</v>
-      </c>
-      <c r="P16" s="39">
-        <f t="shared" ca="1" si="3"/>
         <v>-49.831000000000003</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-43.298000000000002</v>
       </c>
       <c r="R16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-48.576999999999998</v>
       </c>
       <c r="S16" s="39">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-79.942999999999984</v>
       </c>
       <c r="T16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-20.856000000000002</v>
       </c>
       <c r="U16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-36.329000000000001</v>
       </c>
       <c r="V16" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-33.250999999999998</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-38.08499999999998</v>
       </c>
       <c r="X16" s="39">
@@ -18092,66 +18078,66 @@
         <v>56</v>
       </c>
       <c r="F17" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-98.575000000000003</v>
       </c>
       <c r="G17" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-130.565</v>
       </c>
       <c r="H17" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-100.72499999999999</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-25.195</v>
       </c>
       <c r="M17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-22.456</v>
       </c>
       <c r="N17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-25.827999999999999</v>
       </c>
       <c r="O17" s="39">
+        <f t="shared" ca="1" si="5"/>
+        <v>-25.096000000000004</v>
+      </c>
+      <c r="P17" s="39">
         <f t="shared" ca="1" si="4"/>
-        <v>-25.096000000000004</v>
-      </c>
-      <c r="P17" s="39">
-        <f t="shared" ca="1" si="3"/>
         <v>-33.152000000000001</v>
       </c>
       <c r="Q17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-36.232999999999997</v>
       </c>
       <c r="R17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-30.908999999999999</v>
       </c>
       <c r="S17" s="39">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-30.271000000000015</v>
       </c>
       <c r="T17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-36.017000000000003</v>
       </c>
       <c r="U17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-15.705</v>
       </c>
       <c r="V17" s="39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-24.88</v>
       </c>
       <c r="W17" s="39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-24.12299999999999</v>
       </c>
       <c r="X17" s="39">
@@ -18191,51 +18177,51 @@
       <c r="J18" s="42"/>
       <c r="K18" s="39"/>
       <c r="L18" s="41">
-        <f t="shared" ref="L18:V18" ca="1" si="8">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A18) / $B$3</f>
+        <f t="shared" ref="L18:V18" ca="1" si="9">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A18) / $B$3</f>
         <v>13.23</v>
       </c>
       <c r="M18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4.9539999999999997</v>
       </c>
       <c r="N18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6.5449999999999999</v>
       </c>
       <c r="O18" s="41">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-8.5399999999999991</v>
       </c>
       <c r="P18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>-3.5609999999999999</v>
       </c>
       <c r="Q18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>-2.9689999999999999</v>
       </c>
       <c r="R18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0.252</v>
       </c>
       <c r="S18" s="41">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-20.259</v>
       </c>
       <c r="T18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1.4750000000000001</v>
       </c>
       <c r="U18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>-0.55800000000000005</v>
       </c>
       <c r="V18" s="41">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2.8980000000000001</v>
       </c>
       <c r="W18" s="41">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-8.6419999999999995</v>
       </c>
       <c r="X18" s="41">
@@ -18274,87 +18260,87 @@
         <v>282.82399999999996</v>
       </c>
       <c r="J19" s="38">
-        <f>SUM(Y19:AB19)</f>
-        <v>295.62</v>
+        <f>SUM(AB19:AE19)</f>
+        <v>268.93</v>
       </c>
       <c r="K19" s="39"/>
       <c r="L19" s="38">
-        <f t="shared" ref="L19:V19" ca="1" si="9">SUM(L13:L18)</f>
+        <f t="shared" ref="L19:V19" ca="1" si="10">SUM(L13:L18)</f>
         <v>58.008999999999958</v>
       </c>
       <c r="M19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>28.088999999999981</v>
       </c>
       <c r="N19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>54.643999999999991</v>
       </c>
       <c r="O19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-137.68400000000005</v>
       </c>
       <c r="P19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>22.233999999999988</v>
       </c>
       <c r="Q19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>35.169000000000025</v>
       </c>
       <c r="R19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>47.378999999999991</v>
       </c>
       <c r="S19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-9.9179999999999069</v>
       </c>
       <c r="T19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>67.471000000000004</v>
       </c>
       <c r="U19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>68.420000000000016</v>
       </c>
       <c r="V19" s="38">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>75.270999999999987</v>
       </c>
       <c r="W19" s="38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>46.400999999999982</v>
       </c>
       <c r="X19" s="38">
         <f ca="1">SUM(X13:X18)</f>
         <v>51.103999999999978</v>
       </c>
-      <c r="Y19" s="64">
+      <c r="Y19" s="58">
         <v>85.32</v>
       </c>
-      <c r="Z19" s="64">
+      <c r="Z19" s="58">
         <v>75.78</v>
       </c>
-      <c r="AA19" s="64">
+      <c r="AA19" s="58">
         <v>70.62</v>
       </c>
-      <c r="AB19" s="64">
+      <c r="AB19" s="58">
         <v>63.9</v>
       </c>
-      <c r="AC19" s="64">
+      <c r="AC19" s="58">
         <v>67.28</v>
       </c>
-      <c r="AD19" s="64">
+      <c r="AD19" s="58">
         <v>69.739999999999995</v>
       </c>
-      <c r="AE19" s="64">
+      <c r="AE19" s="58">
         <v>68.010000000000005</v>
       </c>
-      <c r="AF19" s="64">
+      <c r="AF19" s="58">
         <v>72.989999999999995</v>
       </c>
-      <c r="AG19" s="64">
+      <c r="AG19" s="58">
         <v>71.849999999999994</v>
       </c>
     </row>
@@ -18366,30 +18352,30 @@
         <v>57</v>
       </c>
       <c r="F20" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G20" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H20" s="39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-892.24800000000005</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39">
-        <f t="shared" ref="L20:V21" ca="1" si="10">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A20) / $B$3*-1</f>
+        <f t="shared" ref="L20:V21" ca="1" si="11">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A20) / $B$3*-1</f>
         <v>0</v>
       </c>
       <c r="M20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="N20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="O20" s="39">
@@ -18397,15 +18383,15 @@
         <v>0</v>
       </c>
       <c r="P20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="Q20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="R20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="S20" s="39">
@@ -18413,19 +18399,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="U20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="V20" s="39">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-892.24800000000005</v>
       </c>
       <c r="W20" s="39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="X20" s="39">
@@ -18450,30 +18436,30 @@
         <v>40</v>
       </c>
       <c r="F21" s="41">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-89.712999999999994</v>
       </c>
       <c r="G21" s="41">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-68.028000000000006</v>
       </c>
       <c r="H21" s="41">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-70.616</v>
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="39"/>
       <c r="L21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-26.928999999999998</v>
       </c>
       <c r="M21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-27.151</v>
       </c>
       <c r="N21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-19.754999999999999</v>
       </c>
       <c r="O21" s="41">
@@ -18481,15 +18467,15 @@
         <v>-15.878</v>
       </c>
       <c r="P21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-16.731000000000002</v>
       </c>
       <c r="Q21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-16.966999999999999</v>
       </c>
       <c r="R21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-17.126999999999999</v>
       </c>
       <c r="S21" s="41">
@@ -18497,19 +18483,19 @@
         <v>-17.203000000000003</v>
       </c>
       <c r="T21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-17.206</v>
       </c>
       <c r="U21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-17.024000000000001</v>
       </c>
       <c r="V21" s="41">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>-18.312000000000001</v>
       </c>
       <c r="W21" s="41">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-18.073999999999998</v>
       </c>
       <c r="X21" s="41">
@@ -18546,51 +18532,51 @@
       <c r="J22" s="40"/>
       <c r="K22" s="39"/>
       <c r="L22" s="38">
-        <f t="shared" ref="L22:V22" ca="1" si="11">SUM(L19:L21)</f>
+        <f t="shared" ref="L22:V22" ca="1" si="12">SUM(L19:L21)</f>
         <v>31.079999999999959</v>
       </c>
       <c r="M22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.93799999999998107</v>
       </c>
       <c r="N22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>34.888999999999996</v>
       </c>
       <c r="O22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-153.56200000000007</v>
       </c>
       <c r="P22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5.5029999999999859</v>
       </c>
       <c r="Q22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>18.202000000000027</v>
       </c>
       <c r="R22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>30.251999999999992</v>
       </c>
       <c r="S22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-27.12099999999991</v>
       </c>
       <c r="T22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>50.265000000000001</v>
       </c>
       <c r="U22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>51.396000000000015</v>
       </c>
       <c r="V22" s="38">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-835.2890000000001</v>
       </c>
       <c r="W22" s="38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>28.326999999999998</v>
       </c>
       <c r="X22" s="38">
@@ -18630,15 +18616,15 @@
       <c r="J23" s="40"/>
       <c r="K23" s="39"/>
       <c r="L23" s="41">
-        <f t="shared" ref="L23:V23" ca="1" si="12">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A23) / $B$3</f>
+        <f t="shared" ref="L23:V23" ca="1" si="13">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A23) / $B$3</f>
         <v>-5.883</v>
       </c>
       <c r="M23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-6.2809999999999997</v>
       </c>
       <c r="N23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-6.8659999999999997</v>
       </c>
       <c r="O23" s="41">
@@ -18646,15 +18632,15 @@
         <v>-5.0329999999999977</v>
       </c>
       <c r="P23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-5.2190000000000003</v>
       </c>
       <c r="Q23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-6.11</v>
       </c>
       <c r="R23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-5.2560000000000002</v>
       </c>
       <c r="S23" s="41">
@@ -18662,19 +18648,19 @@
         <v>-4.9489999999999981</v>
       </c>
       <c r="T23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-8.9179999999999993</v>
       </c>
       <c r="U23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-9.0820000000000007</v>
       </c>
       <c r="V23" s="41">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>-9.8089999999999993</v>
       </c>
       <c r="W23" s="41">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-12.136000000000003</v>
       </c>
       <c r="X23" s="41">
@@ -18696,70 +18682,70 @@
         <v>13</v>
       </c>
       <c r="F24" s="38">
-        <f t="shared" ref="F24" ca="1" si="13">SUM(F22:F23)</f>
+        <f t="shared" ref="F24" ca="1" si="14">SUM(F22:F23)</f>
         <v>-110.71800000000009</v>
       </c>
       <c r="G24" s="38">
-        <f t="shared" ref="G24" ca="1" si="14">SUM(G22:G23)</f>
+        <f t="shared" ref="G24" ca="1" si="15">SUM(G22:G23)</f>
         <v>5.3019999999998859</v>
       </c>
       <c r="H24" s="38">
-        <f t="shared" ref="H24:X24" ca="1" si="15">SUM(H22:H23)</f>
+        <f t="shared" ref="H24:X24" ca="1" si="16">SUM(H22:H23)</f>
         <v>-745.24600000000009</v>
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="K24" s="39"/>
       <c r="L24" s="38">
-        <f t="shared" ref="L24:V24" ca="1" si="16">SUM(L22:L23)</f>
+        <f t="shared" ref="L24:V24" ca="1" si="17">SUM(L22:L23)</f>
         <v>25.19699999999996</v>
       </c>
       <c r="M24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>-5.3430000000000186</v>
+      </c>
+      <c r="N24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>28.022999999999996</v>
+      </c>
+      <c r="O24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>-158.59500000000006</v>
+      </c>
+      <c r="P24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.2839999999999856</v>
+      </c>
+      <c r="Q24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>12.092000000000027</v>
+      </c>
+      <c r="R24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>24.995999999999992</v>
+      </c>
+      <c r="S24" s="38">
+        <f t="shared" ref="S24" ca="1" si="18">SUM(S22:S23)</f>
+        <v>-32.069999999999908</v>
+      </c>
+      <c r="T24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>41.347000000000001</v>
+      </c>
+      <c r="U24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>42.314000000000014</v>
+      </c>
+      <c r="V24" s="38">
+        <f t="shared" ca="1" si="17"/>
+        <v>-845.09800000000007</v>
+      </c>
+      <c r="W24" s="38">
+        <f t="shared" ca="1" si="7"/>
+        <v>16.190999999999917</v>
+      </c>
+      <c r="X24" s="38">
         <f t="shared" ca="1" si="16"/>
-        <v>-5.3430000000000186</v>
-      </c>
-      <c r="N24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>28.022999999999996</v>
-      </c>
-      <c r="O24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>-158.59500000000006</v>
-      </c>
-      <c r="P24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.2839999999999856</v>
-      </c>
-      <c r="Q24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>12.092000000000027</v>
-      </c>
-      <c r="R24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>24.995999999999992</v>
-      </c>
-      <c r="S24" s="38">
-        <f t="shared" ref="S24" ca="1" si="17">SUM(S22:S23)</f>
-        <v>-32.069999999999908</v>
-      </c>
-      <c r="T24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>41.347000000000001</v>
-      </c>
-      <c r="U24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>42.314000000000014</v>
-      </c>
-      <c r="V24" s="38">
-        <f t="shared" ca="1" si="16"/>
-        <v>-845.09800000000007</v>
-      </c>
-      <c r="W24" s="38">
-        <f t="shared" ca="1" si="6"/>
-        <v>16.190999999999917</v>
-      </c>
-      <c r="X24" s="38">
-        <f t="shared" ca="1" si="15"/>
         <v>25.838999999999977</v>
       </c>
       <c r="Y24" s="40"/>
@@ -18795,15 +18781,15 @@
       <c r="J25" s="40"/>
       <c r="K25" s="39"/>
       <c r="L25" s="39">
-        <f t="shared" ref="L25:V25" ca="1" si="18">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A25) / $B$3</f>
+        <f t="shared" ref="L25:V25" ca="1" si="19">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A25) / $B$3</f>
         <v>-2.4279999999999999</v>
       </c>
       <c r="M25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-2.3279999999999998</v>
       </c>
       <c r="N25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-1.6180000000000001</v>
       </c>
       <c r="O25" s="39">
@@ -18811,15 +18797,15 @@
         <v>2.9680000000000004</v>
       </c>
       <c r="P25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-2.613</v>
       </c>
       <c r="Q25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-2.7429999999999999</v>
       </c>
       <c r="R25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-1.8720000000000001</v>
       </c>
       <c r="S25" s="39">
@@ -18827,19 +18813,19 @@
         <v>5.7999999999999829E-2</v>
       </c>
       <c r="T25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-7.4740000000000002</v>
       </c>
       <c r="U25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-4.6280000000000001</v>
       </c>
       <c r="V25" s="39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>-4.1609999999999996</v>
       </c>
       <c r="W25" s="39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-6.865000000000002</v>
       </c>
       <c r="X25" s="39">
@@ -18879,15 +18865,15 @@
       <c r="J26" s="40"/>
       <c r="K26" s="39"/>
       <c r="L26" s="39">
-        <f t="shared" ref="L26:V26" ca="1" si="19">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A26) / $B$3*-1</f>
+        <f t="shared" ref="L26:V26" ca="1" si="20">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A26) / $B$3*-1</f>
         <v>-7.5430000000000001</v>
       </c>
       <c r="M26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2.0310000000000001</v>
       </c>
       <c r="N26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>-8.3420000000000005</v>
       </c>
       <c r="O26" s="39">
@@ -18895,15 +18881,15 @@
         <v>48.231999999999999</v>
       </c>
       <c r="P26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0.71799999999999997</v>
       </c>
       <c r="Q26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>-2.5960000000000001</v>
       </c>
       <c r="R26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>-6.4530000000000003</v>
       </c>
       <c r="S26" s="39">
@@ -18911,19 +18897,19 @@
         <v>5.9859999999999989</v>
       </c>
       <c r="T26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>-9.2560000000000002</v>
       </c>
       <c r="U26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>-10.291</v>
       </c>
       <c r="V26" s="39">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>236.06</v>
       </c>
       <c r="W26" s="39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-5.1469999999999914</v>
       </c>
       <c r="X26" s="39">
@@ -18945,15 +18931,15 @@
         <v>60</v>
       </c>
       <c r="F27" s="37">
-        <f t="shared" ref="F27" ca="1" si="20">SUM(F24:F26)</f>
+        <f t="shared" ref="F27" ca="1" si="21">SUM(F24:F26)</f>
         <v>-79.746000000000095</v>
       </c>
       <c r="G27" s="37">
-        <f t="shared" ref="G27" ca="1" si="21">SUM(G24:G26)</f>
+        <f t="shared" ref="G27" ca="1" si="22">SUM(G24:G26)</f>
         <v>-4.2130000000001147</v>
       </c>
       <c r="H27" s="37">
-        <f t="shared" ref="H27:X27" ca="1" si="22">SUM(H24:H26)</f>
+        <f t="shared" ref="H27:X27" ca="1" si="23">SUM(H24:H26)</f>
         <v>-557.00800000000015</v>
       </c>
       <c r="I27" s="37">
@@ -18961,87 +18947,87 @@
         <v>108.47399999999999</v>
       </c>
       <c r="J27" s="37">
-        <f>SUM(Y27:AB27)</f>
-        <v>117.64</v>
+        <f>SUM(AB27:AE27)</f>
+        <v>102.09</v>
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="37">
-        <f t="shared" ref="L27:V27" ca="1" si="23">SUM(L24:L26)</f>
+        <f t="shared" ref="L27:V27" ca="1" si="24">SUM(L24:L26)</f>
         <v>15.22599999999996</v>
       </c>
       <c r="M27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>-5.6400000000000183</v>
+      </c>
+      <c r="N27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>18.062999999999995</v>
+      </c>
+      <c r="O27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>-107.39500000000007</v>
+      </c>
+      <c r="P27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>-1.6110000000000144</v>
+      </c>
+      <c r="Q27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>6.7530000000000268</v>
+      </c>
+      <c r="R27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>16.670999999999992</v>
+      </c>
+      <c r="S27" s="37">
+        <f t="shared" ref="S27" ca="1" si="25">SUM(S24:S26)</f>
+        <v>-26.025999999999911</v>
+      </c>
+      <c r="T27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>24.617000000000004</v>
+      </c>
+      <c r="U27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>27.395000000000014</v>
+      </c>
+      <c r="V27" s="37">
+        <f t="shared" ca="1" si="24"/>
+        <v>-613.19900000000007</v>
+      </c>
+      <c r="W27" s="37">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.1789999999998599</v>
+      </c>
+      <c r="X27" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>-5.6400000000000183</v>
-      </c>
-      <c r="N27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>18.062999999999995</v>
-      </c>
-      <c r="O27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>-107.39500000000007</v>
-      </c>
-      <c r="P27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>-1.6110000000000144</v>
-      </c>
-      <c r="Q27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>6.7530000000000268</v>
-      </c>
-      <c r="R27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>16.670999999999992</v>
-      </c>
-      <c r="S27" s="37">
-        <f t="shared" ref="S27" ca="1" si="24">SUM(S24:S26)</f>
-        <v>-26.025999999999911</v>
-      </c>
-      <c r="T27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>24.617000000000004</v>
-      </c>
-      <c r="U27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>27.395000000000014</v>
-      </c>
-      <c r="V27" s="37">
-        <f t="shared" ca="1" si="23"/>
-        <v>-613.19900000000007</v>
-      </c>
-      <c r="W27" s="37">
-        <f t="shared" ca="1" si="6"/>
-        <v>4.1789999999998599</v>
-      </c>
-      <c r="X27" s="37">
-        <f t="shared" ca="1" si="22"/>
         <v>13.443999999999978</v>
       </c>
-      <c r="Y27" s="65">
+      <c r="Y27" s="59">
         <v>41.68</v>
       </c>
-      <c r="Z27" s="65">
+      <c r="Z27" s="59">
         <v>30.75</v>
       </c>
-      <c r="AA27" s="65">
+      <c r="AA27" s="59">
         <v>22.6</v>
       </c>
-      <c r="AB27" s="65">
+      <c r="AB27" s="59">
         <v>22.61</v>
       </c>
-      <c r="AC27" s="65">
+      <c r="AC27" s="59">
         <v>14.14</v>
       </c>
-      <c r="AD27" s="65">
+      <c r="AD27" s="59">
         <v>38.39</v>
       </c>
-      <c r="AE27" s="65">
+      <c r="AE27" s="59">
         <v>26.95</v>
       </c>
-      <c r="AF27" s="65">
+      <c r="AF27" s="59">
         <v>21.27</v>
       </c>
-      <c r="AG27" s="65">
+      <c r="AG27" s="59">
         <v>16.39</v>
       </c>
     </row>
@@ -19068,7 +19054,7 @@
       </c>
       <c r="J29" s="15">
         <f>IFERROR(+J13/I13-1,"n/a")</f>
-        <v>-2.1909436289651918E-2</v>
+        <v>-6.4480257003159624E-2</v>
       </c>
       <c r="L29" s="15" t="str">
         <f>IFERROR(+L13/K13-1,"n/a")</f>
@@ -19079,43 +19065,43 @@
         <v>4.3688996809979619E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" ref="N29:X29" si="25">IFERROR(+N13/M13-1,"n/a")</f>
+        <f t="shared" ref="N29:W29" si="26">IFERROR(+N13/M13-1,"n/a")</f>
         <v>6.1280256927273902E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.8639265127515143E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.4629430364030451E-3</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.9097090735466216E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.0734979883342533E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.7983013320748187E-3</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.142254154226253E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.1369620016805655E-3</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.8576773448988337E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.3701686738180978E-2</v>
       </c>
       <c r="X29" s="15">
@@ -19123,39 +19109,39 @@
         <v>-5.559759677123477E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" ref="Y29:AG29" si="26">IFERROR(+Y13/X13-1,"n/a")</f>
+        <f t="shared" ref="Y29:AG29" si="27">IFERROR(+Y13/X13-1,"n/a")</f>
         <v>-1.6596452462758093E-2</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.2345679012345734E-2</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-2.9166666666666674E-2</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-3.0042918454935674E-2</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-8.8495575221239076E-3</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.4642857142858094E-3</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.4444444444444731E-3</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-4.4247787610619538E-3</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.6666666666666616E-2</v>
       </c>
     </row>
@@ -19181,94 +19167,94 @@
       </c>
       <c r="J30" s="15">
         <f>IFERROR(+J19/J13,"n/a")</f>
-        <v>0.31382165605095541</v>
+        <v>0.29847946725860158</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" ref="L30:X30" ca="1" si="27">IFERROR(+L19/L13,"n/a")</f>
+        <f t="shared" ref="L30:X30" ca="1" si="28">IFERROR(+L19/L13,"n/a")</f>
         <v>0.276193877065181</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.12813974070052819</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.23488752960595599</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>-0.56981806744251517</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>9.1517526384246789E-2</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.13540339191868644</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.17196834960618487</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>-3.6245098433325552E-2</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.2519690038278406</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.25471399586769172</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.27510827653003411</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.17734131352045487</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.20681421766807895</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" ref="Y30:AG30" si="28">IFERROR(+Y19/Y13,"n/a")</f>
+        <f t="shared" ref="Y30:AG30" si="29">IFERROR(+Y19/Y13,"n/a")</f>
         <v>0.3511111111111111</v>
       </c>
       <c r="Z30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.31575000000000003</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.30309012875536484</v>
       </c>
       <c r="AB30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.28274336283185841</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.30035714285714288</v>
       </c>
       <c r="AD30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.30995555555555554</v>
       </c>
       <c r="AE30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.30092920353982305</v>
       </c>
       <c r="AF30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.32439999999999997</v>
       </c>
       <c r="AG30" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.311038961038961</v>
       </c>
     </row>
@@ -19291,55 +19277,55 @@
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
       <c r="L31" s="15">
-        <f t="shared" ref="L31:X31" ca="1" si="29">IFERROR(+L20/L14,"n/a")</f>
+        <f t="shared" ref="L31:X31" ca="1" si="30">IFERROR(+L20/L14,"n/a")</f>
         <v>0</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="R31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="T31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="V31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>11.21590909090909</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>4.950036126675119E-2</v>
       </c>
       <c r="Y31" s="40"/>
@@ -19357,69 +19343,69 @@
         <v>28</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" ref="F32:X32" ca="1" si="30">-F25/F24</f>
+        <f t="shared" ref="F32:X32" ca="1" si="31">-F25/F24</f>
         <v>-3.0762838924113491E-2</v>
       </c>
       <c r="G32" s="15">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>1.3523198792908628</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>-3.1034047817767554E-2</v>
       </c>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
       <c r="L32" s="15">
-        <f t="shared" ref="L32:W32" ca="1" si="31">-L25/L24</f>
+        <f t="shared" ref="L32:W32" ca="1" si="32">-L25/L24</f>
         <v>9.6360677858475366E-2</v>
       </c>
       <c r="M32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>-0.43571027512633198</v>
+      </c>
+      <c r="N32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>5.7738286407593771E-2</v>
+      </c>
+      <c r="O32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>1.8714335256470881E-2</v>
+      </c>
+      <c r="P32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>9.2007042253525793</v>
+      </c>
+      <c r="Q32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.22684419450876561</v>
+      </c>
+      <c r="R32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>7.4891982717234781E-2</v>
+      </c>
+      <c r="S32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>1.8085438104147177E-3</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.18076281229593441</v>
+      </c>
+      <c r="U32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.1093727844212317</v>
+      </c>
+      <c r="V32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>-4.9236893236050717E-3</v>
+      </c>
+      <c r="W32" s="15">
+        <f t="shared" ca="1" si="32"/>
+        <v>0.4240009882033251</v>
+      </c>
+      <c r="X32" s="15">
         <f t="shared" ca="1" si="31"/>
-        <v>-0.43571027512633198</v>
-      </c>
-      <c r="N32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>5.7738286407593771E-2</v>
-      </c>
-      <c r="O32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>1.8714335256470881E-2</v>
-      </c>
-      <c r="P32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>9.2007042253525793</v>
-      </c>
-      <c r="Q32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.22684419450876561</v>
-      </c>
-      <c r="R32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>7.4891982717234781E-2</v>
-      </c>
-      <c r="S32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>1.8085438104147177E-3</v>
-      </c>
-      <c r="T32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.18076281229593441</v>
-      </c>
-      <c r="U32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.1093727844212317</v>
-      </c>
-      <c r="V32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>-4.9236893236050717E-3</v>
-      </c>
-      <c r="W32" s="15">
-        <f t="shared" ca="1" si="31"/>
-        <v>0.4240009882033251</v>
-      </c>
-      <c r="X32" s="15">
-        <f t="shared" ca="1" si="30"/>
         <v>0.2325167382638649</v>
       </c>
       <c r="Y32" s="40"/>
@@ -19442,7 +19428,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="W34" s="58"/>
+      <c r="W34" s="53"/>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="33"/>
@@ -19450,57 +19436,57 @@
       <c r="E35" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="47">
         <v>2.0022000000000002</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="47">
         <v>2.5173999999999999</v>
       </c>
-      <c r="H35" s="52">
+      <c r="H35" s="47">
         <v>2.8073000000000001</v>
       </c>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
-      <c r="L35" s="52">
+      <c r="L35" s="47">
         <v>1.7751999999999999</v>
       </c>
-      <c r="M35" s="52">
+      <c r="M35" s="47">
         <v>1.9245000000000001</v>
       </c>
-      <c r="N35" s="52">
+      <c r="N35" s="47">
         <v>2.0880999999999998</v>
       </c>
-      <c r="O35" s="59">
+      <c r="O35" s="54">
         <f>F35*4-N35-M35-L35</f>
         <v>2.221000000000001</v>
       </c>
-      <c r="P35" s="52">
+      <c r="P35" s="47">
         <v>2.3188</v>
       </c>
-      <c r="Q35" s="52">
+      <c r="Q35" s="47">
         <v>2.4578000000000002</v>
       </c>
-      <c r="R35" s="52">
+      <c r="R35" s="47">
         <v>2.6049000000000002</v>
       </c>
-      <c r="S35" s="59">
+      <c r="S35" s="54">
         <f>G35*4-R35-Q35-P35</f>
         <v>2.6880999999999982</v>
       </c>
-      <c r="T35" s="52">
+      <c r="T35" s="47">
         <v>2.73</v>
       </c>
-      <c r="U35" s="52">
+      <c r="U35" s="47">
         <v>2.8172000000000001</v>
       </c>
-      <c r="V35" s="52">
+      <c r="V35" s="47">
         <v>2.8693</v>
       </c>
-      <c r="W35" s="59">
+      <c r="W35" s="54">
         <f>H35*4-V35-U35-T35</f>
         <v>2.8127</v>
       </c>
-      <c r="X35" s="52">
+      <c r="X35" s="47">
         <v>2.7084000000000001</v>
       </c>
       <c r="Y35" s="12"/>
@@ -19512,57 +19498,57 @@
       <c r="E36" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="47">
         <v>1.1797</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="47">
         <v>1.2033</v>
       </c>
-      <c r="H36" s="52">
+      <c r="H36" s="47">
         <v>1.3420000000000001</v>
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
-      <c r="L36" s="52">
+      <c r="L36" s="47">
         <v>1.232</v>
       </c>
-      <c r="M36" s="52">
+      <c r="M36" s="47">
         <v>1.0962000000000001</v>
       </c>
-      <c r="N36" s="52">
+      <c r="N36" s="47">
         <v>1.2021999999999999</v>
       </c>
-      <c r="O36" s="59">
+      <c r="O36" s="54">
         <f>F36*4-N36-M36-L36</f>
         <v>1.1883999999999999</v>
       </c>
-      <c r="P36" s="52">
+      <c r="P36" s="47">
         <v>1.141</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="47">
         <v>1.1755</v>
       </c>
-      <c r="R36" s="52">
+      <c r="R36" s="47">
         <v>1.2156</v>
       </c>
-      <c r="S36" s="59">
+      <c r="S36" s="54">
         <f>G36*4-R36-Q36-P36</f>
         <v>1.2810999999999999</v>
       </c>
-      <c r="T36" s="52">
+      <c r="T36" s="47">
         <v>1.2943</v>
       </c>
-      <c r="U36" s="52">
+      <c r="U36" s="47">
         <v>1.3213999999999999</v>
       </c>
-      <c r="V36" s="52">
+      <c r="V36" s="47">
         <v>1.3862000000000001</v>
       </c>
-      <c r="W36" s="59">
+      <c r="W36" s="54">
         <f>H36*4-V36-U36-T36</f>
         <v>1.3661000000000001</v>
       </c>
-      <c r="X36" s="52">
+      <c r="X36" s="47">
         <v>1.3063</v>
       </c>
       <c r="Y36" s="12"/>
@@ -19575,65 +19561,65 @@
         <v>569</v>
       </c>
       <c r="F37" s="46">
-        <f t="shared" ref="F37:H37" si="32">SUM(F35:F36)</f>
+        <f t="shared" ref="F37:H37" si="33">SUM(F35:F36)</f>
         <v>3.1819000000000002</v>
       </c>
       <c r="G37" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.7206999999999999</v>
       </c>
       <c r="H37" s="46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4.1493000000000002</v>
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="L37" s="46">
-        <f t="shared" ref="L37:W37" si="33">SUM(L35:L36)</f>
+        <f t="shared" ref="L37:W37" si="34">SUM(L35:L36)</f>
         <v>3.0072000000000001</v>
       </c>
       <c r="M37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.0207000000000002</v>
       </c>
       <c r="N37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.2902999999999998</v>
       </c>
       <c r="O37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.4094000000000007</v>
       </c>
       <c r="P37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.4598</v>
       </c>
       <c r="Q37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.6333000000000002</v>
       </c>
       <c r="R37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.8205</v>
       </c>
       <c r="S37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.9691999999999981</v>
       </c>
       <c r="T37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.0243000000000002</v>
       </c>
       <c r="U37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.1386000000000003</v>
       </c>
       <c r="V37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.2554999999999996</v>
       </c>
       <c r="W37" s="46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.1787999999999998</v>
       </c>
       <c r="X37" s="46">
@@ -19646,9 +19632,9 @@
     <row r="38" spans="1:26" ht="1.5" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
       <c r="L38" s="12"/>
@@ -19672,60 +19658,60 @@
       <c r="E39" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="47">
         <v>28.9</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="47">
         <v>27.97</v>
       </c>
-      <c r="H39" s="52">
+      <c r="H39" s="47">
         <v>25.72</v>
       </c>
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
-      <c r="L39" s="52">
+      <c r="L39" s="47">
         <v>28.99</v>
       </c>
-      <c r="M39" s="52">
+      <c r="M39" s="47">
         <v>29.18</v>
       </c>
-      <c r="N39" s="52">
+      <c r="N39" s="47">
         <v>28.84</v>
       </c>
-      <c r="O39" s="59">
+      <c r="O39" s="54">
         <f>+O11/O35/3</f>
         <v>28.642803541948055</v>
       </c>
-      <c r="P39" s="52">
+      <c r="P39" s="47">
         <v>27.93</v>
       </c>
-      <c r="Q39" s="52">
+      <c r="Q39" s="47">
         <v>28.21</v>
       </c>
-      <c r="R39" s="52">
+      <c r="R39" s="47">
         <v>28.38</v>
       </c>
-      <c r="S39" s="59">
+      <c r="S39" s="54">
         <f>+S11/S35/3</f>
         <v>27.371873566211594</v>
       </c>
-      <c r="T39" s="52">
+      <c r="T39" s="47">
         <v>26.34</v>
       </c>
-      <c r="U39" s="52">
+      <c r="U39" s="47">
         <v>25.79</v>
       </c>
-      <c r="V39" s="52">
+      <c r="V39" s="47">
         <v>25.58</v>
       </c>
-      <c r="W39" s="59">
+      <c r="W39" s="54">
         <f>+W11/W35/3</f>
         <v>25.166802953271471</v>
       </c>
-      <c r="X39" s="52">
+      <c r="X39" s="47">
         <v>24.84</v>
       </c>
-      <c r="Y39" s="52"/>
+      <c r="Y39" s="47"/>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="33"/>
@@ -19733,60 +19719,60 @@
       <c r="E40" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="47">
         <v>13.06</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="47">
         <v>12.7</v>
       </c>
-      <c r="H40" s="52">
+      <c r="H40" s="47">
         <v>11.85</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
-      <c r="L40" s="52">
+      <c r="L40" s="47">
         <v>13.48</v>
       </c>
-      <c r="M40" s="52">
+      <c r="M40" s="47">
         <v>13.56</v>
       </c>
-      <c r="N40" s="52">
+      <c r="N40" s="47">
         <v>12.75</v>
       </c>
-      <c r="O40" s="59">
+      <c r="O40" s="54">
         <f>+O12/O36/3</f>
         <v>14.24352070010098</v>
       </c>
-      <c r="P40" s="52">
+      <c r="P40" s="47">
         <v>12.47</v>
       </c>
-      <c r="Q40" s="52">
+      <c r="Q40" s="47">
         <v>12.83</v>
       </c>
-      <c r="R40" s="52">
+      <c r="R40" s="47">
         <v>12.79</v>
       </c>
-      <c r="S40" s="59">
+      <c r="S40" s="54">
         <f>+S12/S36/3</f>
         <v>13.764733432206702</v>
       </c>
-      <c r="T40" s="52">
+      <c r="T40" s="47">
         <v>12.35</v>
       </c>
-      <c r="U40" s="52">
+      <c r="U40" s="47">
         <v>11.93</v>
       </c>
-      <c r="V40" s="52">
+      <c r="V40" s="47">
         <v>12.03</v>
       </c>
-      <c r="W40" s="59">
+      <c r="W40" s="54">
         <f>+W12/W36/3</f>
         <v>12.026449991459875</v>
       </c>
-      <c r="X40" s="52">
+      <c r="X40" s="47">
         <v>10.72</v>
       </c>
-      <c r="Y40" s="52"/>
+      <c r="Y40" s="47"/>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="33"/>
@@ -19795,65 +19781,65 @@
         <v>577</v>
       </c>
       <c r="F41" s="46">
-        <f t="shared" ref="F41:H41" si="34">F35/F37*F39+F36/F37*F40</f>
+        <f t="shared" ref="F41:H41" si="35">F35/F37*F39+F36/F37*F40</f>
         <v>23.027267355982275</v>
       </c>
       <c r="G41" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>23.031576853817832</v>
       </c>
       <c r="H41" s="46">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>21.23405297279059</v>
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
       <c r="L41" s="46">
-        <f t="shared" ref="L41:W41" si="35">L35/L37*L39+L36/L37*L40</f>
+        <f t="shared" ref="L41:W41" si="36">L35/L37*L39+L36/L37*L40</f>
         <v>22.635810055865921</v>
       </c>
       <c r="M41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>23.511564206971897</v>
       </c>
       <c r="N41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>22.961083791751513</v>
       </c>
       <c r="O41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>23.623707006120327</v>
       </c>
       <c r="P41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>22.83147985432684</v>
       </c>
       <c r="Q41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>23.234030495692622</v>
       </c>
       <c r="R41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>23.419601099332546</v>
       </c>
       <c r="S41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>22.98002956095268</v>
       </c>
       <c r="T41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>21.840520090450511</v>
       </c>
       <c r="U41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>21.364686125743003</v>
       </c>
       <c r="V41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>21.166180237339915</v>
       </c>
       <c r="W41" s="46">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>20.871063463195178</v>
       </c>
       <c r="X41" s="46">
@@ -19892,65 +19878,65 @@
         <v>572</v>
       </c>
       <c r="F43" s="15" t="str">
-        <f t="shared" ref="F43:H45" si="36">IFERROR(+F35/E35-1,"n/a")</f>
+        <f t="shared" ref="F43:H45" si="37">IFERROR(+F35/E35-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G43" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.25731695135351096</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.11515849686184176</v>
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
       <c r="L43" s="15" t="str">
-        <f t="shared" ref="L43" si="37">IFERROR(+L35/K35-1,"n/a")</f>
+        <f t="shared" ref="L43" si="38">IFERROR(+L35/K35-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M43" s="15">
-        <f t="shared" ref="M43:W49" si="38">IFERROR(+M35/L35-1,"n/a")</f>
+        <f t="shared" ref="M43:W49" si="39">IFERROR(+M35/L35-1,"n/a")</f>
         <v>8.4103199639477433E-2</v>
       </c>
       <c r="N43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.5009093270979275E-2</v>
       </c>
       <c r="O43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6.3646377089220385E-2</v>
       </c>
       <c r="P43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.4034218820350635E-2</v>
       </c>
       <c r="Q43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.9944799033983198E-2</v>
       </c>
       <c r="R43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.9850272601513543E-2</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.1939805750699879E-2</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.5587217737436099E-2</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.1941391941392006E-2</v>
       </c>
       <c r="V43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.8493539684793392E-2</v>
       </c>
       <c r="W43" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.9726065590910724E-2</v>
       </c>
       <c r="X43" s="15">
@@ -19966,65 +19952,65 @@
         <v>573</v>
       </c>
       <c r="F44" s="15" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
       <c r="G44" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.000508603882345E-2</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.11526635086844506</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="L44" s="15" t="str">
-        <f t="shared" ref="L44" si="39">IFERROR(+L36/K36-1,"n/a")</f>
+        <f t="shared" ref="L44" si="40">IFERROR(+L36/K36-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.11022727272727262</v>
       </c>
       <c r="N44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>9.6697682904579363E-2</v>
       </c>
       <c r="O44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.1478955248710676E-2</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-3.9885560417367794E-2</v>
       </c>
       <c r="Q44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.0236634531113138E-2</v>
       </c>
       <c r="R44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3.4113143343258212E-2</v>
       </c>
       <c r="S44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.388285620269806E-2</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.03036453048162E-2</v>
       </c>
       <c r="U44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.0937958742177187E-2</v>
       </c>
       <c r="V44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4.9038898138338283E-2</v>
       </c>
       <c r="W44" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.4500072139662423E-2</v>
       </c>
       <c r="X44" s="15">
@@ -20039,69 +20025,69 @@
       <c r="E45" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="F45" s="63" t="str">
-        <f t="shared" si="36"/>
+      <c r="F45" s="57" t="str">
+        <f t="shared" si="37"/>
         <v>n/a</v>
       </c>
-      <c r="G45" s="63">
-        <f t="shared" si="36"/>
+      <c r="G45" s="57">
+        <f t="shared" si="37"/>
         <v>0.16933278858543632</v>
       </c>
-      <c r="H45" s="63">
-        <f t="shared" si="36"/>
+      <c r="H45" s="57">
+        <f t="shared" si="37"/>
         <v>0.11519337759023851</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
-      <c r="L45" s="63" t="str">
-        <f t="shared" ref="L45" si="40">IFERROR(+L37/K37-1,"n/a")</f>
+      <c r="L45" s="57" t="str">
+        <f t="shared" ref="L45" si="41">IFERROR(+L37/K37-1,"n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="M45" s="63">
-        <f t="shared" si="38"/>
+      <c r="M45" s="57">
+        <f t="shared" si="39"/>
         <v>4.4892258579409816E-3</v>
       </c>
-      <c r="N45" s="63">
-        <f t="shared" si="38"/>
+      <c r="N45" s="57">
+        <f t="shared" si="39"/>
         <v>8.9250835898963654E-2</v>
       </c>
-      <c r="O45" s="63">
-        <f t="shared" si="38"/>
+      <c r="O45" s="57">
+        <f t="shared" si="39"/>
         <v>3.619730723642256E-2</v>
       </c>
-      <c r="P45" s="63">
-        <f t="shared" si="38"/>
+      <c r="P45" s="57">
+        <f t="shared" si="39"/>
         <v>1.4782659705519841E-2</v>
       </c>
-      <c r="Q45" s="63">
-        <f t="shared" si="38"/>
+      <c r="Q45" s="57">
+        <f t="shared" si="39"/>
         <v>5.014740736458756E-2</v>
       </c>
-      <c r="R45" s="63">
-        <f t="shared" si="38"/>
+      <c r="R45" s="57">
+        <f t="shared" si="39"/>
         <v>5.1523408471637389E-2</v>
       </c>
-      <c r="S45" s="63">
-        <f t="shared" si="38"/>
+      <c r="S45" s="57">
+        <f t="shared" si="39"/>
         <v>3.8921607119486445E-2</v>
       </c>
-      <c r="T45" s="63">
-        <f t="shared" si="38"/>
+      <c r="T45" s="57">
+        <f t="shared" si="39"/>
         <v>1.3881890557291721E-2</v>
       </c>
-      <c r="U45" s="63">
-        <f t="shared" si="38"/>
+      <c r="U45" s="57">
+        <f t="shared" si="39"/>
         <v>2.8402455085356548E-2</v>
       </c>
-      <c r="V45" s="63">
-        <f t="shared" si="38"/>
+      <c r="V45" s="57">
+        <f t="shared" si="39"/>
         <v>2.824626685352527E-2</v>
       </c>
-      <c r="W45" s="63">
-        <f t="shared" si="38"/>
+      <c r="W45" s="57">
+        <f t="shared" si="39"/>
         <v>-1.8023733991305302E-2</v>
       </c>
-      <c r="X45" s="63">
+      <c r="X45" s="57">
         <f>IFERROR(+X37/W37-1,"n/a")</f>
         <v>-3.9269646788551604E-2</v>
       </c>
@@ -20138,65 +20124,65 @@
         <v>578</v>
       </c>
       <c r="F47" s="15" t="str">
-        <f t="shared" ref="F47:F49" si="41">IFERROR(+F39/E39-1,"n/a")</f>
+        <f t="shared" ref="F47:F49" si="42">IFERROR(+F39/E39-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="G47" s="15">
-        <f t="shared" ref="G47:G49" si="42">IFERROR(+G39/F39-1,"n/a")</f>
+        <f t="shared" ref="G47:G49" si="43">IFERROR(+G39/F39-1,"n/a")</f>
         <v>-3.2179930795847689E-2</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" ref="H47:H49" si="43">IFERROR(+H39/G39-1,"n/a")</f>
+        <f t="shared" ref="H47:H49" si="44">IFERROR(+H39/G39-1,"n/a")</f>
         <v>-8.0443332141580282E-2</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
       <c r="L47" s="15" t="str">
-        <f t="shared" ref="L47:L49" si="44">IFERROR(+L39/K39-1,"n/a")</f>
+        <f t="shared" ref="L47:L49" si="45">IFERROR(+L39/K39-1,"n/a")</f>
         <v>n/a</v>
       </c>
       <c r="M47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6.553984132459556E-3</v>
       </c>
       <c r="N47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.1651816312542862E-2</v>
       </c>
       <c r="O47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-6.8376025676818442E-3</v>
       </c>
       <c r="P47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-2.48859557656127E-2</v>
       </c>
       <c r="Q47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0025062656641603E-2</v>
       </c>
       <c r="R47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6.0262318326833597E-3</v>
       </c>
       <c r="S47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-3.5522425432995219E-2</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-3.7698316986432334E-2</v>
       </c>
       <c r="U47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-2.0880789673500377E-2</v>
       </c>
       <c r="V47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-8.1426909654905844E-3</v>
       </c>
       <c r="W47" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1.6153129270075284E-2</v>
       </c>
       <c r="X47" s="15">
@@ -20212,65 +20198,65 @@
         <v>579</v>
       </c>
       <c r="F48" s="15" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>n/a</v>
       </c>
       <c r="G48" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.7565084226646386E-2</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-6.6929133858267709E-2</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
       <c r="L48" s="15" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>n/a</v>
       </c>
       <c r="M48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5.9347181008901906E-3</v>
       </c>
       <c r="N48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-5.9734513274336321E-2</v>
       </c>
       <c r="O48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.1171388784392926</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.12451420806994762</v>
       </c>
       <c r="Q48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.8869286287088958E-2</v>
       </c>
       <c r="R48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-3.1176929072487258E-3</v>
       </c>
       <c r="S48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>7.6210588913737443E-2</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.10277957355109479</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-3.4008097165991846E-2</v>
       </c>
       <c r="V48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8.3822296730931001E-3</v>
       </c>
       <c r="W48" s="15">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-2.9509630424973121E-4</v>
       </c>
       <c r="X48" s="15">
@@ -20285,69 +20271,69 @@
       <c r="E49" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="F49" s="63" t="str">
-        <f t="shared" si="41"/>
+      <c r="F49" s="57" t="str">
+        <f t="shared" si="42"/>
         <v>n/a</v>
       </c>
-      <c r="G49" s="63">
-        <f t="shared" si="42"/>
+      <c r="G49" s="57">
+        <f t="shared" si="43"/>
         <v>1.8714760066562697E-4</v>
       </c>
-      <c r="H49" s="63">
-        <f t="shared" si="43"/>
+      <c r="H49" s="57">
+        <f t="shared" si="44"/>
         <v>-7.8046062257750903E-2</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
-      <c r="L49" s="63" t="str">
-        <f t="shared" si="44"/>
+      <c r="L49" s="57" t="str">
+        <f t="shared" si="45"/>
         <v>n/a</v>
       </c>
-      <c r="M49" s="63">
-        <f t="shared" si="38"/>
+      <c r="M49" s="57">
+        <f t="shared" si="39"/>
         <v>3.8688880536839054E-2</v>
       </c>
-      <c r="N49" s="63">
-        <f t="shared" si="38"/>
+      <c r="N49" s="57">
+        <f t="shared" si="39"/>
         <v>-2.3413177038095645E-2</v>
       </c>
-      <c r="O49" s="63">
-        <f t="shared" si="38"/>
+      <c r="O49" s="57">
+        <f t="shared" si="39"/>
         <v>2.885853387316395E-2</v>
       </c>
-      <c r="P49" s="63">
-        <f t="shared" si="38"/>
+      <c r="P49" s="57">
+        <f t="shared" si="39"/>
         <v>-3.3535259795943073E-2</v>
       </c>
-      <c r="Q49" s="63">
-        <f t="shared" si="38"/>
+      <c r="Q49" s="57">
+        <f t="shared" si="39"/>
         <v>1.7631386311102171E-2</v>
       </c>
-      <c r="R49" s="63">
-        <f t="shared" si="38"/>
+      <c r="R49" s="57">
+        <f t="shared" si="39"/>
         <v>7.9870173052551952E-3</v>
       </c>
-      <c r="S49" s="63">
-        <f t="shared" si="38"/>
+      <c r="S49" s="57">
+        <f t="shared" si="39"/>
         <v>-1.8769386229742113E-2</v>
       </c>
-      <c r="T49" s="63">
-        <f t="shared" si="38"/>
+      <c r="T49" s="57">
+        <f t="shared" si="39"/>
         <v>-4.9586945372707691E-2</v>
       </c>
-      <c r="U49" s="63">
-        <f t="shared" si="38"/>
+      <c r="U49" s="57">
+        <f t="shared" si="39"/>
         <v>-2.1786750623926765E-2</v>
       </c>
-      <c r="V49" s="63">
-        <f t="shared" si="38"/>
+      <c r="V49" s="57">
+        <f t="shared" si="39"/>
         <v>-9.2913084346182284E-3</v>
       </c>
-      <c r="W49" s="63">
-        <f t="shared" si="38"/>
+      <c r="W49" s="57">
+        <f t="shared" si="39"/>
         <v>-1.3942845182056685E-2</v>
       </c>
-      <c r="X49" s="63">
+      <c r="X49" s="57">
         <f>IFERROR(+X41/W41-1,"n/a")</f>
         <v>-2.9965804598571788E-2</v>
       </c>
@@ -20398,46 +20384,46 @@
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
-      <c r="L51" s="62">
-        <f t="shared" ref="L51:V51" ca="1" si="45">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A51) / $B$3</f>
+      <c r="L51" s="56">
+        <f t="shared" ref="L51:V51" ca="1" si="46">SUMIFS(INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; L$2 &amp; L$1 &amp; "'!A:A"), $A51) / $B$3</f>
         <v>16.395</v>
       </c>
-      <c r="M51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="M51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>-4.3920000000000003</v>
       </c>
-      <c r="N51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="N51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>18.062999999999999</v>
       </c>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>-1.611</v>
       </c>
-      <c r="Q51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="Q51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>6.7530000000000001</v>
       </c>
-      <c r="R51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="R51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>16.670999999999999</v>
       </c>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>24.617000000000001</v>
       </c>
-      <c r="U51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="U51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>27.395</v>
       </c>
-      <c r="V51" s="62">
-        <f t="shared" ca="1" si="45"/>
+      <c r="V51" s="56">
+        <f t="shared" ca="1" si="46"/>
         <v>-613.19899999999996</v>
       </c>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62">
+      <c r="W51" s="56"/>
+      <c r="X51" s="56">
         <f ca="1">SUMIFS(INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!E:E"), INDIRECT("'is_q" &amp; X$2 &amp; X$1 &amp; "'!A:A"), $A51) / $B$3</f>
         <v>13.444000000000001</v>
       </c>
@@ -20617,79 +20603,78 @@
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:25" s="49" customFormat="1">
-      <c r="A57" s="47" t="s">
+    <row r="57" spans="1:25">
+      <c r="A57" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="E57" s="49" t="s">
+      <c r="B57" s="33"/>
+      <c r="E57" t="s">
         <v>564</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="39">
         <f>+bs_fy22!C16/B3</f>
         <v>402.55900000000003</v>
       </c>
-      <c r="G57" s="50">
-        <f t="shared" ref="G57:H60" ca="1" si="46">SUMIFS(INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!B:B"), $A57) / $B$3</f>
+      <c r="G57" s="39">
+        <f t="shared" ref="G57:H60" ca="1" si="47">SUMIFS(INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!C:C"), INDIRECT("'bs_fy" &amp; G$2 &amp; G$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>355.642</v>
       </c>
-      <c r="H57" s="50">
-        <f t="shared" ca="1" si="46"/>
+      <c r="H57" s="39">
+        <f t="shared" ca="1" si="47"/>
         <v>204.31899999999999</v>
       </c>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50">
-        <f t="shared" ref="L57:R60" ca="1" si="47">SUMIFS(INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!B:B"), $A57) / $B$3</f>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39">
+        <f t="shared" ref="L57:R60" ca="1" si="48">SUMIFS(INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; L$2 &amp; L$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>308.78800000000001</v>
       </c>
-      <c r="M57" s="50">
+      <c r="M57" s="39">
         <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; M$2 &amp; M$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>334.64499999999998</v>
       </c>
-      <c r="N57" s="50">
-        <f t="shared" ca="1" si="47"/>
+      <c r="N57" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>365.10500000000002</v>
       </c>
-      <c r="O57" s="50">
+      <c r="O57" s="39">
         <f>F57</f>
         <v>402.55900000000003</v>
       </c>
-      <c r="P57" s="50">
-        <f t="shared" ca="1" si="47"/>
+      <c r="P57" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>388.95499999999998</v>
       </c>
-      <c r="Q57" s="50">
-        <f t="shared" ca="1" si="47"/>
+      <c r="Q57" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>381.01900000000001</v>
       </c>
-      <c r="R57" s="50">
-        <f t="shared" ca="1" si="47"/>
+      <c r="R57" s="39">
+        <f t="shared" ca="1" si="48"/>
         <v>439.18400000000003</v>
       </c>
-      <c r="S57" s="50">
+      <c r="S57" s="39">
         <f ca="1">+G57</f>
         <v>355.642</v>
       </c>
-      <c r="T57" s="50">
-        <f t="shared" ref="T57:V60" ca="1" si="48">SUMIFS(INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!B:B"), $A57) / $B$3</f>
+      <c r="T57" s="39">
+        <f t="shared" ref="T57:V60" ca="1" si="49">SUMIFS(INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; T$2 &amp; T$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>262.69900000000001</v>
       </c>
-      <c r="U57" s="50">
-        <f t="shared" ca="1" si="48"/>
+      <c r="U57" s="39">
+        <f t="shared" ca="1" si="49"/>
         <v>286.66399999999999</v>
       </c>
-      <c r="V57" s="50">
-        <f t="shared" ca="1" si="48"/>
+      <c r="V57" s="39">
+        <f t="shared" ca="1" si="49"/>
         <v>252.05699999999999</v>
       </c>
-      <c r="W57" s="50">
+      <c r="W57" s="39">
         <f ca="1">H57</f>
         <v>204.31899999999999</v>
       </c>
-      <c r="X57" s="50">
+      <c r="X57" s="39">
         <f ca="1">SUMIFS(INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!C:C"), INDIRECT("'bs_q" &amp; X$2 &amp; X$1 &amp; "'!B:B"), $A57) / $B$3</f>
         <v>202.24299999999999</v>
       </c>
@@ -20707,11 +20692,11 @@
         <v>3692.6210000000001</v>
       </c>
       <c r="G58" s="38">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="47"/>
         <v>3625.127</v>
       </c>
       <c r="H58" s="38">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="47"/>
         <v>2524.8870000000002</v>
       </c>
       <c r="I58" s="12"/>
@@ -20734,15 +20719,15 @@
         <v>3692.6210000000001</v>
       </c>
       <c r="P58" s="38">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>3702.5920000000001</v>
       </c>
       <c r="Q58" s="38">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>3692.297</v>
       </c>
       <c r="R58" s="38">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>3733.1930000000002</v>
       </c>
       <c r="S58" s="38">
@@ -20750,15 +20735,15 @@
         <v>3625.127</v>
       </c>
       <c r="T58" s="38">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>3516.9490000000001</v>
       </c>
       <c r="U58" s="38">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>3524.24</v>
       </c>
       <c r="V58" s="38">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>2589.4119999999998</v>
       </c>
       <c r="W58" s="38">
@@ -20783,11 +20768,11 @@
         <v>1627.8150000000001</v>
       </c>
       <c r="G59" s="39">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="47"/>
         <v>1635.0150000000001</v>
       </c>
       <c r="H59" s="39">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="47"/>
         <v>824.53499999999997</v>
       </c>
       <c r="I59" s="12"/>
@@ -20810,15 +20795,15 @@
         <v>1627.8150000000001</v>
       </c>
       <c r="P59" s="39">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>1724.2070000000001</v>
       </c>
       <c r="Q59" s="39">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>1665.3040000000001</v>
       </c>
       <c r="R59" s="39">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>1689.723</v>
       </c>
       <c r="S59" s="39">
@@ -20826,15 +20811,15 @@
         <v>1635.0150000000001</v>
       </c>
       <c r="T59" s="39">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>1604.345</v>
       </c>
       <c r="U59" s="39">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>1652.9269999999999</v>
       </c>
       <c r="V59" s="39">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>852.56200000000001</v>
       </c>
       <c r="W59" s="39">
@@ -20859,11 +20844,11 @@
         <v>825.76400000000001</v>
       </c>
       <c r="G60" s="39">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="47"/>
         <v>702.25800000000004</v>
       </c>
       <c r="H60" s="39">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="47"/>
         <v>524.51900000000001</v>
       </c>
       <c r="I60" s="12"/>
@@ -20886,15 +20871,15 @@
         <v>825.76400000000001</v>
       </c>
       <c r="P60" s="39">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>712.48900000000003</v>
       </c>
       <c r="Q60" s="39">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>781.02800000000002</v>
       </c>
       <c r="R60" s="39">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="48"/>
         <v>790.43600000000004</v>
       </c>
       <c r="S60" s="39">
@@ -20902,15 +20887,15 @@
         <v>702.25800000000004</v>
       </c>
       <c r="T60" s="39">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>658.85199999999998</v>
       </c>
       <c r="U60" s="39">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>645.07100000000003</v>
       </c>
       <c r="V60" s="39">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="49"/>
         <v>514.30100000000004</v>
       </c>
       <c r="W60" s="39">
@@ -20944,55 +20929,55 @@
       <c r="J61" s="12"/>
       <c r="K61" s="39"/>
       <c r="L61" s="38">
-        <f t="shared" ref="L61:X61" si="49">SUM(L59:L60)</f>
+        <f t="shared" ref="L61:X61" si="50">SUM(L59:L60)</f>
         <v>2509.145</v>
       </c>
       <c r="M61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2516.5140000000001</v>
       </c>
       <c r="N61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2562.3040000000001</v>
       </c>
       <c r="O61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2453.5790000000002</v>
       </c>
       <c r="P61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2436.6959999999999</v>
       </c>
       <c r="Q61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2446.3320000000003</v>
       </c>
       <c r="R61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2480.1590000000001</v>
       </c>
       <c r="S61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2337.2730000000001</v>
       </c>
       <c r="T61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2263.1970000000001</v>
       </c>
       <c r="U61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2297.998</v>
       </c>
       <c r="V61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>1366.8630000000001</v>
       </c>
       <c r="W61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>1349.0540000000001</v>
       </c>
       <c r="X61" s="38">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="50"/>
         <v>1354.241</v>
       </c>
     </row>
@@ -21018,55 +21003,55 @@
       <c r="J62" s="12"/>
       <c r="K62" s="39"/>
       <c r="L62" s="38">
-        <f t="shared" ref="L62:X62" si="50">+L58-L61</f>
+        <f t="shared" ref="L62:X62" si="51">+L58-L61</f>
         <v>1286.2570000000001</v>
       </c>
       <c r="M62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1251.3049999999998</v>
       </c>
       <c r="N62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1230.5340000000001</v>
       </c>
       <c r="O62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1239.0419999999999</v>
       </c>
       <c r="P62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1265.8960000000002</v>
       </c>
       <c r="Q62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1245.9649999999997</v>
       </c>
       <c r="R62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1253.0340000000001</v>
       </c>
       <c r="S62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1287.8539999999998</v>
       </c>
       <c r="T62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1253.752</v>
       </c>
       <c r="U62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1226.2419999999997</v>
       </c>
       <c r="V62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1222.5489999999998</v>
       </c>
       <c r="W62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1175.8330000000001</v>
       </c>
       <c r="X62" s="38">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1154.0509999999999</v>
       </c>
     </row>
@@ -21314,35 +21299,35 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="L69" s="14" t="str">
-        <f t="shared" ref="L69:O69" si="51">L55</f>
+        <f t="shared" ref="L69:O69" si="52">L55</f>
         <v>Mar 22</v>
       </c>
       <c r="M69" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Jun 22</v>
       </c>
       <c r="N69" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Sep 22</v>
       </c>
       <c r="O69" s="14" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>Dec 22</v>
       </c>
       <c r="P69" s="14" t="str">
-        <f t="shared" ref="P69" si="52">P55</f>
+        <f t="shared" ref="P69" si="53">P55</f>
         <v>Mar 23</v>
       </c>
       <c r="Q69" s="14" t="str">
-        <f t="shared" ref="Q69:S69" si="53">Q55</f>
+        <f t="shared" ref="Q69:S69" si="54">Q55</f>
         <v>Jun 23</v>
       </c>
       <c r="R69" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Sep 23</v>
       </c>
       <c r="S69" s="14" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>Dec 23</v>
       </c>
       <c r="T69" s="14" t="str">
@@ -21350,19 +21335,19 @@
         <v>Mar 24</v>
       </c>
       <c r="U69" s="14" t="str">
-        <f t="shared" ref="U69:X69" si="54">U55</f>
+        <f t="shared" ref="U69:X69" si="55">U55</f>
         <v>Jun 24</v>
       </c>
       <c r="V69" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Sep 24</v>
       </c>
       <c r="W69" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Dec 24</v>
       </c>
       <c r="X69" s="14" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>Mar 25</v>
       </c>
     </row>
@@ -21537,35 +21522,35 @@
       <c r="J73" s="38"/>
       <c r="K73" s="39"/>
       <c r="L73" s="38">
-        <f t="shared" ref="L73:R73" si="55">+L71+L72</f>
+        <f t="shared" ref="L73:R73" si="56">+L71+L72</f>
         <v>-55.35799999999999</v>
       </c>
       <c r="M73" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>22.355999999999991</v>
       </c>
       <c r="N73" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>33.74</v>
       </c>
       <c r="O73" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>46.150000000000006</v>
       </c>
       <c r="P73" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.5779999999999994</v>
       </c>
       <c r="Q73" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>30.434999999999999</v>
       </c>
       <c r="R73" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>59.067000000000007</v>
       </c>
       <c r="S73" s="38">
-        <f t="shared" ref="S73:S75" si="56">G73-SUM(P73:R73)</f>
+        <f t="shared" ref="S73:S75" si="57">G73-SUM(P73:R73)</f>
         <v>61.251000000000005</v>
       </c>
       <c r="T73" s="38">
@@ -21581,7 +21566,7 @@
         <v>74.44</v>
       </c>
       <c r="W73" s="38">
-        <f t="shared" ref="W73:W75" si="57">H73-SUM(T73:V73)</f>
+        <f t="shared" ref="W73:W75" si="58">H73-SUM(T73:V73)</f>
         <v>-8.5669999999999931</v>
       </c>
       <c r="X73" s="38">
@@ -21623,7 +21608,7 @@
         <v>-2.5959999999999974</v>
       </c>
       <c r="O74" s="39">
-        <f t="shared" ref="O74:O75" si="58">F74-SUM(L74:N74)</f>
+        <f t="shared" ref="O74:O75" si="59">F74-SUM(L74:N74)</f>
         <v>-3.2890000000000015</v>
       </c>
       <c r="P74" s="39">
@@ -21639,7 +21624,7 @@
         <v>-3.654999999999994</v>
       </c>
       <c r="S74" s="39">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-140.536</v>
       </c>
       <c r="T74" s="39">
@@ -21655,7 +21640,7 @@
         <v>-106.746</v>
       </c>
       <c r="W74" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-43.079000000000008</v>
       </c>
       <c r="X74" s="39">
@@ -21694,7 +21679,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="39">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="P75" s="39">
@@ -21709,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="39">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-91.94</v>
       </c>
       <c r="T75" s="39">
@@ -21725,7 +21710,7 @@
         <v>-89.734999999999985</v>
       </c>
       <c r="W75" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-40.27000000000001</v>
       </c>
       <c r="X75" s="39">
@@ -21780,7 +21765,7 @@
       <c r="U78" s="23"/>
       <c r="V78" s="23"/>
       <c r="W78" s="23"/>
-      <c r="X78" s="56">
+      <c r="X78" s="51">
         <v>103.291444</v>
       </c>
       <c r="Y78" s="44"/>
@@ -21982,31 +21967,31 @@
       <c r="X85" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Y85" s="53">
+      <c r="Y85" s="48">
         <v>243</v>
       </c>
-      <c r="Z85" s="53">
+      <c r="Z85" s="48">
         <v>240</v>
       </c>
-      <c r="AA85" s="53">
+      <c r="AA85" s="48">
         <v>233</v>
       </c>
-      <c r="AB85" s="53">
+      <c r="AB85" s="48">
         <v>226</v>
       </c>
-      <c r="AC85" s="53">
+      <c r="AC85" s="48">
         <v>224</v>
       </c>
-      <c r="AD85" s="53">
+      <c r="AD85" s="48">
         <v>225</v>
       </c>
-      <c r="AE85" s="53">
+      <c r="AE85" s="48">
         <v>226</v>
       </c>
-      <c r="AF85" s="53">
+      <c r="AF85" s="48">
         <v>225</v>
       </c>
-      <c r="AG85" s="53">
+      <c r="AG85" s="48">
         <v>231</v>
       </c>
     </row>
@@ -22031,31 +22016,31 @@
       <c r="X86" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Y86" s="53">
+      <c r="Y86" s="48">
         <v>85.32</v>
       </c>
-      <c r="Z86" s="53">
+      <c r="Z86" s="48">
         <v>75.78</v>
       </c>
-      <c r="AA86" s="53">
+      <c r="AA86" s="48">
         <v>70.62</v>
       </c>
-      <c r="AB86" s="53">
+      <c r="AB86" s="48">
         <v>63.9</v>
       </c>
-      <c r="AC86" s="53">
+      <c r="AC86" s="48">
         <v>67.28</v>
       </c>
-      <c r="AD86" s="53">
+      <c r="AD86" s="48">
         <v>69.739999999999995</v>
       </c>
-      <c r="AE86" s="53">
+      <c r="AE86" s="48">
         <v>68.010000000000005</v>
       </c>
-      <c r="AF86" s="53">
+      <c r="AF86" s="48">
         <v>72.989999999999995</v>
       </c>
-      <c r="AG86" s="53">
+      <c r="AG86" s="48">
         <v>71.849999999999994</v>
       </c>
     </row>
@@ -22080,31 +22065,31 @@
       <c r="X87" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="Y87" s="54">
+      <c r="Y87" s="49">
         <v>41.68</v>
       </c>
-      <c r="Z87" s="54">
+      <c r="Z87" s="49">
         <v>30.75</v>
       </c>
-      <c r="AA87" s="54">
+      <c r="AA87" s="49">
         <v>22.6</v>
       </c>
-      <c r="AB87" s="54">
+      <c r="AB87" s="49">
         <v>22.61</v>
       </c>
-      <c r="AC87" s="54">
+      <c r="AC87" s="49">
         <v>14.14</v>
       </c>
-      <c r="AD87" s="54">
+      <c r="AD87" s="49">
         <v>38.39</v>
       </c>
-      <c r="AE87" s="54">
+      <c r="AE87" s="49">
         <v>26.95</v>
       </c>
-      <c r="AF87" s="54">
+      <c r="AF87" s="49">
         <v>21.27</v>
       </c>
-      <c r="AG87" s="54">
+      <c r="AG87" s="49">
         <v>16.39</v>
       </c>
     </row>
@@ -22127,15 +22112,15 @@
       <c r="V88" s="12"/>
       <c r="W88" s="12"/>
       <c r="X88" s="12"/>
-      <c r="Y88" s="55"/>
-      <c r="Z88" s="55"/>
-      <c r="AA88" s="55"/>
-      <c r="AB88" s="55"/>
-      <c r="AC88" s="55"/>
-      <c r="AD88" s="55"/>
-      <c r="AE88" s="55"/>
-      <c r="AF88" s="55"/>
-      <c r="AG88" s="55"/>
+      <c r="Y88" s="50"/>
+      <c r="Z88" s="50"/>
+      <c r="AA88" s="50"/>
+      <c r="AB88" s="50"/>
+      <c r="AC88" s="50"/>
+      <c r="AD88" s="50"/>
+      <c r="AE88" s="50"/>
+      <c r="AF88" s="50"/>
+      <c r="AG88" s="50"/>
     </row>
     <row r="89" spans="6:33">
       <c r="F89" s="12"/>
@@ -22158,29 +22143,29 @@
       <c r="X89" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="Y89" s="55">
+      <c r="Y89" s="50">
         <v>0.34</v>
       </c>
-      <c r="Z89" s="55">
+      <c r="Z89" s="50">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AA89" s="55">
+      <c r="AA89" s="50">
         <v>0.23</v>
       </c>
-      <c r="AB89" s="55">
+      <c r="AB89" s="50">
         <v>0.2</v>
       </c>
-      <c r="AC89" s="55">
+      <c r="AC89" s="50">
         <v>0.21</v>
       </c>
-      <c r="AD89" s="55">
+      <c r="AD89" s="50">
         <v>0.33</v>
       </c>
-      <c r="AE89" s="55">
+      <c r="AE89" s="50">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AF89" s="55"/>
-      <c r="AG89" s="55"/>
+      <c r="AF89" s="50"/>
+      <c r="AG89" s="50"/>
     </row>
     <row r="90" spans="6:33">
       <c r="F90" s="12"/>

--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72EE4CC-7495-4C68-83E8-E69A2D7C0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF0559-474B-4508-8B5F-22F9CC4B997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="576">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -1865,9 +1865,6 @@
   </si>
   <si>
     <t>30 Jun</t>
-  </si>
-  <si>
-    <t>WACC</t>
   </si>
   <si>
     <t>discount factor</t>
@@ -17180,8 +17177,8 @@
   </sheetPr>
   <dimension ref="A1:AG750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA44" sqref="AA44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -17407,7 +17404,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF9" s="12"/>
+      <c r="AF9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="AG9" s="12"/>
     </row>
     <row r="10" spans="1:33" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -19604,7 +19603,7 @@
         <v>3.7772000000000001</v>
       </c>
       <c r="Z37" t="s">
-        <v>573</v>
+        <v>29</v>
       </c>
       <c r="AA37" s="15">
         <v>0.1</v>
@@ -19720,7 +19719,7 @@
         <v>26.85</v>
       </c>
       <c r="Z39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AE39" s="15"/>
       <c r="AF39" s="15">
@@ -19789,7 +19788,7 @@
         <v>11.57</v>
       </c>
       <c r="Z40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AA40" s="54">
         <f>1/(1+AA37)^AA9</f>
@@ -20020,7 +20019,7 @@
         <v>-7.7019642593413096E-2</v>
       </c>
       <c r="Z43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AA43" s="38">
         <f ca="1">+SUM(AA41:AF41)</f>

--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEF0559-474B-4508-8B5F-22F9CC4B997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54D59E-449D-4ED6-B7FF-5A32275615A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="580">
   <si>
     <r>
       <t xml:space="preserve">This Excel file is intended </t>
@@ -1875,6 +1875,18 @@
   <si>
     <t>Fair Value</t>
   </si>
+  <si>
+    <t>Shareprice</t>
+  </si>
+  <si>
+    <t>0 due to impairment</t>
+  </si>
+  <si>
+    <t>Revenue growth rate</t>
+  </si>
+  <si>
+    <t>$BMBL price per share</t>
+  </si>
 </sst>
 </file>
 
@@ -1892,7 +1904,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1995,8 +2007,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2024,6 +2050,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,7 +2123,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2185,6 +2229,25 @@
     </xf>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,9 +2289,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066CC"/>
       <color rgb="FF0366CC"/>
       <color rgb="FF009900"/>
-      <color rgb="FF0066CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -17175,10 +17238,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:AG750"/>
+  <dimension ref="A1:AO750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -17190,7 +17253,8 @@
     <col min="8" max="8" width="10.140625" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="2.85546875" customWidth="1" outlineLevel="1"/>
     <col min="10" max="18" width="8.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
+    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -17658,7 +17722,7 @@
       </c>
       <c r="AF13" s="37">
         <f t="shared" si="5"/>
-        <v>1090.75822817472</v>
+        <v>1096.1314214169602</v>
       </c>
       <c r="AG13" s="38"/>
     </row>
@@ -18156,11 +18220,11 @@
         <v>228.34399999999999</v>
       </c>
       <c r="AB19" s="37">
-        <f t="shared" ref="AB19:AF19" si="11">AB13*AB30</f>
+        <f>AB13*AB30</f>
         <v>232.91087999999999</v>
       </c>
       <c r="AC19" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AB19:AF19" si="11">AC13*AC30</f>
         <v>237.56909760000002</v>
       </c>
       <c r="AD19" s="37">
@@ -18173,7 +18237,7 @@
       </c>
       <c r="AF19" s="37">
         <f t="shared" si="11"/>
-        <v>250.87439248018561</v>
+        <v>252.11022692590086</v>
       </c>
       <c r="AG19" s="38"/>
     </row>
@@ -18367,7 +18431,7 @@
       </c>
       <c r="AF21" s="39">
         <f ca="1">+AE21*(1+$AF$39)</f>
-        <v>-38.915100000000002</v>
+        <v>-39.106800000000007</v>
       </c>
       <c r="AG21" s="38"/>
     </row>
@@ -18466,7 +18530,7 @@
       </c>
       <c r="AF22" s="37">
         <f t="shared" ca="1" si="15"/>
-        <v>211.95929248018561</v>
+        <v>213.00342692590084</v>
       </c>
       <c r="AG22" s="38"/>
     </row>
@@ -18567,7 +18631,7 @@
       </c>
       <c r="AF23" s="39">
         <f>+AE23*(1+$AF$39)</f>
-        <v>-10.412884999999999</v>
+        <v>-10.464180000000001</v>
       </c>
       <c r="AG23" s="38"/>
     </row>
@@ -18666,7 +18730,7 @@
       </c>
       <c r="AF24" s="37">
         <f t="shared" ca="1" si="23"/>
-        <v>201.54640748018562</v>
+        <v>202.53924692590084</v>
       </c>
       <c r="AG24" s="38"/>
     </row>
@@ -18745,16 +18809,17 @@
       <c r="W25" s="50">
         <v>-6.4690000000000003</v>
       </c>
+      <c r="Z25" t="s">
+        <v>577</v>
+      </c>
       <c r="AA25" s="38">
-        <f ca="1">+AA24*-AA32</f>
-        <v>-44.936250000000001</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="38">
-        <f t="shared" ref="AB25:AF25" ca="1" si="25">+AB24*-AB32</f>
-        <v>-46.077969999999993</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="38">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="AC25:AF25" ca="1" si="25">+AC24*-AC32</f>
         <v>-47.242524400000008</v>
       </c>
       <c r="AD25" s="38">
@@ -18767,7 +18832,7 @@
       </c>
       <c r="AF25" s="38">
         <f t="shared" ca="1" si="25"/>
-        <v>-50.386601870046405</v>
+        <v>-50.63481173147521</v>
       </c>
       <c r="AG25" s="38"/>
     </row>
@@ -18868,7 +18933,7 @@
       </c>
       <c r="AF26" s="39">
         <f t="shared" ref="AF26" ca="1" si="28">+AF24*-AF34</f>
-        <v>-40.30928149603713</v>
+        <v>-40.507849385180172</v>
       </c>
       <c r="AG26" s="38"/>
     </row>
@@ -18947,11 +19012,11 @@
       </c>
       <c r="AA27" s="37">
         <f ca="1">SUM(AA24:AA26)</f>
-        <v>98.859749999999991</v>
+        <v>143.79599999999999</v>
       </c>
       <c r="AB27" s="37">
         <f t="shared" ref="AB27:AF27" ca="1" si="35">SUM(AB24:AB26)</f>
-        <v>101.37153399999998</v>
+        <v>147.44950399999999</v>
       </c>
       <c r="AC27" s="37">
         <f t="shared" ca="1" si="35"/>
@@ -18967,7 +19032,7 @@
       </c>
       <c r="AF27" s="37">
         <f t="shared" ca="1" si="35"/>
-        <v>110.85052411410209</v>
+        <v>111.39658580924544</v>
       </c>
       <c r="AG27" s="38"/>
     </row>
@@ -19072,7 +19137,7 @@
       </c>
       <c r="AF29" s="15">
         <f>+AF39</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AG29" s="38"/>
     </row>
@@ -19156,11 +19221,11 @@
         <v>0.23</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" ref="AC30:AE30" si="40">+AB30</f>
+        <f>+AB30</f>
         <v>0.23</v>
       </c>
       <c r="AD30" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AC30:AE30" si="40">+AC30</f>
         <v>0.23</v>
       </c>
       <c r="AE30" s="15">
@@ -19350,7 +19415,7 @@
       </c>
       <c r="AG32" s="38"/>
     </row>
-    <row r="33" spans="1:33" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="38"/>
       <c r="AB33" s="38"/>
       <c r="AC33" s="38"/>
@@ -19359,7 +19424,7 @@
       <c r="AF33" s="38"/>
       <c r="AG33" s="38"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="E34" s="2" t="s">
@@ -19392,7 +19457,7 @@
       </c>
       <c r="AG34" s="38"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="E35" s="3" t="s">
@@ -19460,7 +19525,7 @@
       <c r="AF35" s="38"/>
       <c r="AG35" s="38"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="E36" s="3" t="s">
@@ -19528,7 +19593,7 @@
       <c r="AF36" s="38"/>
       <c r="AG36" s="38"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="E37" s="42" t="s">
@@ -19626,11 +19691,11 @@
       </c>
       <c r="AF37" s="15">
         <f>AE37-AF39</f>
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AG37" s="38"/>
     </row>
-    <row r="38" spans="1:33" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="F38" s="47"/>
@@ -19658,7 +19723,7 @@
       <c r="AF38" s="38"/>
       <c r="AG38" s="38"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="E39" s="3" t="s">
@@ -19723,11 +19788,11 @@
       </c>
       <c r="AE39" s="15"/>
       <c r="AF39" s="15">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AG39" s="38"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="E40" s="3" t="s">
@@ -19812,11 +19877,11 @@
       </c>
       <c r="AF40" s="38">
         <f>AE40/AF37</f>
-        <v>7.3049567418724104</v>
+        <v>7.7615165382394364</v>
       </c>
       <c r="AG40" s="38"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="E41" s="42" t="s">
@@ -19892,11 +19957,11 @@
       </c>
       <c r="AA41" s="38">
         <f ca="1">+AA40*AA27</f>
-        <v>89.872499999999988</v>
+        <v>130.72363636363636</v>
       </c>
       <c r="AB41" s="38">
         <f t="shared" ref="AB41:AF41" ca="1" si="53">+AB40*AB27</f>
-        <v>83.778127272727247</v>
+        <v>121.85909421487601</v>
       </c>
       <c r="AC41" s="38">
         <f t="shared" ca="1" si="53"/>
@@ -19912,11 +19977,11 @@
       </c>
       <c r="AF41" s="38">
         <f t="shared" ca="1" si="53"/>
-        <v>809.75828346740025</v>
+        <v>864.60644306186703</v>
       </c>
       <c r="AG41" s="38"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="F42" s="12"/>
@@ -19944,7 +20009,7 @@
       <c r="AF42" s="38"/>
       <c r="AG42" s="38"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="E43" s="3" t="s">
@@ -20023,10 +20088,10 @@
       </c>
       <c r="AA43" s="38">
         <f ca="1">+SUM(AA41:AF41)</f>
-        <v>1202.080905394263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+        <v>1335.861168294515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="E44" s="3" t="s">
@@ -20101,7 +20166,7 @@
         <v>-2.2123555079231361E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="E45" s="42" t="s">
@@ -20175,8 +20240,15 @@
         <f>IFERROR(+W37/V37-1,"n/a")</f>
         <v>-5.9157595835305332E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="Z45" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA45" s="38">
+        <f ca="1">AA43/W78</f>
+        <v>12.850769202744933</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="E46" s="3"/>
@@ -20197,8 +20269,11 @@
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI46" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="E47" s="3" t="s">
@@ -20272,8 +20347,17 @@
         <f>IFERROR(+W39/V39-1,"n/a")</f>
         <v>8.0917874396135403E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="AL47" s="56"/>
+      <c r="AM47" s="56"/>
+      <c r="AN47" s="56"/>
+      <c r="AO47" s="56"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="E48" s="3" t="s">
@@ -20347,8 +20431,32 @@
         <f>IFERROR(+W40/V40-1,"n/a")</f>
         <v>7.9291044776119257E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AI48" s="62"/>
+      <c r="AJ48" s="61">
+        <f ca="1">AA45</f>
+        <v>12.850769202744933</v>
+      </c>
+      <c r="AK48" s="57">
+        <f>AL48-0.01</f>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="57">
+        <f>AM48-0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="AM48" s="63">
+        <v>0.02</v>
+      </c>
+      <c r="AN48" s="57">
+        <f>+AM48+0.01</f>
+        <v>0.03</v>
+      </c>
+      <c r="AO48" s="57">
+        <f>+AN48+0.01</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="E49" s="42" t="s">
@@ -20422,8 +20530,31 @@
         <f>IFERROR(+W41/V41-1,"n/a")</f>
         <v>7.0971169899492592E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AI49" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ49" s="57">
+        <f>+AJ50-0.01</f>
+        <v>0.21</v>
+      </c>
+      <c r="AK49" s="59">
+        <f t="dataTable" ref="AK49:AO53" dt2D="1" dtr="1" r1="AB29" r2="AA30" ca="1"/>
+        <v>10.571448171006207</v>
+      </c>
+      <c r="AL49" s="59">
+        <v>11.00659794660103</v>
+      </c>
+      <c r="AM49" s="59">
+        <v>11.45389879415962</v>
+      </c>
+      <c r="AN49" s="59">
+        <v>11.913584652566493</v>
+      </c>
+      <c r="AO49" s="59">
+        <v>12.385891720985244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="F50" s="12"/>
@@ -20443,8 +20574,28 @@
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="57">
+        <f>+AJ51-0.01</f>
+        <v>0.22</v>
+      </c>
+      <c r="AK50" s="59">
+        <v>11.227861917053463</v>
+      </c>
+      <c r="AL50" s="58">
+        <v>11.683733110533757</v>
+      </c>
+      <c r="AM50" s="58">
+        <v>12.152333998452278</v>
+      </c>
+      <c r="AN50" s="58">
+        <v>12.633909659640427</v>
+      </c>
+      <c r="AO50" s="59">
+        <v>13.128707540841024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>546</v>
       </c>
@@ -20510,8 +20661,27 @@
       <c r="W51" s="51">
         <v>-253.744</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AI51" s="55"/>
+      <c r="AJ51" s="63">
+        <v>0.23</v>
+      </c>
+      <c r="AK51" s="59">
+        <v>11.884275663100722</v>
+      </c>
+      <c r="AL51" s="58">
+        <v>12.360868274466476</v>
+      </c>
+      <c r="AM51" s="60">
+        <v>12.850769202744933</v>
+      </c>
+      <c r="AN51" s="58">
+        <v>13.354234666714365</v>
+      </c>
+      <c r="AO51" s="59">
+        <v>13.871523360696806</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="11" t="b" cm="1">
@@ -20589,8 +20759,28 @@
         <f>+W51-W27</f>
         <v>2.8999999999996362E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AI52" s="55"/>
+      <c r="AJ52" s="57">
+        <f>+AJ51+0.01</f>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="AK52" s="59">
+        <v>12.540689409147976</v>
+      </c>
+      <c r="AL52" s="58">
+        <v>13.038003438399199</v>
+      </c>
+      <c r="AM52" s="58">
+        <v>13.549204407037591</v>
+      </c>
+      <c r="AN52" s="58">
+        <v>14.074559673788302</v>
+      </c>
+      <c r="AO52" s="59">
+        <v>14.614339180552591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="F53" s="12"/>
@@ -20610,8 +20800,28 @@
       <c r="U53" s="12"/>
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="AI53" s="55"/>
+      <c r="AJ53" s="57">
+        <f>+AJ52+0.01</f>
+        <v>0.25</v>
+      </c>
+      <c r="AK53" s="59">
+        <v>13.197103155195229</v>
+      </c>
+      <c r="AL53" s="59">
+        <v>13.715138602331923</v>
+      </c>
+      <c r="AM53" s="59">
+        <v>14.247639611330248</v>
+      </c>
+      <c r="AN53" s="59">
+        <v>14.794884680862236</v>
+      </c>
+      <c r="AO53" s="59">
+        <v>15.357155000408367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="E54" s="2" t="str">
@@ -20620,7 +20830,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="E55" s="6" t="str">
@@ -20679,11 +20889,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
         <v>137</v>
       </c>
@@ -20760,7 +20970,7 @@
         <v>261.73899999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
         <v>17</v>
       </c>
@@ -20837,7 +21047,7 @@
         <v>2161.4949999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
         <v>92</v>
       </c>
@@ -20914,7 +21124,7 @@
         <v>577.61099999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
         <v>91</v>
       </c>
@@ -20991,7 +21201,7 @@
         <v>426.88200000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="E61" s="10" t="s">
@@ -21067,7 +21277,7 @@
         <v>1004.4929999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="E62" s="10" t="s">
@@ -21143,7 +21353,7 @@
         <v>1157.002</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="E63" s="9"/>
@@ -21165,7 +21375,7 @@
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="F64" s="12"/>
@@ -34643,6 +34853,10 @@
       <c r="W750" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AI49:AI53"/>
+    <mergeCell ref="AK47:AO47"/>
+  </mergeCells>
   <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>TRUE</formula>

--- a/BMBL.xlsx
+++ b/BMBL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konst\Development\valuations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54D59E-449D-4ED6-B7FF-5A32275615A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70020EAF-A416-4187-BE59-78216B8A3B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="946" activeTab="3" xr2:uid="{A454576F-BA0E-4C95-85A1-1E0F525C6E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Disclaimer" sheetId="2" r:id="rId1"/>
@@ -1879,13 +1879,13 @@
     <t>Shareprice</t>
   </si>
   <si>
-    <t>0 due to impairment</t>
-  </si>
-  <si>
     <t>Revenue growth rate</t>
   </si>
   <si>
     <t>$BMBL price per share</t>
+  </si>
+  <si>
+    <t>0 due to TLCF</t>
   </si>
 </sst>
 </file>
@@ -2015,6 +2015,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="10"/>
       <color theme="0"/>
@@ -17240,8 +17241,8 @@
   </sheetPr>
   <dimension ref="A1:AO750"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI41" sqref="AI41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ44" sqref="AJ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -17257,7 +17258,7 @@
     <col min="35" max="35" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4">
         <v>0.1</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="4" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="b">
         <f ca="1">AND(C:C)</f>
         <v>0</v>
@@ -17337,7 +17338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>547</v>
       </c>
@@ -17721,7 +17722,7 @@
         <v>1074.6386484480001</v>
       </c>
       <c r="AF13" s="37">
-        <f t="shared" si="5"/>
+        <f>AE13*(1+AF29)</f>
         <v>1096.1314214169602</v>
       </c>
       <c r="AG13" s="38"/>
@@ -18331,7 +18332,9 @@
       <c r="AE20" s="38">
         <v>0</v>
       </c>
-      <c r="AF20" s="38"/>
+      <c r="AF20" s="38">
+        <v>0</v>
+      </c>
       <c r="AG20" s="38"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
@@ -18810,7 +18813,7 @@
         <v>-6.4690000000000003</v>
       </c>
       <c r="Z25" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AA25" s="38">
         <v>0</v>
@@ -20270,7 +20273,7 @@
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
       <c r="AI46" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
@@ -20350,7 +20353,7 @@
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
       <c r="AK47" s="56" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AL47" s="56"/>
       <c r="AM47" s="56"/>
